--- a/Bases_de_Dados_(2022-2024)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA USL Championship_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="336">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -712,6 +712,15 @@
     <t>['69', '78']</t>
   </si>
   <si>
+    <t>['8', '51']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['13', '35', '90+5']</t>
+  </si>
+  <si>
     <t>['8', '11', '90+4']</t>
   </si>
   <si>
@@ -800,9 +809,6 @@
   </si>
   <si>
     <t>['46']</t>
-  </si>
-  <si>
-    <t>['49']</t>
   </si>
   <si>
     <t>['29', '64', '87']</t>
@@ -995,6 +1001,27 @@
   </si>
   <si>
     <t>['31', '45', '81']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['58', '62']</t>
+  </si>
+  <si>
+    <t>['1', '9', '30', '45+3', '70']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
+  </si>
+  <si>
+    <t>['15', '38', '84']</t>
+  </si>
+  <si>
+    <t>['24', '60']</t>
+  </si>
+  <si>
+    <t>['15', '33', '78']</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK216"/>
+  <dimension ref="A1:BK231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1600,7 +1627,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1690,7 +1717,7 @@
         <v>1.5</v>
       </c>
       <c r="AT2">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1878,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -2173,7 +2200,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2364,7 +2391,7 @@
         <v>93</v>
       </c>
       <c r="P6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2451,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT6">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2645,7 +2672,7 @@
         <v>1.89</v>
       </c>
       <c r="AT7">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2833,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AT8">
         <v>1.38</v>
@@ -2937,7 +2964,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3024,10 +3051,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT9">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3218,7 +3245,7 @@
         <v>1.75</v>
       </c>
       <c r="AT10">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3319,7 +3346,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3510,7 +3537,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3701,7 +3728,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3788,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AT13">
         <v>0.9</v>
@@ -3892,7 +3919,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -3979,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -4083,7 +4110,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4173,7 +4200,7 @@
         <v>1.5</v>
       </c>
       <c r="AT15">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4361,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT16">
         <v>1.1</v>
@@ -4465,7 +4492,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4552,10 +4579,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT17">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4656,7 +4683,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4743,10 +4770,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AT18">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4934,10 +4961,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT19">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5125,7 +5152,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT20">
         <v>1.56</v>
@@ -5319,7 +5346,7 @@
         <v>1.4</v>
       </c>
       <c r="AT21">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU21">
         <v>1.52</v>
@@ -5507,10 +5534,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT22">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5892,7 +5919,7 @@
         <v>1.1</v>
       </c>
       <c r="AT24">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -6080,10 +6107,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT25">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6184,7 +6211,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6566,7 +6593,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6653,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT28">
         <v>2.25</v>
@@ -6757,7 +6784,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -7038,7 +7065,7 @@
         <v>1.5</v>
       </c>
       <c r="AT30">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -7417,10 +7444,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AT32">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7521,7 +7548,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7799,10 +7826,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT34">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7990,10 +8017,10 @@
         <v>2</v>
       </c>
       <c r="AS35">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AT35">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU35">
         <v>1.29</v>
@@ -8094,7 +8121,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8181,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AT36">
         <v>2.25</v>
@@ -8375,7 +8402,7 @@
         <v>0.5</v>
       </c>
       <c r="AT37">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU37">
         <v>1.4</v>
@@ -8563,7 +8590,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT38">
         <v>0.9</v>
@@ -8757,7 +8784,7 @@
         <v>1</v>
       </c>
       <c r="AT39">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -8945,10 +8972,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT40">
-        <v>2.17</v>
+        <v>1.88</v>
       </c>
       <c r="AU40">
         <v>1.56</v>
@@ -9136,7 +9163,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT41">
         <v>0.73</v>
@@ -9240,7 +9267,7 @@
         <v>95</v>
       </c>
       <c r="P42" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9431,7 +9458,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9518,10 +9545,10 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT43">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU43">
         <v>0</v>
@@ -9709,7 +9736,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT44">
         <v>1.1</v>
@@ -9900,7 +9927,7 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT45">
         <v>1.56</v>
@@ -10004,7 +10031,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10094,7 +10121,7 @@
         <v>1.63</v>
       </c>
       <c r="AT46">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -10282,10 +10309,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT47">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU47">
         <v>1.21</v>
@@ -10386,7 +10413,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10577,7 +10604,7 @@
         <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10664,10 +10691,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT49">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU49">
         <v>1.58</v>
@@ -10858,7 +10885,7 @@
         <v>2</v>
       </c>
       <c r="AT50">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU50">
         <v>1.01</v>
@@ -10959,7 +10986,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11049,7 +11076,7 @@
         <v>1.5</v>
       </c>
       <c r="AT51">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU51">
         <v>0</v>
@@ -11237,10 +11264,10 @@
         <v>1.67</v>
       </c>
       <c r="AS52">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT52">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU52">
         <v>0</v>
@@ -11619,10 +11646,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AT54">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -11723,7 +11750,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11810,7 +11837,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT55">
         <v>1.1</v>
@@ -11914,7 +11941,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -12001,7 +12028,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT56">
         <v>1.2</v>
@@ -12105,7 +12132,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -12195,7 +12222,7 @@
         <v>2</v>
       </c>
       <c r="AT57">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU57">
         <v>1.2</v>
@@ -12296,7 +12323,7 @@
         <v>108</v>
       </c>
       <c r="P58" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12383,10 +12410,10 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AT58">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU58">
         <v>1.26</v>
@@ -12574,7 +12601,7 @@
         <v>3</v>
       </c>
       <c r="AS59">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT59">
         <v>1.11</v>
@@ -12765,10 +12792,10 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT60">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU60">
         <v>1.3</v>
@@ -12956,10 +12983,10 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT61">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU61">
         <v>1.61</v>
@@ -13147,10 +13174,10 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT62">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU62">
         <v>1.76</v>
@@ -13251,7 +13278,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13442,7 +13469,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13532,7 +13559,7 @@
         <v>1.75</v>
       </c>
       <c r="AT64">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU64">
         <v>0</v>
@@ -13633,7 +13660,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q65">
         <v>13</v>
@@ -13720,10 +13747,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT65">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU65">
         <v>0</v>
@@ -14293,7 +14320,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT68">
         <v>0.9</v>
@@ -14397,7 +14424,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14484,7 +14511,7 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT69">
         <v>1.22</v>
@@ -14779,7 +14806,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14866,7 +14893,7 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT71">
         <v>1.1</v>
@@ -14970,7 +14997,7 @@
         <v>128</v>
       </c>
       <c r="P72" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -15161,7 +15188,7 @@
         <v>95</v>
       </c>
       <c r="P73" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15251,7 +15278,7 @@
         <v>1.1</v>
       </c>
       <c r="AT73">
-        <v>2.17</v>
+        <v>1.88</v>
       </c>
       <c r="AU73">
         <v>0</v>
@@ -15439,10 +15466,10 @@
         <v>1.25</v>
       </c>
       <c r="AS74">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AT74">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU74">
         <v>1.79</v>
@@ -15543,7 +15570,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15821,10 +15848,10 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT76">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU76">
         <v>1.3</v>
@@ -16012,10 +16039,10 @@
         <v>1.33</v>
       </c>
       <c r="AS77">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT77">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU77">
         <v>1.93</v>
@@ -16203,7 +16230,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT78">
         <v>0.73</v>
@@ -16397,7 +16424,7 @@
         <v>1.75</v>
       </c>
       <c r="AT79">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU79">
         <v>1.43</v>
@@ -16498,7 +16525,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16588,7 +16615,7 @@
         <v>1</v>
       </c>
       <c r="AT80">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU80">
         <v>1.31</v>
@@ -16776,7 +16803,7 @@
         <v>2</v>
       </c>
       <c r="AS81">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AT81">
         <v>1.38</v>
@@ -16880,7 +16907,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -16967,10 +16994,10 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT82">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU82">
         <v>1.58</v>
@@ -17071,7 +17098,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17453,7 +17480,7 @@
         <v>97</v>
       </c>
       <c r="P85" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17734,7 +17761,7 @@
         <v>1.75</v>
       </c>
       <c r="AT86">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU86">
         <v>1.44</v>
@@ -17922,10 +17949,10 @@
         <v>1.5</v>
       </c>
       <c r="AS87">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT87">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU87">
         <v>1.39</v>
@@ -18113,10 +18140,10 @@
         <v>0.5</v>
       </c>
       <c r="AS88">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT88">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU88">
         <v>1.58</v>
@@ -18217,7 +18244,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18408,7 +18435,7 @@
         <v>149</v>
       </c>
       <c r="P90" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18498,7 +18525,7 @@
         <v>1.63</v>
       </c>
       <c r="AT90">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU90">
         <v>1.24</v>
@@ -18599,7 +18626,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18686,10 +18713,10 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT91">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU91">
         <v>1.27</v>
@@ -18790,7 +18817,7 @@
         <v>151</v>
       </c>
       <c r="P92" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18877,7 +18904,7 @@
         <v>2.25</v>
       </c>
       <c r="AS92">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT92">
         <v>1.11</v>
@@ -18981,7 +19008,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19172,7 +19199,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19259,7 +19286,7 @@
         <v>2.33</v>
       </c>
       <c r="AS94">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT94">
         <v>2.25</v>
@@ -19363,7 +19390,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19450,10 +19477,10 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT95">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU95">
         <v>1.03</v>
@@ -19644,7 +19671,7 @@
         <v>0.43</v>
       </c>
       <c r="AT96">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU96">
         <v>0</v>
@@ -19745,7 +19772,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19832,7 +19859,7 @@
         <v>1.33</v>
       </c>
       <c r="AS97">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT97">
         <v>1.63</v>
@@ -19936,7 +19963,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q98">
         <v>9</v>
@@ -20026,7 +20053,7 @@
         <v>0.5</v>
       </c>
       <c r="AT98">
-        <v>2.17</v>
+        <v>1.88</v>
       </c>
       <c r="AU98">
         <v>1.47</v>
@@ -20127,7 +20154,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20214,10 +20241,10 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT99">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU99">
         <v>1.51</v>
@@ -20318,7 +20345,7 @@
         <v>156</v>
       </c>
       <c r="P100" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20700,7 +20727,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20790,7 +20817,7 @@
         <v>1.4</v>
       </c>
       <c r="AT102">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU102">
         <v>1.41</v>
@@ -20891,7 +20918,7 @@
         <v>126</v>
       </c>
       <c r="P103" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20981,7 +21008,7 @@
         <v>0.43</v>
       </c>
       <c r="AT103">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU103">
         <v>2.04</v>
@@ -21082,7 +21109,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21169,10 +21196,10 @@
         <v>0.67</v>
       </c>
       <c r="AS104">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT104">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU104">
         <v>1.53</v>
@@ -21360,7 +21387,7 @@
         <v>1.8</v>
       </c>
       <c r="AS105">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT105">
         <v>1.11</v>
@@ -21464,7 +21491,7 @@
         <v>95</v>
       </c>
       <c r="P106" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21554,7 +21581,7 @@
         <v>1.5</v>
       </c>
       <c r="AT106">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU106">
         <v>1.28</v>
@@ -21745,7 +21772,7 @@
         <v>2</v>
       </c>
       <c r="AT107">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU107">
         <v>1.36</v>
@@ -22315,10 +22342,10 @@
         <v>1</v>
       </c>
       <c r="AS110">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AT110">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU110">
         <v>1.44</v>
@@ -22419,7 +22446,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22509,7 +22536,7 @@
         <v>1.75</v>
       </c>
       <c r="AT111">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU111">
         <v>1.45</v>
@@ -22697,7 +22724,7 @@
         <v>1.75</v>
       </c>
       <c r="AS112">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT112">
         <v>1.63</v>
@@ -22801,7 +22828,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -22891,7 +22918,7 @@
         <v>1.63</v>
       </c>
       <c r="AT113">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU113">
         <v>1.18</v>
@@ -23270,10 +23297,10 @@
         <v>0.33</v>
       </c>
       <c r="AS115">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT115">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU115">
         <v>1.45</v>
@@ -23374,7 +23401,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23461,7 +23488,7 @@
         <v>0.8</v>
       </c>
       <c r="AS116">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT116">
         <v>1.1</v>
@@ -23756,7 +23783,7 @@
         <v>112</v>
       </c>
       <c r="P118" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q118">
         <v>10</v>
@@ -23843,10 +23870,10 @@
         <v>2.33</v>
       </c>
       <c r="AS118">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AT118">
-        <v>2.17</v>
+        <v>1.88</v>
       </c>
       <c r="AU118">
         <v>1.36</v>
@@ -24138,7 +24165,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24225,10 +24252,10 @@
         <v>1.25</v>
       </c>
       <c r="AS120">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT120">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU120">
         <v>1.47</v>
@@ -24329,7 +24356,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24416,7 +24443,7 @@
         <v>0.83</v>
       </c>
       <c r="AS121">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT121">
         <v>0.73</v>
@@ -24607,7 +24634,7 @@
         <v>1.5</v>
       </c>
       <c r="AS122">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT122">
         <v>0.9</v>
@@ -24801,7 +24828,7 @@
         <v>0.5</v>
       </c>
       <c r="AT123">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU123">
         <v>1.53</v>
@@ -24992,7 +25019,7 @@
         <v>1</v>
       </c>
       <c r="AT124">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU124">
         <v>1.12</v>
@@ -25093,7 +25120,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25180,7 +25207,7 @@
         <v>2.5</v>
       </c>
       <c r="AS125">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT125">
         <v>2.25</v>
@@ -25284,7 +25311,7 @@
         <v>95</v>
       </c>
       <c r="P126" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25374,7 +25401,7 @@
         <v>1.1</v>
       </c>
       <c r="AT126">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU126">
         <v>1.15</v>
@@ -25666,7 +25693,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25753,10 +25780,10 @@
         <v>1.4</v>
       </c>
       <c r="AS128">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT128">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU128">
         <v>1.58</v>
@@ -25857,7 +25884,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25944,7 +25971,7 @@
         <v>0.6</v>
       </c>
       <c r="AS129">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT129">
         <v>1</v>
@@ -26048,7 +26075,7 @@
         <v>131</v>
       </c>
       <c r="P130" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26239,7 +26266,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26621,7 +26648,7 @@
         <v>95</v>
       </c>
       <c r="P133" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26708,7 +26735,7 @@
         <v>1.6</v>
       </c>
       <c r="AS133">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT133">
         <v>1.56</v>
@@ -26899,10 +26926,10 @@
         <v>0.25</v>
       </c>
       <c r="AS134">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT134">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU134">
         <v>1.45</v>
@@ -27003,7 +27030,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27194,7 +27221,7 @@
         <v>95</v>
       </c>
       <c r="P136" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27284,7 +27311,7 @@
         <v>1.1</v>
       </c>
       <c r="AT136">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU136">
         <v>1.5</v>
@@ -27663,10 +27690,10 @@
         <v>1.6</v>
       </c>
       <c r="AS138">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT138">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU138">
         <v>1.44</v>
@@ -27767,7 +27794,7 @@
         <v>95</v>
       </c>
       <c r="P139" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q139">
         <v>6</v>
@@ -27854,10 +27881,10 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT139">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU139">
         <v>1.87</v>
@@ -28045,7 +28072,7 @@
         <v>1</v>
       </c>
       <c r="AS140">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT140">
         <v>1</v>
@@ -28149,7 +28176,7 @@
         <v>95</v>
       </c>
       <c r="P141" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28340,7 +28367,7 @@
         <v>95</v>
       </c>
       <c r="P142" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28427,10 +28454,10 @@
         <v>1.17</v>
       </c>
       <c r="AS142">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT142">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU142">
         <v>1.55</v>
@@ -28809,7 +28836,7 @@
         <v>1.33</v>
       </c>
       <c r="AS144">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT144">
         <v>1.2</v>
@@ -28913,7 +28940,7 @@
         <v>183</v>
       </c>
       <c r="P145" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -29194,7 +29221,7 @@
         <v>1.5</v>
       </c>
       <c r="AT146">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU146">
         <v>1.81</v>
@@ -29295,7 +29322,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29385,7 +29412,7 @@
         <v>1.89</v>
       </c>
       <c r="AT147">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU147">
         <v>1.73</v>
@@ -29767,7 +29794,7 @@
         <v>1.4</v>
       </c>
       <c r="AT149">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU149">
         <v>1.48</v>
@@ -29868,7 +29895,7 @@
         <v>187</v>
       </c>
       <c r="P150" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -29955,10 +29982,10 @@
         <v>0.6</v>
       </c>
       <c r="AS150">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT150">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU150">
         <v>1.29</v>
@@ -30149,7 +30176,7 @@
         <v>1.5</v>
       </c>
       <c r="AT151">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU151">
         <v>1.21</v>
@@ -30250,7 +30277,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30337,7 +30364,7 @@
         <v>1</v>
       </c>
       <c r="AS152">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT152">
         <v>1</v>
@@ -30632,7 +30659,7 @@
         <v>109</v>
       </c>
       <c r="P154" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q154">
         <v>8</v>
@@ -30719,10 +30746,10 @@
         <v>0.67</v>
       </c>
       <c r="AS154">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT154">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU154">
         <v>1.46</v>
@@ -30910,10 +30937,10 @@
         <v>2.6</v>
       </c>
       <c r="AS155">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT155">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU155">
         <v>1.52</v>
@@ -31014,7 +31041,7 @@
         <v>191</v>
       </c>
       <c r="P156" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31205,7 +31232,7 @@
         <v>192</v>
       </c>
       <c r="P157" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31295,7 +31322,7 @@
         <v>1.1</v>
       </c>
       <c r="AT157">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU157">
         <v>1.8</v>
@@ -31396,7 +31423,7 @@
         <v>193</v>
       </c>
       <c r="P158" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31483,10 +31510,10 @@
         <v>2.5</v>
       </c>
       <c r="AS158">
+        <v>1.67</v>
+      </c>
+      <c r="AT158">
         <v>1.88</v>
-      </c>
-      <c r="AT158">
-        <v>2.17</v>
       </c>
       <c r="AU158">
         <v>1.82</v>
@@ -31587,7 +31614,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31865,10 +31892,10 @@
         <v>0.4</v>
       </c>
       <c r="AS160">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT160">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU160">
         <v>1.51</v>
@@ -31969,7 +31996,7 @@
         <v>196</v>
       </c>
       <c r="P161" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -32059,7 +32086,7 @@
         <v>1.63</v>
       </c>
       <c r="AT161">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU161">
         <v>1.58</v>
@@ -32160,7 +32187,7 @@
         <v>197</v>
       </c>
       <c r="P162" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -32351,7 +32378,7 @@
         <v>89</v>
       </c>
       <c r="P163" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32441,7 +32468,7 @@
         <v>0.5</v>
       </c>
       <c r="AT163">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU163">
         <v>1.42</v>
@@ -32542,7 +32569,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -32629,7 +32656,7 @@
         <v>1</v>
       </c>
       <c r="AS164">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AT164">
         <v>0.73</v>
@@ -32733,7 +32760,7 @@
         <v>199</v>
       </c>
       <c r="P165" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q165">
         <v>9</v>
@@ -32823,7 +32850,7 @@
         <v>1.75</v>
       </c>
       <c r="AT165">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU165">
         <v>1.51</v>
@@ -32924,7 +32951,7 @@
         <v>200</v>
       </c>
       <c r="P166" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -33014,7 +33041,7 @@
         <v>0.5</v>
       </c>
       <c r="AT166">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU166">
         <v>1.44</v>
@@ -33115,7 +33142,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33202,10 +33229,10 @@
         <v>0.5</v>
       </c>
       <c r="AS167">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT167">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU167">
         <v>1.36</v>
@@ -33306,7 +33333,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33393,7 +33420,7 @@
         <v>1.67</v>
       </c>
       <c r="AS168">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT168">
         <v>1.63</v>
@@ -33497,7 +33524,7 @@
         <v>95</v>
       </c>
       <c r="P169" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33584,10 +33611,10 @@
         <v>0.33</v>
       </c>
       <c r="AS169">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AT169">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU169">
         <v>1.49</v>
@@ -33778,7 +33805,7 @@
         <v>1.5</v>
       </c>
       <c r="AT170">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU170">
         <v>1.75</v>
@@ -33879,7 +33906,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33969,7 +33996,7 @@
         <v>1.75</v>
       </c>
       <c r="AT171">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU171">
         <v>1.21</v>
@@ -34157,7 +34184,7 @@
         <v>0.89</v>
       </c>
       <c r="AS172">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT172">
         <v>0.73</v>
@@ -34348,10 +34375,10 @@
         <v>1.4</v>
       </c>
       <c r="AS173">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AT173">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU173">
         <v>1.57</v>
@@ -34539,10 +34566,10 @@
         <v>1.25</v>
       </c>
       <c r="AS174">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT174">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU174">
         <v>1.51</v>
@@ -34643,7 +34670,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q175">
         <v>8</v>
@@ -34834,7 +34861,7 @@
         <v>95</v>
       </c>
       <c r="P176" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q176">
         <v>11</v>
@@ -34921,7 +34948,7 @@
         <v>1.33</v>
       </c>
       <c r="AS176">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT176">
         <v>1.22</v>
@@ -35112,10 +35139,10 @@
         <v>0.86</v>
       </c>
       <c r="AS177">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT177">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU177">
         <v>1.42</v>
@@ -35598,7 +35625,7 @@
         <v>208</v>
       </c>
       <c r="P180" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q180">
         <v>7</v>
@@ -35876,10 +35903,10 @@
         <v>1.29</v>
       </c>
       <c r="AS181">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT181">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU181">
         <v>1.42</v>
@@ -35980,7 +36007,7 @@
         <v>95</v>
       </c>
       <c r="P182" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q182">
         <v>9</v>
@@ -36171,7 +36198,7 @@
         <v>210</v>
       </c>
       <c r="P183" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36258,10 +36285,10 @@
         <v>1.33</v>
       </c>
       <c r="AS183">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT183">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU183">
         <v>1.75</v>
@@ -36452,7 +36479,7 @@
         <v>1</v>
       </c>
       <c r="AT184">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU184">
         <v>1.08</v>
@@ -36640,7 +36667,7 @@
         <v>0.8</v>
       </c>
       <c r="AS185">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT185">
         <v>0.73</v>
@@ -36744,7 +36771,7 @@
         <v>212</v>
       </c>
       <c r="P186" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -36834,7 +36861,7 @@
         <v>1.5</v>
       </c>
       <c r="AT186">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU186">
         <v>1.58</v>
@@ -37126,7 +37153,7 @@
         <v>214</v>
       </c>
       <c r="P188" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q188">
         <v>1</v>
@@ -37213,7 +37240,7 @@
         <v>1.38</v>
       </c>
       <c r="AS188">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT188">
         <v>1.2</v>
@@ -37404,10 +37431,10 @@
         <v>0.5</v>
       </c>
       <c r="AS189">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT189">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU189">
         <v>1.47</v>
@@ -37508,7 +37535,7 @@
         <v>215</v>
       </c>
       <c r="P190" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37595,10 +37622,10 @@
         <v>1.57</v>
       </c>
       <c r="AS190">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT190">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU190">
         <v>1.59</v>
@@ -37699,7 +37726,7 @@
         <v>95</v>
       </c>
       <c r="P191" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -37786,10 +37813,10 @@
         <v>1.33</v>
       </c>
       <c r="AS191">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT191">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU191">
         <v>1.44</v>
@@ -37980,7 +38007,7 @@
         <v>1.5</v>
       </c>
       <c r="AT192">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU192">
         <v>1.2</v>
@@ -38081,7 +38108,7 @@
         <v>217</v>
       </c>
       <c r="P193" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q193">
         <v>1</v>
@@ -38168,10 +38195,10 @@
         <v>1</v>
       </c>
       <c r="AS193">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AT193">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU193">
         <v>1.48</v>
@@ -38272,7 +38299,7 @@
         <v>218</v>
       </c>
       <c r="P194" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38359,10 +38386,10 @@
         <v>1.13</v>
       </c>
       <c r="AS194">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT194">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU194">
         <v>1.46</v>
@@ -38550,7 +38577,7 @@
         <v>1.63</v>
       </c>
       <c r="AS195">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT195">
         <v>1.56</v>
@@ -38932,10 +38959,10 @@
         <v>0.43</v>
       </c>
       <c r="AS197">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT197">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU197">
         <v>1.49</v>
@@ -39123,7 +39150,7 @@
         <v>0.88</v>
       </c>
       <c r="AS198">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AT198">
         <v>1.1</v>
@@ -39418,7 +39445,7 @@
         <v>222</v>
       </c>
       <c r="P200" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q200">
         <v>10</v>
@@ -39508,7 +39535,7 @@
         <v>0.43</v>
       </c>
       <c r="AT200">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU200">
         <v>2.17</v>
@@ -39699,7 +39726,7 @@
         <v>1.63</v>
       </c>
       <c r="AT201">
-        <v>2.17</v>
+        <v>1.88</v>
       </c>
       <c r="AU201">
         <v>1.66</v>
@@ -39887,10 +39914,10 @@
         <v>1.57</v>
       </c>
       <c r="AS202">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT202">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU202">
         <v>1.57</v>
@@ -40078,10 +40105,10 @@
         <v>0.71</v>
       </c>
       <c r="AS203">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT203">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU203">
         <v>1.65</v>
@@ -40182,7 +40209,7 @@
         <v>225</v>
       </c>
       <c r="P204" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q204">
         <v>7</v>
@@ -40460,7 +40487,7 @@
         <v>1.38</v>
       </c>
       <c r="AS205">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT205">
         <v>1.22</v>
@@ -40564,7 +40591,7 @@
         <v>95</v>
       </c>
       <c r="P206" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -40654,7 +40681,7 @@
         <v>1.5</v>
       </c>
       <c r="AT206">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU206">
         <v>1.49</v>
@@ -40755,7 +40782,7 @@
         <v>95</v>
       </c>
       <c r="P207" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q207">
         <v>2</v>
@@ -40845,7 +40872,7 @@
         <v>0.5</v>
       </c>
       <c r="AT207">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU207">
         <v>1.38</v>
@@ -41033,7 +41060,7 @@
         <v>0.78</v>
       </c>
       <c r="AS208">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT208">
         <v>1</v>
@@ -41224,7 +41251,7 @@
         <v>1.43</v>
       </c>
       <c r="AS209">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT209">
         <v>1.38</v>
@@ -41328,7 +41355,7 @@
         <v>227</v>
       </c>
       <c r="P210" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41415,7 +41442,7 @@
         <v>1.33</v>
       </c>
       <c r="AS210">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT210">
         <v>1.2</v>
@@ -41609,7 +41636,7 @@
         <v>2</v>
       </c>
       <c r="AT211">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU211">
         <v>1.41</v>
@@ -41797,10 +41824,10 @@
         <v>0.67</v>
       </c>
       <c r="AS212">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT212">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU212">
         <v>1.76</v>
@@ -41991,7 +42018,7 @@
         <v>1.75</v>
       </c>
       <c r="AT213">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU213">
         <v>1.22</v>
@@ -42179,7 +42206,7 @@
         <v>2.43</v>
       </c>
       <c r="AS214">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT214">
         <v>2.25</v>
@@ -42283,7 +42310,7 @@
         <v>230</v>
       </c>
       <c r="P215" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q215">
         <v>8</v>
@@ -42564,7 +42591,7 @@
         <v>1.1</v>
       </c>
       <c r="AT216">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU216">
         <v>1.79</v>
@@ -42616,6 +42643,2871 @@
       </c>
       <c r="BK216">
         <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>5094227</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45119.83333333334</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217" t="s">
+        <v>84</v>
+      </c>
+      <c r="H217" t="s">
+        <v>68</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>2</v>
+      </c>
+      <c r="O217" t="s">
+        <v>148</v>
+      </c>
+      <c r="P217" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q217">
+        <v>4</v>
+      </c>
+      <c r="R217">
+        <v>2</v>
+      </c>
+      <c r="S217">
+        <v>6</v>
+      </c>
+      <c r="T217">
+        <v>2.85</v>
+      </c>
+      <c r="U217">
+        <v>2.1</v>
+      </c>
+      <c r="V217">
+        <v>3.4</v>
+      </c>
+      <c r="W217">
+        <v>1.36</v>
+      </c>
+      <c r="X217">
+        <v>3</v>
+      </c>
+      <c r="Y217">
+        <v>2.75</v>
+      </c>
+      <c r="Z217">
+        <v>1.4</v>
+      </c>
+      <c r="AA217">
+        <v>6</v>
+      </c>
+      <c r="AB217">
+        <v>1.11</v>
+      </c>
+      <c r="AC217">
+        <v>2.38</v>
+      </c>
+      <c r="AD217">
+        <v>3.28</v>
+      </c>
+      <c r="AE217">
+        <v>2.63</v>
+      </c>
+      <c r="AF217">
+        <v>1.05</v>
+      </c>
+      <c r="AG217">
+        <v>9</v>
+      </c>
+      <c r="AH217">
+        <v>1.28</v>
+      </c>
+      <c r="AI217">
+        <v>3.5</v>
+      </c>
+      <c r="AJ217">
+        <v>1.88</v>
+      </c>
+      <c r="AK217">
+        <v>1.83</v>
+      </c>
+      <c r="AL217">
+        <v>1.68</v>
+      </c>
+      <c r="AM217">
+        <v>2.1</v>
+      </c>
+      <c r="AN217">
+        <v>1.33</v>
+      </c>
+      <c r="AO217">
+        <v>1.25</v>
+      </c>
+      <c r="AP217">
+        <v>1.53</v>
+      </c>
+      <c r="AQ217">
+        <v>0.78</v>
+      </c>
+      <c r="AR217">
+        <v>2</v>
+      </c>
+      <c r="AS217">
+        <v>0.8</v>
+      </c>
+      <c r="AT217">
+        <v>1.8</v>
+      </c>
+      <c r="AU217">
+        <v>1.52</v>
+      </c>
+      <c r="AV217">
+        <v>1.46</v>
+      </c>
+      <c r="AW217">
+        <v>2.98</v>
+      </c>
+      <c r="AX217">
+        <v>1.9</v>
+      </c>
+      <c r="AY217">
+        <v>8.1</v>
+      </c>
+      <c r="AZ217">
+        <v>2.14</v>
+      </c>
+      <c r="BA217">
+        <v>1.37</v>
+      </c>
+      <c r="BB217">
+        <v>1.7</v>
+      </c>
+      <c r="BC217">
+        <v>2.12</v>
+      </c>
+      <c r="BD217">
+        <v>2.93</v>
+      </c>
+      <c r="BE217">
+        <v>0</v>
+      </c>
+      <c r="BF217">
+        <v>4</v>
+      </c>
+      <c r="BG217">
+        <v>3</v>
+      </c>
+      <c r="BH217">
+        <v>2</v>
+      </c>
+      <c r="BI217">
+        <v>7</v>
+      </c>
+      <c r="BJ217">
+        <v>6</v>
+      </c>
+      <c r="BK217">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:63">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>5094224</v>
+      </c>
+      <c r="C218" t="s">
+        <v>63</v>
+      </c>
+      <c r="D218" t="s">
+        <v>64</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45119.85416666666</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218" t="s">
+        <v>82</v>
+      </c>
+      <c r="H218" t="s">
+        <v>78</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+      <c r="M218">
+        <v>1</v>
+      </c>
+      <c r="N218">
+        <v>2</v>
+      </c>
+      <c r="O218" t="s">
+        <v>128</v>
+      </c>
+      <c r="P218" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q218">
+        <v>4</v>
+      </c>
+      <c r="R218">
+        <v>5</v>
+      </c>
+      <c r="S218">
+        <v>9</v>
+      </c>
+      <c r="T218">
+        <v>2.4</v>
+      </c>
+      <c r="U218">
+        <v>2.15</v>
+      </c>
+      <c r="V218">
+        <v>4.2</v>
+      </c>
+      <c r="W218">
+        <v>1.38</v>
+      </c>
+      <c r="X218">
+        <v>2.85</v>
+      </c>
+      <c r="Y218">
+        <v>2.7</v>
+      </c>
+      <c r="Z218">
+        <v>1.42</v>
+      </c>
+      <c r="AA218">
+        <v>6</v>
+      </c>
+      <c r="AB218">
+        <v>1.09</v>
+      </c>
+      <c r="AC218">
+        <v>1.83</v>
+      </c>
+      <c r="AD218">
+        <v>3.4</v>
+      </c>
+      <c r="AE218">
+        <v>3.8</v>
+      </c>
+      <c r="AF218">
+        <v>1.04</v>
+      </c>
+      <c r="AG218">
+        <v>12.5</v>
+      </c>
+      <c r="AH218">
+        <v>1.28</v>
+      </c>
+      <c r="AI218">
+        <v>3.5</v>
+      </c>
+      <c r="AJ218">
+        <v>2.01</v>
+      </c>
+      <c r="AK218">
+        <v>1.73</v>
+      </c>
+      <c r="AL218">
+        <v>1.75</v>
+      </c>
+      <c r="AM218">
+        <v>2</v>
+      </c>
+      <c r="AN218">
+        <v>1.2</v>
+      </c>
+      <c r="AO218">
+        <v>1.22</v>
+      </c>
+      <c r="AP218">
+        <v>1.9</v>
+      </c>
+      <c r="AQ218">
+        <v>1</v>
+      </c>
+      <c r="AR218">
+        <v>0.6</v>
+      </c>
+      <c r="AS218">
+        <v>1</v>
+      </c>
+      <c r="AT218">
+        <v>0.64</v>
+      </c>
+      <c r="AU218">
+        <v>1.17</v>
+      </c>
+      <c r="AV218">
+        <v>1.31</v>
+      </c>
+      <c r="AW218">
+        <v>2.48</v>
+      </c>
+      <c r="AX218">
+        <v>1.57</v>
+      </c>
+      <c r="AY218">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ218">
+        <v>2.87</v>
+      </c>
+      <c r="BA218">
+        <v>1.48</v>
+      </c>
+      <c r="BB218">
+        <v>1.82</v>
+      </c>
+      <c r="BC218">
+        <v>2.28</v>
+      </c>
+      <c r="BD218">
+        <v>3.34</v>
+      </c>
+      <c r="BE218">
+        <v>0</v>
+      </c>
+      <c r="BF218">
+        <v>4</v>
+      </c>
+      <c r="BG218">
+        <v>6</v>
+      </c>
+      <c r="BH218">
+        <v>1</v>
+      </c>
+      <c r="BI218">
+        <v>6</v>
+      </c>
+      <c r="BJ218">
+        <v>5</v>
+      </c>
+      <c r="BK218">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:63">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>5094228</v>
+      </c>
+      <c r="C219" t="s">
+        <v>63</v>
+      </c>
+      <c r="D219" t="s">
+        <v>64</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45119.875</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219" t="s">
+        <v>81</v>
+      </c>
+      <c r="H219" t="s">
+        <v>79</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <v>1</v>
+      </c>
+      <c r="N219">
+        <v>1</v>
+      </c>
+      <c r="O219" t="s">
+        <v>95</v>
+      </c>
+      <c r="P219" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q219">
+        <v>3</v>
+      </c>
+      <c r="R219">
+        <v>2</v>
+      </c>
+      <c r="S219">
+        <v>5</v>
+      </c>
+      <c r="T219">
+        <v>2.75</v>
+      </c>
+      <c r="U219">
+        <v>2.15</v>
+      </c>
+      <c r="V219">
+        <v>3.5</v>
+      </c>
+      <c r="W219">
+        <v>1.36</v>
+      </c>
+      <c r="X219">
+        <v>3</v>
+      </c>
+      <c r="Y219">
+        <v>2.62</v>
+      </c>
+      <c r="Z219">
+        <v>1.44</v>
+      </c>
+      <c r="AA219">
+        <v>6</v>
+      </c>
+      <c r="AB219">
+        <v>1.11</v>
+      </c>
+      <c r="AC219">
+        <v>1.98</v>
+      </c>
+      <c r="AD219">
+        <v>3.2</v>
+      </c>
+      <c r="AE219">
+        <v>3.6</v>
+      </c>
+      <c r="AF219">
+        <v>1.05</v>
+      </c>
+      <c r="AG219">
+        <v>9</v>
+      </c>
+      <c r="AH219">
+        <v>1.29</v>
+      </c>
+      <c r="AI219">
+        <v>3.5</v>
+      </c>
+      <c r="AJ219">
+        <v>2.27</v>
+      </c>
+      <c r="AK219">
+        <v>1.56</v>
+      </c>
+      <c r="AL219">
+        <v>1.7</v>
+      </c>
+      <c r="AM219">
+        <v>2.05</v>
+      </c>
+      <c r="AN219">
+        <v>1.33</v>
+      </c>
+      <c r="AO219">
+        <v>1.29</v>
+      </c>
+      <c r="AP219">
+        <v>1.67</v>
+      </c>
+      <c r="AQ219">
+        <v>1.88</v>
+      </c>
+      <c r="AR219">
+        <v>1.22</v>
+      </c>
+      <c r="AS219">
+        <v>1.67</v>
+      </c>
+      <c r="AT219">
+        <v>1.4</v>
+      </c>
+      <c r="AU219">
+        <v>1.77</v>
+      </c>
+      <c r="AV219">
+        <v>1.23</v>
+      </c>
+      <c r="AW219">
+        <v>3</v>
+      </c>
+      <c r="AX219">
+        <v>1.66</v>
+      </c>
+      <c r="AY219">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ219">
+        <v>2.61</v>
+      </c>
+      <c r="BA219">
+        <v>1.38</v>
+      </c>
+      <c r="BB219">
+        <v>1.75</v>
+      </c>
+      <c r="BC219">
+        <v>2.19</v>
+      </c>
+      <c r="BD219">
+        <v>2.93</v>
+      </c>
+      <c r="BE219">
+        <v>0</v>
+      </c>
+      <c r="BF219">
+        <v>2</v>
+      </c>
+      <c r="BG219">
+        <v>7</v>
+      </c>
+      <c r="BH219">
+        <v>7</v>
+      </c>
+      <c r="BI219">
+        <v>2</v>
+      </c>
+      <c r="BJ219">
+        <v>9</v>
+      </c>
+      <c r="BK219">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:63">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>5094225</v>
+      </c>
+      <c r="C220" t="s">
+        <v>63</v>
+      </c>
+      <c r="D220" t="s">
+        <v>64</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45119.91666666666</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220" t="s">
+        <v>71</v>
+      </c>
+      <c r="H220" t="s">
+        <v>70</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>1</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>2</v>
+      </c>
+      <c r="N220">
+        <v>3</v>
+      </c>
+      <c r="O220" t="s">
+        <v>178</v>
+      </c>
+      <c r="P220" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q220">
+        <v>7</v>
+      </c>
+      <c r="R220">
+        <v>4</v>
+      </c>
+      <c r="S220">
+        <v>11</v>
+      </c>
+      <c r="T220">
+        <v>2.45</v>
+      </c>
+      <c r="U220">
+        <v>2.15</v>
+      </c>
+      <c r="V220">
+        <v>4.1</v>
+      </c>
+      <c r="W220">
+        <v>1.36</v>
+      </c>
+      <c r="X220">
+        <v>3</v>
+      </c>
+      <c r="Y220">
+        <v>2.75</v>
+      </c>
+      <c r="Z220">
+        <v>1.4</v>
+      </c>
+      <c r="AA220">
+        <v>6</v>
+      </c>
+      <c r="AB220">
+        <v>1.11</v>
+      </c>
+      <c r="AC220">
+        <v>2.6</v>
+      </c>
+      <c r="AD220">
+        <v>3.2</v>
+      </c>
+      <c r="AE220">
+        <v>2.45</v>
+      </c>
+      <c r="AF220">
+        <v>1.04</v>
+      </c>
+      <c r="AG220">
+        <v>12.25</v>
+      </c>
+      <c r="AH220">
+        <v>1.26</v>
+      </c>
+      <c r="AI220">
+        <v>3.5</v>
+      </c>
+      <c r="AJ220">
+        <v>1.92</v>
+      </c>
+      <c r="AK220">
+        <v>1.8</v>
+      </c>
+      <c r="AL220">
+        <v>1.72</v>
+      </c>
+      <c r="AM220">
+        <v>2.05</v>
+      </c>
+      <c r="AN220">
+        <v>1.25</v>
+      </c>
+      <c r="AO220">
+        <v>1.25</v>
+      </c>
+      <c r="AP220">
+        <v>1.82</v>
+      </c>
+      <c r="AQ220">
+        <v>1.44</v>
+      </c>
+      <c r="AR220">
+        <v>1.56</v>
+      </c>
+      <c r="AS220">
+        <v>1.27</v>
+      </c>
+      <c r="AT220">
+        <v>1.7</v>
+      </c>
+      <c r="AU220">
+        <v>1.5</v>
+      </c>
+      <c r="AV220">
+        <v>1.74</v>
+      </c>
+      <c r="AW220">
+        <v>3.24</v>
+      </c>
+      <c r="AX220">
+        <v>1.89</v>
+      </c>
+      <c r="AY220">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ220">
+        <v>2.11</v>
+      </c>
+      <c r="BA220">
+        <v>1.2</v>
+      </c>
+      <c r="BB220">
+        <v>1.39</v>
+      </c>
+      <c r="BC220">
+        <v>1.73</v>
+      </c>
+      <c r="BD220">
+        <v>2.14</v>
+      </c>
+      <c r="BE220">
+        <v>2.84</v>
+      </c>
+      <c r="BF220">
+        <v>5</v>
+      </c>
+      <c r="BG220">
+        <v>6</v>
+      </c>
+      <c r="BH220">
+        <v>4</v>
+      </c>
+      <c r="BI220">
+        <v>5</v>
+      </c>
+      <c r="BJ220">
+        <v>9</v>
+      </c>
+      <c r="BK220">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:63">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>5094226</v>
+      </c>
+      <c r="C221" t="s">
+        <v>63</v>
+      </c>
+      <c r="D221" t="s">
+        <v>64</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45119.91666666666</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221" t="s">
+        <v>83</v>
+      </c>
+      <c r="H221" t="s">
+        <v>66</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>1</v>
+      </c>
+      <c r="O221" t="s">
+        <v>193</v>
+      </c>
+      <c r="P221" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q221">
+        <v>2</v>
+      </c>
+      <c r="R221">
+        <v>1</v>
+      </c>
+      <c r="S221">
+        <v>3</v>
+      </c>
+      <c r="T221">
+        <v>0</v>
+      </c>
+      <c r="U221">
+        <v>0</v>
+      </c>
+      <c r="V221">
+        <v>0</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
+      <c r="AA221">
+        <v>0</v>
+      </c>
+      <c r="AB221">
+        <v>0</v>
+      </c>
+      <c r="AC221">
+        <v>2.34</v>
+      </c>
+      <c r="AD221">
+        <v>3.15</v>
+      </c>
+      <c r="AE221">
+        <v>2.77</v>
+      </c>
+      <c r="AF221">
+        <v>0</v>
+      </c>
+      <c r="AG221">
+        <v>0</v>
+      </c>
+      <c r="AH221">
+        <v>0</v>
+      </c>
+      <c r="AI221">
+        <v>0</v>
+      </c>
+      <c r="AJ221">
+        <v>2.09</v>
+      </c>
+      <c r="AK221">
+        <v>1.67</v>
+      </c>
+      <c r="AL221">
+        <v>0</v>
+      </c>
+      <c r="AM221">
+        <v>0</v>
+      </c>
+      <c r="AN221">
+        <v>0</v>
+      </c>
+      <c r="AO221">
+        <v>0</v>
+      </c>
+      <c r="AP221">
+        <v>0</v>
+      </c>
+      <c r="AQ221">
+        <v>1.13</v>
+      </c>
+      <c r="AR221">
+        <v>0.38</v>
+      </c>
+      <c r="AS221">
+        <v>1.5</v>
+      </c>
+      <c r="AT221">
+        <v>0.33</v>
+      </c>
+      <c r="AU221">
+        <v>1.5</v>
+      </c>
+      <c r="AV221">
+        <v>1.15</v>
+      </c>
+      <c r="AW221">
+        <v>2.65</v>
+      </c>
+      <c r="AX221">
+        <v>0</v>
+      </c>
+      <c r="AY221">
+        <v>0</v>
+      </c>
+      <c r="AZ221">
+        <v>0</v>
+      </c>
+      <c r="BA221">
+        <v>0</v>
+      </c>
+      <c r="BB221">
+        <v>0</v>
+      </c>
+      <c r="BC221">
+        <v>0</v>
+      </c>
+      <c r="BD221">
+        <v>0</v>
+      </c>
+      <c r="BE221">
+        <v>0</v>
+      </c>
+      <c r="BF221">
+        <v>2</v>
+      </c>
+      <c r="BG221">
+        <v>0</v>
+      </c>
+      <c r="BH221">
+        <v>5</v>
+      </c>
+      <c r="BI221">
+        <v>4</v>
+      </c>
+      <c r="BJ221">
+        <v>7</v>
+      </c>
+      <c r="BK221">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:63">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>5071899</v>
+      </c>
+      <c r="C222" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" t="s">
+        <v>64</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45119.95833333334</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222" t="s">
+        <v>85</v>
+      </c>
+      <c r="H222" t="s">
+        <v>65</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222">
+        <v>1</v>
+      </c>
+      <c r="N222">
+        <v>2</v>
+      </c>
+      <c r="O222" t="s">
+        <v>183</v>
+      </c>
+      <c r="P222" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q222">
+        <v>2</v>
+      </c>
+      <c r="R222">
+        <v>3</v>
+      </c>
+      <c r="S222">
+        <v>5</v>
+      </c>
+      <c r="T222">
+        <v>2.42</v>
+      </c>
+      <c r="U222">
+        <v>2.2</v>
+      </c>
+      <c r="V222">
+        <v>4.06</v>
+      </c>
+      <c r="W222">
+        <v>1.35</v>
+      </c>
+      <c r="X222">
+        <v>2.9</v>
+      </c>
+      <c r="Y222">
+        <v>2.6</v>
+      </c>
+      <c r="Z222">
+        <v>1.45</v>
+      </c>
+      <c r="AA222">
+        <v>5.75</v>
+      </c>
+      <c r="AB222">
+        <v>1.1</v>
+      </c>
+      <c r="AC222">
+        <v>2.11</v>
+      </c>
+      <c r="AD222">
+        <v>3.4</v>
+      </c>
+      <c r="AE222">
+        <v>3</v>
+      </c>
+      <c r="AF222">
+        <v>1.04</v>
+      </c>
+      <c r="AG222">
+        <v>12.25</v>
+      </c>
+      <c r="AH222">
+        <v>1.24</v>
+      </c>
+      <c r="AI222">
+        <v>3.67</v>
+      </c>
+      <c r="AJ222">
+        <v>1.8</v>
+      </c>
+      <c r="AK222">
+        <v>1.92</v>
+      </c>
+      <c r="AL222">
+        <v>1.65</v>
+      </c>
+      <c r="AM222">
+        <v>2.18</v>
+      </c>
+      <c r="AN222">
+        <v>1.25</v>
+      </c>
+      <c r="AO222">
+        <v>1.29</v>
+      </c>
+      <c r="AP222">
+        <v>1.83</v>
+      </c>
+      <c r="AQ222">
+        <v>1.5</v>
+      </c>
+      <c r="AR222">
+        <v>2.17</v>
+      </c>
+      <c r="AS222">
+        <v>1.44</v>
+      </c>
+      <c r="AT222">
+        <v>1.88</v>
+      </c>
+      <c r="AU222">
+        <v>1.38</v>
+      </c>
+      <c r="AV222">
+        <v>1.7</v>
+      </c>
+      <c r="AW222">
+        <v>3.08</v>
+      </c>
+      <c r="AX222">
+        <v>1.75</v>
+      </c>
+      <c r="AY222">
+        <v>8.5</v>
+      </c>
+      <c r="AZ222">
+        <v>2.41</v>
+      </c>
+      <c r="BA222">
+        <v>1.26</v>
+      </c>
+      <c r="BB222">
+        <v>1.53</v>
+      </c>
+      <c r="BC222">
+        <v>1.88</v>
+      </c>
+      <c r="BD222">
+        <v>2.33</v>
+      </c>
+      <c r="BE222">
+        <v>3.2</v>
+      </c>
+      <c r="BF222">
+        <v>5</v>
+      </c>
+      <c r="BG222">
+        <v>6</v>
+      </c>
+      <c r="BH222">
+        <v>4</v>
+      </c>
+      <c r="BI222">
+        <v>8</v>
+      </c>
+      <c r="BJ222">
+        <v>9</v>
+      </c>
+      <c r="BK222">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:63">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>5094229</v>
+      </c>
+      <c r="C223" t="s">
+        <v>63</v>
+      </c>
+      <c r="D223" t="s">
+        <v>64</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45121.94861111111</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223" t="s">
+        <v>76</v>
+      </c>
+      <c r="H223" t="s">
+        <v>73</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>4</v>
+      </c>
+      <c r="K223">
+        <v>4</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>5</v>
+      </c>
+      <c r="N223">
+        <v>5</v>
+      </c>
+      <c r="O223" t="s">
+        <v>95</v>
+      </c>
+      <c r="P223" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q223">
+        <v>4</v>
+      </c>
+      <c r="R223">
+        <v>2</v>
+      </c>
+      <c r="S223">
+        <v>6</v>
+      </c>
+      <c r="T223">
+        <v>2.38</v>
+      </c>
+      <c r="U223">
+        <v>2.2</v>
+      </c>
+      <c r="V223">
+        <v>4</v>
+      </c>
+      <c r="W223">
+        <v>1.36</v>
+      </c>
+      <c r="X223">
+        <v>3</v>
+      </c>
+      <c r="Y223">
+        <v>2.62</v>
+      </c>
+      <c r="Z223">
+        <v>1.44</v>
+      </c>
+      <c r="AA223">
+        <v>6</v>
+      </c>
+      <c r="AB223">
+        <v>1.11</v>
+      </c>
+      <c r="AC223">
+        <v>1.79</v>
+      </c>
+      <c r="AD223">
+        <v>3.35</v>
+      </c>
+      <c r="AE223">
+        <v>3.6</v>
+      </c>
+      <c r="AF223">
+        <v>1.05</v>
+      </c>
+      <c r="AG223">
+        <v>9</v>
+      </c>
+      <c r="AH223">
+        <v>1.29</v>
+      </c>
+      <c r="AI223">
+        <v>3.5</v>
+      </c>
+      <c r="AJ223">
+        <v>1.73</v>
+      </c>
+      <c r="AK223">
+        <v>1.8</v>
+      </c>
+      <c r="AL223">
+        <v>1.73</v>
+      </c>
+      <c r="AM223">
+        <v>2</v>
+      </c>
+      <c r="AN223">
+        <v>1.25</v>
+      </c>
+      <c r="AO223">
+        <v>1.29</v>
+      </c>
+      <c r="AP223">
+        <v>1.8</v>
+      </c>
+      <c r="AQ223">
+        <v>2.11</v>
+      </c>
+      <c r="AR223">
+        <v>1.3</v>
+      </c>
+      <c r="AS223">
+        <v>1.9</v>
+      </c>
+      <c r="AT223">
+        <v>1.45</v>
+      </c>
+      <c r="AU223">
+        <v>1.52</v>
+      </c>
+      <c r="AV223">
+        <v>1.47</v>
+      </c>
+      <c r="AW223">
+        <v>2.99</v>
+      </c>
+      <c r="AX223">
+        <v>1.81</v>
+      </c>
+      <c r="AY223">
+        <v>8.6</v>
+      </c>
+      <c r="AZ223">
+        <v>2.23</v>
+      </c>
+      <c r="BA223">
+        <v>1.25</v>
+      </c>
+      <c r="BB223">
+        <v>1.53</v>
+      </c>
+      <c r="BC223">
+        <v>1.87</v>
+      </c>
+      <c r="BD223">
+        <v>2.33</v>
+      </c>
+      <c r="BE223">
+        <v>3.18</v>
+      </c>
+      <c r="BF223">
+        <v>6</v>
+      </c>
+      <c r="BG223">
+        <v>7</v>
+      </c>
+      <c r="BH223">
+        <v>4</v>
+      </c>
+      <c r="BI223">
+        <v>3</v>
+      </c>
+      <c r="BJ223">
+        <v>10</v>
+      </c>
+      <c r="BK223">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:63">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>5094236</v>
+      </c>
+      <c r="C224" t="s">
+        <v>63</v>
+      </c>
+      <c r="D224" t="s">
+        <v>64</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45122.83333333334</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224" t="s">
+        <v>79</v>
+      </c>
+      <c r="H224" t="s">
+        <v>82</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="L224">
+        <v>2</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>2</v>
+      </c>
+      <c r="O224" t="s">
+        <v>232</v>
+      </c>
+      <c r="P224" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q224">
+        <v>2</v>
+      </c>
+      <c r="R224">
+        <v>2</v>
+      </c>
+      <c r="S224">
+        <v>4</v>
+      </c>
+      <c r="T224">
+        <v>2.15</v>
+      </c>
+      <c r="U224">
+        <v>2.25</v>
+      </c>
+      <c r="V224">
+        <v>5.25</v>
+      </c>
+      <c r="W224">
+        <v>1.35</v>
+      </c>
+      <c r="X224">
+        <v>2.9</v>
+      </c>
+      <c r="Y224">
+        <v>2.65</v>
+      </c>
+      <c r="Z224">
+        <v>1.43</v>
+      </c>
+      <c r="AA224">
+        <v>6</v>
+      </c>
+      <c r="AB224">
+        <v>1.1</v>
+      </c>
+      <c r="AC224">
+        <v>1.6</v>
+      </c>
+      <c r="AD224">
+        <v>3.6</v>
+      </c>
+      <c r="AE224">
+        <v>5</v>
+      </c>
+      <c r="AF224">
+        <v>1.04</v>
+      </c>
+      <c r="AG224">
+        <v>13</v>
+      </c>
+      <c r="AH224">
+        <v>1.25</v>
+      </c>
+      <c r="AI224">
+        <v>3.6</v>
+      </c>
+      <c r="AJ224">
+        <v>2.06</v>
+      </c>
+      <c r="AK224">
+        <v>1.68</v>
+      </c>
+      <c r="AL224">
+        <v>1.82</v>
+      </c>
+      <c r="AM224">
+        <v>1.88</v>
+      </c>
+      <c r="AN224">
+        <v>1.15</v>
+      </c>
+      <c r="AO224">
+        <v>1.22</v>
+      </c>
+      <c r="AP224">
+        <v>2.2</v>
+      </c>
+      <c r="AQ224">
+        <v>2.33</v>
+      </c>
+      <c r="AR224">
+        <v>0.82</v>
+      </c>
+      <c r="AS224">
+        <v>2.4</v>
+      </c>
+      <c r="AT224">
+        <v>0.75</v>
+      </c>
+      <c r="AU224">
+        <v>1.33</v>
+      </c>
+      <c r="AV224">
+        <v>1.3</v>
+      </c>
+      <c r="AW224">
+        <v>2.63</v>
+      </c>
+      <c r="AX224">
+        <v>1.44</v>
+      </c>
+      <c r="AY224">
+        <v>8.4</v>
+      </c>
+      <c r="AZ224">
+        <v>3.26</v>
+      </c>
+      <c r="BA224">
+        <v>1.53</v>
+      </c>
+      <c r="BB224">
+        <v>1.91</v>
+      </c>
+      <c r="BC224">
+        <v>2.4</v>
+      </c>
+      <c r="BD224">
+        <v>3.74</v>
+      </c>
+      <c r="BE224">
+        <v>0</v>
+      </c>
+      <c r="BF224">
+        <v>6</v>
+      </c>
+      <c r="BG224">
+        <v>0</v>
+      </c>
+      <c r="BH224">
+        <v>3</v>
+      </c>
+      <c r="BI224">
+        <v>7</v>
+      </c>
+      <c r="BJ224">
+        <v>9</v>
+      </c>
+      <c r="BK224">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:63">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>5094234</v>
+      </c>
+      <c r="C225" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45122.83333333334</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225" t="s">
+        <v>66</v>
+      </c>
+      <c r="H225" t="s">
+        <v>68</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+      <c r="N225">
+        <v>2</v>
+      </c>
+      <c r="O225" t="s">
+        <v>112</v>
+      </c>
+      <c r="P225" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q225">
+        <v>-1</v>
+      </c>
+      <c r="R225">
+        <v>-1</v>
+      </c>
+      <c r="S225">
+        <v>-1</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>2.38</v>
+      </c>
+      <c r="AD225">
+        <v>3.1</v>
+      </c>
+      <c r="AE225">
+        <v>2.75</v>
+      </c>
+      <c r="AF225">
+        <v>0</v>
+      </c>
+      <c r="AG225">
+        <v>0</v>
+      </c>
+      <c r="AH225">
+        <v>0</v>
+      </c>
+      <c r="AI225">
+        <v>0</v>
+      </c>
+      <c r="AJ225">
+        <v>1.8</v>
+      </c>
+      <c r="AK225">
+        <v>1.9</v>
+      </c>
+      <c r="AL225">
+        <v>0</v>
+      </c>
+      <c r="AM225">
+        <v>0</v>
+      </c>
+      <c r="AN225">
+        <v>0</v>
+      </c>
+      <c r="AO225">
+        <v>0</v>
+      </c>
+      <c r="AP225">
+        <v>0</v>
+      </c>
+      <c r="AQ225">
+        <v>1.3</v>
+      </c>
+      <c r="AR225">
+        <v>1.89</v>
+      </c>
+      <c r="AS225">
+        <v>1.27</v>
+      </c>
+      <c r="AT225">
+        <v>1.8</v>
+      </c>
+      <c r="AU225">
+        <v>1.36</v>
+      </c>
+      <c r="AV225">
+        <v>1.43</v>
+      </c>
+      <c r="AW225">
+        <v>2.79</v>
+      </c>
+      <c r="AX225">
+        <v>0</v>
+      </c>
+      <c r="AY225">
+        <v>0</v>
+      </c>
+      <c r="AZ225">
+        <v>0</v>
+      </c>
+      <c r="BA225">
+        <v>0</v>
+      </c>
+      <c r="BB225">
+        <v>0</v>
+      </c>
+      <c r="BC225">
+        <v>0</v>
+      </c>
+      <c r="BD225">
+        <v>0</v>
+      </c>
+      <c r="BE225">
+        <v>0</v>
+      </c>
+      <c r="BF225">
+        <v>-1</v>
+      </c>
+      <c r="BG225">
+        <v>-1</v>
+      </c>
+      <c r="BH225">
+        <v>-1</v>
+      </c>
+      <c r="BI225">
+        <v>-1</v>
+      </c>
+      <c r="BJ225">
+        <v>-1</v>
+      </c>
+      <c r="BK225">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:63">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>5094233</v>
+      </c>
+      <c r="C226" t="s">
+        <v>63</v>
+      </c>
+      <c r="D226" t="s">
+        <v>64</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45122.85416666666</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226" t="s">
+        <v>78</v>
+      </c>
+      <c r="H226" t="s">
+        <v>74</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>2</v>
+      </c>
+      <c r="K226">
+        <v>3</v>
+      </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
+      <c r="M226">
+        <v>3</v>
+      </c>
+      <c r="N226">
+        <v>4</v>
+      </c>
+      <c r="O226" t="s">
+        <v>97</v>
+      </c>
+      <c r="P226" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q226">
+        <v>9</v>
+      </c>
+      <c r="R226">
+        <v>1</v>
+      </c>
+      <c r="S226">
+        <v>10</v>
+      </c>
+      <c r="T226">
+        <v>2.9</v>
+      </c>
+      <c r="U226">
+        <v>2.1</v>
+      </c>
+      <c r="V226">
+        <v>3.3</v>
+      </c>
+      <c r="W226">
+        <v>1.36</v>
+      </c>
+      <c r="X226">
+        <v>3</v>
+      </c>
+      <c r="Y226">
+        <v>2.75</v>
+      </c>
+      <c r="Z226">
+        <v>1.4</v>
+      </c>
+      <c r="AA226">
+        <v>6</v>
+      </c>
+      <c r="AB226">
+        <v>1.11</v>
+      </c>
+      <c r="AC226">
+        <v>2.3</v>
+      </c>
+      <c r="AD226">
+        <v>3.25</v>
+      </c>
+      <c r="AE226">
+        <v>2.8</v>
+      </c>
+      <c r="AF226">
+        <v>1.05</v>
+      </c>
+      <c r="AG226">
+        <v>9</v>
+      </c>
+      <c r="AH226">
+        <v>1.28</v>
+      </c>
+      <c r="AI226">
+        <v>3.5</v>
+      </c>
+      <c r="AJ226">
+        <v>1.75</v>
+      </c>
+      <c r="AK226">
+        <v>1.96</v>
+      </c>
+      <c r="AL226">
+        <v>1.68</v>
+      </c>
+      <c r="AM226">
+        <v>2.1</v>
+      </c>
+      <c r="AN226">
+        <v>1.35</v>
+      </c>
+      <c r="AO226">
+        <v>1.25</v>
+      </c>
+      <c r="AP226">
+        <v>1.57</v>
+      </c>
+      <c r="AQ226">
+        <v>1.3</v>
+      </c>
+      <c r="AR226">
+        <v>0.89</v>
+      </c>
+      <c r="AS226">
+        <v>1.18</v>
+      </c>
+      <c r="AT226">
+        <v>1.1</v>
+      </c>
+      <c r="AU226">
+        <v>1.66</v>
+      </c>
+      <c r="AV226">
+        <v>1.22</v>
+      </c>
+      <c r="AW226">
+        <v>2.88</v>
+      </c>
+      <c r="AX226">
+        <v>2.03</v>
+      </c>
+      <c r="AY226">
+        <v>8</v>
+      </c>
+      <c r="AZ226">
+        <v>2</v>
+      </c>
+      <c r="BA226">
+        <v>1.41</v>
+      </c>
+      <c r="BB226">
+        <v>1.74</v>
+      </c>
+      <c r="BC226">
+        <v>2.18</v>
+      </c>
+      <c r="BD226">
+        <v>3.04</v>
+      </c>
+      <c r="BE226">
+        <v>0</v>
+      </c>
+      <c r="BF226">
+        <v>8</v>
+      </c>
+      <c r="BG226">
+        <v>4</v>
+      </c>
+      <c r="BH226">
+        <v>1</v>
+      </c>
+      <c r="BI226">
+        <v>4</v>
+      </c>
+      <c r="BJ226">
+        <v>9</v>
+      </c>
+      <c r="BK226">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:63">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>5094230</v>
+      </c>
+      <c r="C227" t="s">
+        <v>63</v>
+      </c>
+      <c r="D227" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45122.85416666666</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227" t="s">
+        <v>69</v>
+      </c>
+      <c r="H227" t="s">
+        <v>67</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>1</v>
+      </c>
+      <c r="O227" t="s">
+        <v>233</v>
+      </c>
+      <c r="P227" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q227">
+        <v>4</v>
+      </c>
+      <c r="R227">
+        <v>2</v>
+      </c>
+      <c r="S227">
+        <v>6</v>
+      </c>
+      <c r="T227">
+        <v>2.8</v>
+      </c>
+      <c r="U227">
+        <v>2.15</v>
+      </c>
+      <c r="V227">
+        <v>3.3</v>
+      </c>
+      <c r="W227">
+        <v>1.36</v>
+      </c>
+      <c r="X227">
+        <v>3</v>
+      </c>
+      <c r="Y227">
+        <v>2.75</v>
+      </c>
+      <c r="Z227">
+        <v>1.4</v>
+      </c>
+      <c r="AA227">
+        <v>6</v>
+      </c>
+      <c r="AB227">
+        <v>1.11</v>
+      </c>
+      <c r="AC227">
+        <v>2.2</v>
+      </c>
+      <c r="AD227">
+        <v>3.3</v>
+      </c>
+      <c r="AE227">
+        <v>2.8</v>
+      </c>
+      <c r="AF227">
+        <v>1.05</v>
+      </c>
+      <c r="AG227">
+        <v>9</v>
+      </c>
+      <c r="AH227">
+        <v>1.28</v>
+      </c>
+      <c r="AI227">
+        <v>3.5</v>
+      </c>
+      <c r="AJ227">
+        <v>1.72</v>
+      </c>
+      <c r="AK227">
+        <v>2</v>
+      </c>
+      <c r="AL227">
+        <v>1.7</v>
+      </c>
+      <c r="AM227">
+        <v>2.05</v>
+      </c>
+      <c r="AN227">
+        <v>1.36</v>
+      </c>
+      <c r="AO227">
+        <v>1.3</v>
+      </c>
+      <c r="AP227">
+        <v>1.57</v>
+      </c>
+      <c r="AQ227">
+        <v>1.63</v>
+      </c>
+      <c r="AR227">
+        <v>1.75</v>
+      </c>
+      <c r="AS227">
+        <v>1.78</v>
+      </c>
+      <c r="AT227">
+        <v>1.56</v>
+      </c>
+      <c r="AU227">
+        <v>1.44</v>
+      </c>
+      <c r="AV227">
+        <v>1.31</v>
+      </c>
+      <c r="AW227">
+        <v>2.75</v>
+      </c>
+      <c r="AX227">
+        <v>1.82</v>
+      </c>
+      <c r="AY227">
+        <v>8.5</v>
+      </c>
+      <c r="AZ227">
+        <v>2.22</v>
+      </c>
+      <c r="BA227">
+        <v>1.24</v>
+      </c>
+      <c r="BB227">
+        <v>1.51</v>
+      </c>
+      <c r="BC227">
+        <v>1.83</v>
+      </c>
+      <c r="BD227">
+        <v>2.28</v>
+      </c>
+      <c r="BE227">
+        <v>3.08</v>
+      </c>
+      <c r="BF227">
+        <v>4</v>
+      </c>
+      <c r="BG227">
+        <v>3</v>
+      </c>
+      <c r="BH227">
+        <v>5</v>
+      </c>
+      <c r="BI227">
+        <v>1</v>
+      </c>
+      <c r="BJ227">
+        <v>9</v>
+      </c>
+      <c r="BK227">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:63">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>5094232</v>
+      </c>
+      <c r="C228" t="s">
+        <v>63</v>
+      </c>
+      <c r="D228" t="s">
+        <v>64</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45122.91666666666</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228" t="s">
+        <v>83</v>
+      </c>
+      <c r="H228" t="s">
+        <v>80</v>
+      </c>
+      <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <v>3</v>
+      </c>
+      <c r="L228">
+        <v>3</v>
+      </c>
+      <c r="M228">
+        <v>2</v>
+      </c>
+      <c r="N228">
+        <v>5</v>
+      </c>
+      <c r="O228" t="s">
+        <v>234</v>
+      </c>
+      <c r="P228" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q228">
+        <v>2</v>
+      </c>
+      <c r="R228">
+        <v>10</v>
+      </c>
+      <c r="S228">
+        <v>12</v>
+      </c>
+      <c r="T228">
+        <v>2.35</v>
+      </c>
+      <c r="U228">
+        <v>2.2</v>
+      </c>
+      <c r="V228">
+        <v>4.2</v>
+      </c>
+      <c r="W228">
+        <v>1.36</v>
+      </c>
+      <c r="X228">
+        <v>3</v>
+      </c>
+      <c r="Y228">
+        <v>2.75</v>
+      </c>
+      <c r="Z228">
+        <v>1.4</v>
+      </c>
+      <c r="AA228">
+        <v>6</v>
+      </c>
+      <c r="AB228">
+        <v>1.11</v>
+      </c>
+      <c r="AC228">
+        <v>1.73</v>
+      </c>
+      <c r="AD228">
+        <v>3.6</v>
+      </c>
+      <c r="AE228">
+        <v>4</v>
+      </c>
+      <c r="AF228">
+        <v>1.05</v>
+      </c>
+      <c r="AG228">
+        <v>9</v>
+      </c>
+      <c r="AH228">
+        <v>1.28</v>
+      </c>
+      <c r="AI228">
+        <v>3.5</v>
+      </c>
+      <c r="AJ228">
+        <v>1.67</v>
+      </c>
+      <c r="AK228">
+        <v>2.07</v>
+      </c>
+      <c r="AL228">
+        <v>1.8</v>
+      </c>
+      <c r="AM228">
+        <v>1.95</v>
+      </c>
+      <c r="AN228">
+        <v>1.2</v>
+      </c>
+      <c r="AO228">
+        <v>1.2</v>
+      </c>
+      <c r="AP228">
+        <v>1.95</v>
+      </c>
+      <c r="AQ228">
+        <v>1.33</v>
+      </c>
+      <c r="AR228">
+        <v>0.63</v>
+      </c>
+      <c r="AS228">
+        <v>1.5</v>
+      </c>
+      <c r="AT228">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU228">
+        <v>1.43</v>
+      </c>
+      <c r="AV228">
+        <v>1.39</v>
+      </c>
+      <c r="AW228">
+        <v>2.82</v>
+      </c>
+      <c r="AX228">
+        <v>1.53</v>
+      </c>
+      <c r="AY228">
+        <v>8.9</v>
+      </c>
+      <c r="AZ228">
+        <v>2.83</v>
+      </c>
+      <c r="BA228">
+        <v>1.26</v>
+      </c>
+      <c r="BB228">
+        <v>1.55</v>
+      </c>
+      <c r="BC228">
+        <v>1.9</v>
+      </c>
+      <c r="BD228">
+        <v>2.38</v>
+      </c>
+      <c r="BE228">
+        <v>3.28</v>
+      </c>
+      <c r="BF228">
+        <v>6</v>
+      </c>
+      <c r="BG228">
+        <v>5</v>
+      </c>
+      <c r="BH228">
+        <v>7</v>
+      </c>
+      <c r="BI228">
+        <v>1</v>
+      </c>
+      <c r="BJ228">
+        <v>13</v>
+      </c>
+      <c r="BK228">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:63">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>5094231</v>
+      </c>
+      <c r="C229" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229" t="s">
+        <v>64</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45122.9375</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229" t="s">
+        <v>71</v>
+      </c>
+      <c r="H229" t="s">
+        <v>75</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+      <c r="N229">
+        <v>2</v>
+      </c>
+      <c r="O229" t="s">
+        <v>103</v>
+      </c>
+      <c r="P229" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q229">
+        <v>4</v>
+      </c>
+      <c r="R229">
+        <v>5</v>
+      </c>
+      <c r="S229">
+        <v>9</v>
+      </c>
+      <c r="T229">
+        <v>2.15</v>
+      </c>
+      <c r="U229">
+        <v>2.25</v>
+      </c>
+      <c r="V229">
+        <v>4.75</v>
+      </c>
+      <c r="W229">
+        <v>1.36</v>
+      </c>
+      <c r="X229">
+        <v>3</v>
+      </c>
+      <c r="Y229">
+        <v>2.7</v>
+      </c>
+      <c r="Z229">
+        <v>1.41</v>
+      </c>
+      <c r="AA229">
+        <v>6</v>
+      </c>
+      <c r="AB229">
+        <v>1.11</v>
+      </c>
+      <c r="AC229">
+        <v>1.53</v>
+      </c>
+      <c r="AD229">
+        <v>3.8</v>
+      </c>
+      <c r="AE229">
+        <v>5</v>
+      </c>
+      <c r="AF229">
+        <v>1.05</v>
+      </c>
+      <c r="AG229">
+        <v>9</v>
+      </c>
+      <c r="AH229">
+        <v>1.28</v>
+      </c>
+      <c r="AI229">
+        <v>3.5</v>
+      </c>
+      <c r="AJ229">
+        <v>1.84</v>
+      </c>
+      <c r="AK229">
+        <v>1.86</v>
+      </c>
+      <c r="AL229">
+        <v>1.87</v>
+      </c>
+      <c r="AM229">
+        <v>1.87</v>
+      </c>
+      <c r="AN229">
+        <v>1.12</v>
+      </c>
+      <c r="AO229">
+        <v>1.18</v>
+      </c>
+      <c r="AP229">
+        <v>2.25</v>
+      </c>
+      <c r="AQ229">
+        <v>1.3</v>
+      </c>
+      <c r="AR229">
+        <v>1.5</v>
+      </c>
+      <c r="AS229">
+        <v>1.27</v>
+      </c>
+      <c r="AT229">
+        <v>1.44</v>
+      </c>
+      <c r="AU229">
+        <v>1.47</v>
+      </c>
+      <c r="AV229">
+        <v>1.24</v>
+      </c>
+      <c r="AW229">
+        <v>2.71</v>
+      </c>
+      <c r="AX229">
+        <v>1.52</v>
+      </c>
+      <c r="AY229">
+        <v>8.9</v>
+      </c>
+      <c r="AZ229">
+        <v>2.88</v>
+      </c>
+      <c r="BA229">
+        <v>1.28</v>
+      </c>
+      <c r="BB229">
+        <v>1.56</v>
+      </c>
+      <c r="BC229">
+        <v>1.91</v>
+      </c>
+      <c r="BD229">
+        <v>2.4</v>
+      </c>
+      <c r="BE229">
+        <v>3.42</v>
+      </c>
+      <c r="BF229">
+        <v>7</v>
+      </c>
+      <c r="BG229">
+        <v>5</v>
+      </c>
+      <c r="BH229">
+        <v>3</v>
+      </c>
+      <c r="BI229">
+        <v>5</v>
+      </c>
+      <c r="BJ229">
+        <v>10</v>
+      </c>
+      <c r="BK229">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:63">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>5094235</v>
+      </c>
+      <c r="C230" t="s">
+        <v>63</v>
+      </c>
+      <c r="D230" t="s">
+        <v>64</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45122.95833333334</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230" t="s">
+        <v>72</v>
+      </c>
+      <c r="H230" t="s">
+        <v>85</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>2</v>
+      </c>
+      <c r="K230">
+        <v>3</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230">
+        <v>3</v>
+      </c>
+      <c r="N230">
+        <v>4</v>
+      </c>
+      <c r="O230" t="s">
+        <v>178</v>
+      </c>
+      <c r="P230" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q230">
+        <v>6</v>
+      </c>
+      <c r="R230">
+        <v>1</v>
+      </c>
+      <c r="S230">
+        <v>7</v>
+      </c>
+      <c r="T230">
+        <v>2.5</v>
+      </c>
+      <c r="U230">
+        <v>2.15</v>
+      </c>
+      <c r="V230">
+        <v>4</v>
+      </c>
+      <c r="W230">
+        <v>1.36</v>
+      </c>
+      <c r="X230">
+        <v>3</v>
+      </c>
+      <c r="Y230">
+        <v>2.75</v>
+      </c>
+      <c r="Z230">
+        <v>1.4</v>
+      </c>
+      <c r="AA230">
+        <v>6</v>
+      </c>
+      <c r="AB230">
+        <v>1.11</v>
+      </c>
+      <c r="AC230">
+        <v>1.85</v>
+      </c>
+      <c r="AD230">
+        <v>3.3</v>
+      </c>
+      <c r="AE230">
+        <v>3.75</v>
+      </c>
+      <c r="AF230">
+        <v>1.05</v>
+      </c>
+      <c r="AG230">
+        <v>9</v>
+      </c>
+      <c r="AH230">
+        <v>1.28</v>
+      </c>
+      <c r="AI230">
+        <v>3.5</v>
+      </c>
+      <c r="AJ230">
+        <v>1.9</v>
+      </c>
+      <c r="AK230">
+        <v>1.8</v>
+      </c>
+      <c r="AL230">
+        <v>1.75</v>
+      </c>
+      <c r="AM230">
+        <v>2</v>
+      </c>
+      <c r="AN230">
+        <v>1.22</v>
+      </c>
+      <c r="AO230">
+        <v>1.22</v>
+      </c>
+      <c r="AP230">
+        <v>1.72</v>
+      </c>
+      <c r="AQ230">
+        <v>1.6</v>
+      </c>
+      <c r="AR230">
+        <v>1.22</v>
+      </c>
+      <c r="AS230">
+        <v>1.45</v>
+      </c>
+      <c r="AT230">
+        <v>1.4</v>
+      </c>
+      <c r="AU230">
+        <v>1.44</v>
+      </c>
+      <c r="AV230">
+        <v>1.52</v>
+      </c>
+      <c r="AW230">
+        <v>2.96</v>
+      </c>
+      <c r="AX230">
+        <v>1.87</v>
+      </c>
+      <c r="AY230">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ230">
+        <v>2.16</v>
+      </c>
+      <c r="BA230">
+        <v>1.3</v>
+      </c>
+      <c r="BB230">
+        <v>1.65</v>
+      </c>
+      <c r="BC230">
+        <v>2.04</v>
+      </c>
+      <c r="BD230">
+        <v>2.57</v>
+      </c>
+      <c r="BE230">
+        <v>3.48</v>
+      </c>
+      <c r="BF230">
+        <v>4</v>
+      </c>
+      <c r="BG230">
+        <v>6</v>
+      </c>
+      <c r="BH230">
+        <v>3</v>
+      </c>
+      <c r="BI230">
+        <v>5</v>
+      </c>
+      <c r="BJ230">
+        <v>7</v>
+      </c>
+      <c r="BK230">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:63">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>5094237</v>
+      </c>
+      <c r="C231" t="s">
+        <v>63</v>
+      </c>
+      <c r="D231" t="s">
+        <v>64</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45123</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231" t="s">
+        <v>77</v>
+      </c>
+      <c r="H231" t="s">
+        <v>65</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>1</v>
+      </c>
+      <c r="M231">
+        <v>1</v>
+      </c>
+      <c r="N231">
+        <v>2</v>
+      </c>
+      <c r="O231" t="s">
+        <v>170</v>
+      </c>
+      <c r="P231" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q231">
+        <v>7</v>
+      </c>
+      <c r="R231">
+        <v>2</v>
+      </c>
+      <c r="S231">
+        <v>9</v>
+      </c>
+      <c r="T231">
+        <v>2.75</v>
+      </c>
+      <c r="U231">
+        <v>2.1</v>
+      </c>
+      <c r="V231">
+        <v>3.6</v>
+      </c>
+      <c r="W231">
+        <v>1.36</v>
+      </c>
+      <c r="X231">
+        <v>3</v>
+      </c>
+      <c r="Y231">
+        <v>2.75</v>
+      </c>
+      <c r="Z231">
+        <v>1.4</v>
+      </c>
+      <c r="AA231">
+        <v>6</v>
+      </c>
+      <c r="AB231">
+        <v>1.11</v>
+      </c>
+      <c r="AC231">
+        <v>2.05</v>
+      </c>
+      <c r="AD231">
+        <v>3.3</v>
+      </c>
+      <c r="AE231">
+        <v>3.1</v>
+      </c>
+      <c r="AF231">
+        <v>1.05</v>
+      </c>
+      <c r="AG231">
+        <v>9</v>
+      </c>
+      <c r="AH231">
+        <v>1.28</v>
+      </c>
+      <c r="AI231">
+        <v>3.5</v>
+      </c>
+      <c r="AJ231">
+        <v>1.8</v>
+      </c>
+      <c r="AK231">
+        <v>1.9</v>
+      </c>
+      <c r="AL231">
+        <v>1.68</v>
+      </c>
+      <c r="AM231">
+        <v>2.1</v>
+      </c>
+      <c r="AN231">
+        <v>1.28</v>
+      </c>
+      <c r="AO231">
+        <v>1.25</v>
+      </c>
+      <c r="AP231">
+        <v>1.6</v>
+      </c>
+      <c r="AQ231">
+        <v>2.3</v>
+      </c>
+      <c r="AR231">
+        <v>2</v>
+      </c>
+      <c r="AS231">
+        <v>2.18</v>
+      </c>
+      <c r="AT231">
+        <v>1.88</v>
+      </c>
+      <c r="AU231">
+        <v>1.52</v>
+      </c>
+      <c r="AV231">
+        <v>1.7</v>
+      </c>
+      <c r="AW231">
+        <v>3.22</v>
+      </c>
+      <c r="AX231">
+        <v>1.46</v>
+      </c>
+      <c r="AY231">
+        <v>8.9</v>
+      </c>
+      <c r="AZ231">
+        <v>3.13</v>
+      </c>
+      <c r="BA231">
+        <v>1.28</v>
+      </c>
+      <c r="BB231">
+        <v>1.53</v>
+      </c>
+      <c r="BC231">
+        <v>1.91</v>
+      </c>
+      <c r="BD231">
+        <v>2.51</v>
+      </c>
+      <c r="BE231">
+        <v>3.42</v>
+      </c>
+      <c r="BF231">
+        <v>5</v>
+      </c>
+      <c r="BG231">
+        <v>7</v>
+      </c>
+      <c r="BH231">
+        <v>6</v>
+      </c>
+      <c r="BI231">
+        <v>6</v>
+      </c>
+      <c r="BJ231">
+        <v>11</v>
+      </c>
+      <c r="BK231">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA USL Championship_2023.xlsx
@@ -44223,13 +44223,13 @@
         <v>332</v>
       </c>
       <c r="Q225">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R225">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S225">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T225">
         <v>0</v>
@@ -44346,22 +44346,22 @@
         <v>0</v>
       </c>
       <c r="BF225">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG225">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BH225">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI225">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BJ225">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK225">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="226" spans="1:63">
@@ -45369,13 +45369,13 @@
         <v>233</v>
       </c>
       <c r="Q231">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R231">
         <v>2</v>
       </c>
       <c r="S231">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T231">
         <v>2.75</v>

--- a/Bases_de_Dados_(2022-2024)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA USL Championship_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="337">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -721,6 +721,9 @@
     <t>['13', '35', '90+5']</t>
   </si>
   <si>
+    <t>['5', '60']</t>
+  </si>
+  <si>
     <t>['8', '11', '90+4']</t>
   </si>
   <si>
@@ -1383,7 +1386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK231"/>
+  <dimension ref="A1:BK232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1627,7 +1630,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -2200,7 +2203,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2391,7 +2394,7 @@
         <v>93</v>
       </c>
       <c r="P6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2964,7 +2967,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3346,7 +3349,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3436,7 +3439,7 @@
         <v>1.4</v>
       </c>
       <c r="AT11">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3537,7 +3540,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3728,7 +3731,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3919,7 +3922,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -4110,7 +4113,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4492,7 +4495,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4683,7 +4686,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -5155,7 +5158,7 @@
         <v>1.45</v>
       </c>
       <c r="AT20">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -6211,7 +6214,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6593,7 +6596,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6784,7 +6787,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6871,7 +6874,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT29">
         <v>1.63</v>
@@ -7548,7 +7551,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -8121,7 +8124,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8781,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT39">
         <v>1.44</v>
@@ -9267,7 +9270,7 @@
         <v>95</v>
       </c>
       <c r="P42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9458,7 +9461,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9930,7 +9933,7 @@
         <v>2.18</v>
       </c>
       <c r="AT45">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU45">
         <v>1.21</v>
@@ -10031,7 +10034,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10413,7 +10416,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10604,7 +10607,7 @@
         <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10986,7 +10989,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11750,7 +11753,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11941,7 +11944,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -12132,7 +12135,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -12323,7 +12326,7 @@
         <v>108</v>
       </c>
       <c r="P58" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -13278,7 +13281,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13469,7 +13472,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13660,7 +13663,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q65">
         <v>13</v>
@@ -14424,7 +14427,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14705,7 +14708,7 @@
         <v>1.5</v>
       </c>
       <c r="AT70">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU70">
         <v>1.59</v>
@@ -14806,7 +14809,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15188,7 +15191,7 @@
         <v>95</v>
       </c>
       <c r="P73" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15570,7 +15573,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -16525,7 +16528,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16612,7 +16615,7 @@
         <v>0.33</v>
       </c>
       <c r="AS80">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT80">
         <v>1.56</v>
@@ -16907,7 +16910,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17098,7 +17101,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17379,7 +17382,7 @@
         <v>1.5</v>
       </c>
       <c r="AT84">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU84">
         <v>1.74</v>
@@ -17480,7 +17483,7 @@
         <v>97</v>
       </c>
       <c r="P85" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -18244,7 +18247,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18435,7 +18438,7 @@
         <v>149</v>
       </c>
       <c r="P90" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18626,7 +18629,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18817,7 +18820,7 @@
         <v>151</v>
       </c>
       <c r="P92" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -19008,7 +19011,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19199,7 +19202,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19390,7 +19393,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19772,7 +19775,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19963,7 +19966,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q98">
         <v>9</v>
@@ -20154,7 +20157,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20345,7 +20348,7 @@
         <v>156</v>
       </c>
       <c r="P100" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20432,7 +20435,7 @@
         <v>0.33</v>
       </c>
       <c r="AS100">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT100">
         <v>1</v>
@@ -20727,7 +20730,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20918,7 +20921,7 @@
         <v>126</v>
       </c>
       <c r="P103" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -21109,7 +21112,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21491,7 +21494,7 @@
         <v>95</v>
       </c>
       <c r="P106" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -22446,7 +22449,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22828,7 +22831,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -23401,7 +23404,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23783,7 +23786,7 @@
         <v>112</v>
       </c>
       <c r="P118" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q118">
         <v>10</v>
@@ -24165,7 +24168,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24356,7 +24359,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -25016,7 +25019,7 @@
         <v>2</v>
       </c>
       <c r="AS124">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT124">
         <v>1.7</v>
@@ -25120,7 +25123,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25311,7 +25314,7 @@
         <v>95</v>
       </c>
       <c r="P126" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25693,7 +25696,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25884,7 +25887,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -26075,7 +26078,7 @@
         <v>131</v>
       </c>
       <c r="P130" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26266,7 +26269,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26544,7 +26547,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT132">
         <v>1.11</v>
@@ -26648,7 +26651,7 @@
         <v>95</v>
       </c>
       <c r="P133" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26738,7 +26741,7 @@
         <v>0.8</v>
       </c>
       <c r="AT133">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU133">
         <v>1.46</v>
@@ -27030,7 +27033,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27221,7 +27224,7 @@
         <v>95</v>
       </c>
       <c r="P136" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27794,7 +27797,7 @@
         <v>95</v>
       </c>
       <c r="P139" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q139">
         <v>6</v>
@@ -28176,7 +28179,7 @@
         <v>95</v>
       </c>
       <c r="P141" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28367,7 +28370,7 @@
         <v>95</v>
       </c>
       <c r="P142" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28648,7 +28651,7 @@
         <v>0.5</v>
       </c>
       <c r="AT143">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU143">
         <v>1.53</v>
@@ -28940,7 +28943,7 @@
         <v>183</v>
       </c>
       <c r="P145" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -29322,7 +29325,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29895,7 +29898,7 @@
         <v>187</v>
       </c>
       <c r="P150" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -30277,7 +30280,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30659,7 +30662,7 @@
         <v>109</v>
       </c>
       <c r="P154" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q154">
         <v>8</v>
@@ -31041,7 +31044,7 @@
         <v>191</v>
       </c>
       <c r="P156" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31232,7 +31235,7 @@
         <v>192</v>
       </c>
       <c r="P157" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31423,7 +31426,7 @@
         <v>193</v>
       </c>
       <c r="P158" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31614,7 +31617,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31996,7 +31999,7 @@
         <v>196</v>
       </c>
       <c r="P161" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -32187,7 +32190,7 @@
         <v>197</v>
       </c>
       <c r="P162" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -32378,7 +32381,7 @@
         <v>89</v>
       </c>
       <c r="P163" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32569,7 +32572,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -32760,7 +32763,7 @@
         <v>199</v>
       </c>
       <c r="P165" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q165">
         <v>9</v>
@@ -32951,7 +32954,7 @@
         <v>200</v>
       </c>
       <c r="P166" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -33142,7 +33145,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33333,7 +33336,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33524,7 +33527,7 @@
         <v>95</v>
       </c>
       <c r="P169" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33906,7 +33909,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34670,7 +34673,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q175">
         <v>8</v>
@@ -34760,7 +34763,7 @@
         <v>1.63</v>
       </c>
       <c r="AT175">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU175">
         <v>1.64</v>
@@ -34861,7 +34864,7 @@
         <v>95</v>
       </c>
       <c r="P176" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q176">
         <v>11</v>
@@ -35625,7 +35628,7 @@
         <v>208</v>
       </c>
       <c r="P180" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q180">
         <v>7</v>
@@ -36007,7 +36010,7 @@
         <v>95</v>
       </c>
       <c r="P182" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q182">
         <v>9</v>
@@ -36198,7 +36201,7 @@
         <v>210</v>
       </c>
       <c r="P183" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36476,7 +36479,7 @@
         <v>0.71</v>
       </c>
       <c r="AS184">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT184">
         <v>1.1</v>
@@ -36771,7 +36774,7 @@
         <v>212</v>
       </c>
       <c r="P186" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -37153,7 +37156,7 @@
         <v>214</v>
       </c>
       <c r="P188" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q188">
         <v>1</v>
@@ -37535,7 +37538,7 @@
         <v>215</v>
       </c>
       <c r="P190" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37726,7 +37729,7 @@
         <v>95</v>
       </c>
       <c r="P191" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -38108,7 +38111,7 @@
         <v>217</v>
       </c>
       <c r="P193" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q193">
         <v>1</v>
@@ -38299,7 +38302,7 @@
         <v>218</v>
       </c>
       <c r="P194" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38580,7 +38583,7 @@
         <v>2.4</v>
       </c>
       <c r="AT195">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU195">
         <v>1.37</v>
@@ -39445,7 +39448,7 @@
         <v>222</v>
       </c>
       <c r="P200" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q200">
         <v>10</v>
@@ -40209,7 +40212,7 @@
         <v>225</v>
       </c>
       <c r="P204" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q204">
         <v>7</v>
@@ -40591,7 +40594,7 @@
         <v>95</v>
       </c>
       <c r="P206" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -40782,7 +40785,7 @@
         <v>95</v>
       </c>
       <c r="P207" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q207">
         <v>2</v>
@@ -41355,7 +41358,7 @@
         <v>227</v>
       </c>
       <c r="P210" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -42310,7 +42313,7 @@
         <v>230</v>
       </c>
       <c r="P215" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q215">
         <v>8</v>
@@ -42883,7 +42886,7 @@
         <v>128</v>
       </c>
       <c r="P218" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q218">
         <v>4</v>
@@ -42970,7 +42973,7 @@
         <v>0.6</v>
       </c>
       <c r="AS218">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT218">
         <v>0.64</v>
@@ -43265,7 +43268,7 @@
         <v>178</v>
       </c>
       <c r="P220" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q220">
         <v>7</v>
@@ -43838,7 +43841,7 @@
         <v>95</v>
       </c>
       <c r="P223" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q223">
         <v>4</v>
@@ -44220,7 +44223,7 @@
         <v>112</v>
       </c>
       <c r="P225" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -44411,7 +44414,7 @@
         <v>97</v>
       </c>
       <c r="P226" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q226">
         <v>9</v>
@@ -44793,7 +44796,7 @@
         <v>234</v>
       </c>
       <c r="P228" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q228">
         <v>2</v>
@@ -44984,7 +44987,7 @@
         <v>103</v>
       </c>
       <c r="P229" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -45175,7 +45178,7 @@
         <v>178</v>
       </c>
       <c r="P230" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q230">
         <v>6</v>
@@ -45508,6 +45511,197 @@
       </c>
       <c r="BK231">
         <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:63">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>5094238</v>
+      </c>
+      <c r="C232" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" t="s">
+        <v>64</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45126.83333333334</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232" t="s">
+        <v>82</v>
+      </c>
+      <c r="H232" t="s">
+        <v>81</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>1</v>
+      </c>
+      <c r="L232">
+        <v>2</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>2</v>
+      </c>
+      <c r="O232" t="s">
+        <v>235</v>
+      </c>
+      <c r="P232" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q232">
+        <v>3</v>
+      </c>
+      <c r="R232">
+        <v>5</v>
+      </c>
+      <c r="S232">
+        <v>8</v>
+      </c>
+      <c r="T232">
+        <v>3.64</v>
+      </c>
+      <c r="U232">
+        <v>2.13</v>
+      </c>
+      <c r="V232">
+        <v>2.77</v>
+      </c>
+      <c r="W232">
+        <v>1.36</v>
+      </c>
+      <c r="X232">
+        <v>2.9</v>
+      </c>
+      <c r="Y232">
+        <v>2.66</v>
+      </c>
+      <c r="Z232">
+        <v>1.42</v>
+      </c>
+      <c r="AA232">
+        <v>6.55</v>
+      </c>
+      <c r="AB232">
+        <v>1.08</v>
+      </c>
+      <c r="AC232">
+        <v>2.95</v>
+      </c>
+      <c r="AD232">
+        <v>3.35</v>
+      </c>
+      <c r="AE232">
+        <v>2.17</v>
+      </c>
+      <c r="AF232">
+        <v>1.04</v>
+      </c>
+      <c r="AG232">
+        <v>12.75</v>
+      </c>
+      <c r="AH232">
+        <v>1.24</v>
+      </c>
+      <c r="AI232">
+        <v>3.63</v>
+      </c>
+      <c r="AJ232">
+        <v>2.11</v>
+      </c>
+      <c r="AK232">
+        <v>1.65</v>
+      </c>
+      <c r="AL232">
+        <v>1.66</v>
+      </c>
+      <c r="AM232">
+        <v>2.16</v>
+      </c>
+      <c r="AN232">
+        <v>1.58</v>
+      </c>
+      <c r="AO232">
+        <v>1.27</v>
+      </c>
+      <c r="AP232">
+        <v>1.35</v>
+      </c>
+      <c r="AQ232">
+        <v>1</v>
+      </c>
+      <c r="AR232">
+        <v>1.56</v>
+      </c>
+      <c r="AS232">
+        <v>1.22</v>
+      </c>
+      <c r="AT232">
+        <v>1.4</v>
+      </c>
+      <c r="AU232">
+        <v>1.15</v>
+      </c>
+      <c r="AV232">
+        <v>1.12</v>
+      </c>
+      <c r="AW232">
+        <v>2.27</v>
+      </c>
+      <c r="AX232">
+        <v>2.13</v>
+      </c>
+      <c r="AY232">
+        <v>6.75</v>
+      </c>
+      <c r="AZ232">
+        <v>2</v>
+      </c>
+      <c r="BA232">
+        <v>1.48</v>
+      </c>
+      <c r="BB232">
+        <v>1.81</v>
+      </c>
+      <c r="BC232">
+        <v>2.29</v>
+      </c>
+      <c r="BD232">
+        <v>3.2</v>
+      </c>
+      <c r="BE232">
+        <v>0</v>
+      </c>
+      <c r="BF232">
+        <v>3</v>
+      </c>
+      <c r="BG232">
+        <v>3</v>
+      </c>
+      <c r="BH232">
+        <v>7</v>
+      </c>
+      <c r="BI232">
+        <v>8</v>
+      </c>
+      <c r="BJ232">
+        <v>10</v>
+      </c>
+      <c r="BK232">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA USL Championship_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="348">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -724,6 +724,27 @@
     <t>['5', '60']</t>
   </si>
   <si>
+    <t>['7', '31']</t>
+  </si>
+  <si>
+    <t>['11', '45+1', '56']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['6', '22', '44']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['45', '57', '60']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
     <t>['8', '11', '90+4']</t>
   </si>
   <si>
@@ -1025,6 +1046,18 @@
   </si>
   <si>
     <t>['15', '33', '78']</t>
+  </si>
+  <si>
+    <t>['55', '90+2']</t>
+  </si>
+  <si>
+    <t>['24', '32', '45+5', '86']</t>
+  </si>
+  <si>
+    <t>['65', '69', '85']</t>
+  </si>
+  <si>
+    <t>['23', '81']</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK232"/>
+  <dimension ref="A1:BK243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1630,7 +1663,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1717,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT2">
         <v>0.64</v>
@@ -2203,7 +2236,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2290,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT5">
         <v>1.2</v>
@@ -2394,7 +2427,7 @@
         <v>93</v>
       </c>
       <c r="P6" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2484,7 +2517,7 @@
         <v>1.78</v>
       </c>
       <c r="AT6">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2672,10 +2705,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT7">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2863,10 +2896,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT8">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2967,7 +3000,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3057,7 +3090,7 @@
         <v>1.45</v>
       </c>
       <c r="AT9">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3349,7 +3382,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3540,7 +3573,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3731,7 +3764,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3818,10 +3851,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT13">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3922,7 +3955,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -4113,7 +4146,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4200,10 +4233,10 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT15">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4495,7 +4528,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4585,7 +4618,7 @@
         <v>1.9</v>
       </c>
       <c r="AT17">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4686,7 +4719,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4773,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT18">
         <v>0.75</v>
@@ -5349,7 +5382,7 @@
         <v>1.4</v>
       </c>
       <c r="AT21">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU21">
         <v>1.52</v>
@@ -5922,7 +5955,7 @@
         <v>1.1</v>
       </c>
       <c r="AT24">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -6113,7 +6146,7 @@
         <v>2.4</v>
       </c>
       <c r="AT25">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6214,7 +6247,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6304,7 +6337,7 @@
         <v>1.1</v>
       </c>
       <c r="AT26">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6495,7 +6528,7 @@
         <v>0.5</v>
       </c>
       <c r="AT27">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -6596,7 +6629,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6683,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT28">
         <v>2.25</v>
@@ -6787,7 +6820,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6874,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT29">
         <v>1.63</v>
@@ -7065,10 +7098,10 @@
         <v>1</v>
       </c>
       <c r="AS30">
+        <v>1.64</v>
+      </c>
+      <c r="AT30">
         <v>1.5</v>
-      </c>
-      <c r="AT30">
-        <v>1.56</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -7256,10 +7289,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT31">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU31">
         <v>1.4</v>
@@ -7447,7 +7480,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT32">
         <v>0.64</v>
@@ -7551,7 +7584,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -8020,10 +8053,10 @@
         <v>2</v>
       </c>
       <c r="AS35">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT35">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU35">
         <v>1.29</v>
@@ -8124,7 +8157,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8211,7 +8244,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT36">
         <v>2.25</v>
@@ -8405,7 +8438,7 @@
         <v>0.5</v>
       </c>
       <c r="AT37">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU37">
         <v>1.4</v>
@@ -8596,7 +8629,7 @@
         <v>1.18</v>
       </c>
       <c r="AT38">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU38">
         <v>1.45</v>
@@ -8784,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT39">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -9166,7 +9199,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT41">
         <v>0.73</v>
@@ -9270,7 +9303,7 @@
         <v>95</v>
       </c>
       <c r="P42" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9360,7 +9393,7 @@
         <v>2</v>
       </c>
       <c r="AT42">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU42">
         <v>1.21</v>
@@ -9461,7 +9494,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10034,7 +10067,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10121,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT46">
         <v>1.45</v>
@@ -10312,7 +10345,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT47">
         <v>0.75</v>
@@ -10416,7 +10449,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10607,7 +10640,7 @@
         <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10694,10 +10727,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT49">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU49">
         <v>1.58</v>
@@ -10888,7 +10921,7 @@
         <v>2</v>
       </c>
       <c r="AT50">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU50">
         <v>1.01</v>
@@ -10989,7 +11022,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11076,10 +11109,10 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT51">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU51">
         <v>0</v>
@@ -11270,7 +11303,7 @@
         <v>1.9</v>
       </c>
       <c r="AT52">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU52">
         <v>0</v>
@@ -11458,10 +11491,10 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT53">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU53">
         <v>1.28</v>
@@ -11649,10 +11682,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
+        <v>1.17</v>
+      </c>
+      <c r="AT54">
         <v>1.27</v>
-      </c>
-      <c r="AT54">
-        <v>1.1</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -11753,7 +11786,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11944,7 +11977,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -12135,7 +12168,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -12326,7 +12359,7 @@
         <v>108</v>
       </c>
       <c r="P58" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12413,7 +12446,7 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT58">
         <v>1.8</v>
@@ -12607,7 +12640,7 @@
         <v>1.18</v>
       </c>
       <c r="AT59">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU59">
         <v>1.71</v>
@@ -12989,7 +13022,7 @@
         <v>2.4</v>
       </c>
       <c r="AT61">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU61">
         <v>1.61</v>
@@ -13177,7 +13210,7 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT62">
         <v>1.7</v>
@@ -13281,7 +13314,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13368,7 +13401,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT63">
         <v>0.73</v>
@@ -13472,7 +13505,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13559,7 +13592,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT64">
         <v>1.45</v>
@@ -13663,7 +13696,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q65">
         <v>13</v>
@@ -13753,7 +13786,7 @@
         <v>1.44</v>
       </c>
       <c r="AT65">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU65">
         <v>0</v>
@@ -14132,10 +14165,10 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT67">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU67">
         <v>0</v>
@@ -14326,7 +14359,7 @@
         <v>2.18</v>
       </c>
       <c r="AT68">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU68">
         <v>1.21</v>
@@ -14427,7 +14460,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14514,10 +14547,10 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT69">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU69">
         <v>1.72</v>
@@ -14705,7 +14738,7 @@
         <v>2</v>
       </c>
       <c r="AS70">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT70">
         <v>1.4</v>
@@ -14809,7 +14842,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15087,7 +15120,7 @@
         <v>1.33</v>
       </c>
       <c r="AS72">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT72">
         <v>1.2</v>
@@ -15191,7 +15224,7 @@
         <v>95</v>
       </c>
       <c r="P73" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15469,10 +15502,10 @@
         <v>1.25</v>
       </c>
       <c r="AS74">
+        <v>1.17</v>
+      </c>
+      <c r="AT74">
         <v>1.27</v>
-      </c>
-      <c r="AT74">
-        <v>1.4</v>
       </c>
       <c r="AU74">
         <v>1.79</v>
@@ -15573,7 +15606,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15663,7 +15696,7 @@
         <v>1.4</v>
       </c>
       <c r="AT75">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU75">
         <v>1.32</v>
@@ -16045,7 +16078,7 @@
         <v>1.18</v>
       </c>
       <c r="AT77">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU77">
         <v>1.93</v>
@@ -16427,7 +16460,7 @@
         <v>1.75</v>
       </c>
       <c r="AT79">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU79">
         <v>1.43</v>
@@ -16528,7 +16561,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16615,10 +16648,10 @@
         <v>0.33</v>
       </c>
       <c r="AS80">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT80">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU80">
         <v>1.31</v>
@@ -16806,10 +16839,10 @@
         <v>2</v>
       </c>
       <c r="AS81">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT81">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU81">
         <v>1.44</v>
@@ -16910,7 +16943,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -16997,10 +17030,10 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT82">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU82">
         <v>1.58</v>
@@ -17101,7 +17134,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17188,10 +17221,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT83">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU83">
         <v>1.38</v>
@@ -17379,7 +17412,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT84">
         <v>1.4</v>
@@ -17483,7 +17516,7 @@
         <v>97</v>
       </c>
       <c r="P85" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17570,7 +17603,7 @@
         <v>0.8</v>
       </c>
       <c r="AS85">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT85">
         <v>0.73</v>
@@ -17761,10 +17794,10 @@
         <v>0.5</v>
       </c>
       <c r="AS86">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT86">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU86">
         <v>1.44</v>
@@ -17955,7 +17988,7 @@
         <v>1.45</v>
       </c>
       <c r="AT87">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU87">
         <v>1.39</v>
@@ -18146,7 +18179,7 @@
         <v>1.44</v>
       </c>
       <c r="AT88">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU88">
         <v>1.58</v>
@@ -18247,7 +18280,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18438,7 +18471,7 @@
         <v>149</v>
       </c>
       <c r="P90" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18525,7 +18558,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT90">
         <v>0.64</v>
@@ -18629,7 +18662,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18719,7 +18752,7 @@
         <v>1.78</v>
       </c>
       <c r="AT91">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU91">
         <v>1.27</v>
@@ -18820,7 +18853,7 @@
         <v>151</v>
       </c>
       <c r="P92" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18910,7 +18943,7 @@
         <v>1.27</v>
       </c>
       <c r="AT92">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU92">
         <v>1.44</v>
@@ -19011,7 +19044,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19202,7 +19235,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19393,7 +19426,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19483,7 +19516,7 @@
         <v>1.45</v>
       </c>
       <c r="AT95">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU95">
         <v>1.03</v>
@@ -19671,7 +19704,7 @@
         <v>2.33</v>
       </c>
       <c r="AS96">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT96">
         <v>1.8</v>
@@ -19775,7 +19808,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19966,7 +19999,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q98">
         <v>9</v>
@@ -20157,7 +20190,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20247,7 +20280,7 @@
         <v>1.78</v>
       </c>
       <c r="AT99">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU99">
         <v>1.51</v>
@@ -20348,7 +20381,7 @@
         <v>156</v>
       </c>
       <c r="P100" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20435,7 +20468,7 @@
         <v>0.33</v>
       </c>
       <c r="AS100">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT100">
         <v>1</v>
@@ -20730,7 +20763,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20921,7 +20954,7 @@
         <v>126</v>
       </c>
       <c r="P103" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -21008,7 +21041,7 @@
         <v>1.33</v>
       </c>
       <c r="AS103">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT103">
         <v>1.7</v>
@@ -21112,7 +21145,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21199,10 +21232,10 @@
         <v>0.67</v>
       </c>
       <c r="AS104">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT104">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU104">
         <v>1.53</v>
@@ -21393,7 +21426,7 @@
         <v>2.4</v>
       </c>
       <c r="AT105">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU105">
         <v>1.53</v>
@@ -21494,7 +21527,7 @@
         <v>95</v>
       </c>
       <c r="P106" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21581,7 +21614,7 @@
         <v>1.75</v>
       </c>
       <c r="AS106">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT106">
         <v>1.7</v>
@@ -21963,10 +21996,10 @@
         <v>1.8</v>
       </c>
       <c r="AS108">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT108">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU108">
         <v>1.6</v>
@@ -22154,10 +22187,10 @@
         <v>1.67</v>
       </c>
       <c r="AS109">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT109">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU109">
         <v>1.55</v>
@@ -22345,7 +22378,7 @@
         <v>1</v>
       </c>
       <c r="AS110">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT110">
         <v>0.64</v>
@@ -22449,7 +22482,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22539,7 +22572,7 @@
         <v>1.75</v>
       </c>
       <c r="AT111">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU111">
         <v>1.45</v>
@@ -22831,7 +22864,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -22918,10 +22951,10 @@
         <v>0.8</v>
       </c>
       <c r="AS113">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT113">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU113">
         <v>1.18</v>
@@ -23109,7 +23142,7 @@
         <v>0.5</v>
       </c>
       <c r="AS114">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT114">
         <v>1</v>
@@ -23303,7 +23336,7 @@
         <v>1.44</v>
       </c>
       <c r="AT115">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU115">
         <v>1.45</v>
@@ -23404,7 +23437,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23685,7 +23718,7 @@
         <v>1.4</v>
       </c>
       <c r="AT117">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU117">
         <v>1.4</v>
@@ -23786,7 +23819,7 @@
         <v>112</v>
       </c>
       <c r="P118" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="Q118">
         <v>10</v>
@@ -23873,7 +23906,7 @@
         <v>2.33</v>
       </c>
       <c r="AS118">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT118">
         <v>1.88</v>
@@ -24064,10 +24097,10 @@
         <v>1.25</v>
       </c>
       <c r="AS119">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT119">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU119">
         <v>1.19</v>
@@ -24168,7 +24201,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24359,7 +24392,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24637,10 +24670,10 @@
         <v>1.5</v>
       </c>
       <c r="AS122">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT122">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU122">
         <v>1.45</v>
@@ -25019,7 +25052,7 @@
         <v>2</v>
       </c>
       <c r="AS124">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT124">
         <v>1.7</v>
@@ -25123,7 +25156,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25314,7 +25347,7 @@
         <v>95</v>
       </c>
       <c r="P126" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25404,7 +25437,7 @@
         <v>1.1</v>
       </c>
       <c r="AT126">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU126">
         <v>1.15</v>
@@ -25696,7 +25729,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25786,7 +25819,7 @@
         <v>2.18</v>
       </c>
       <c r="AT128">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU128">
         <v>1.58</v>
@@ -25887,7 +25920,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25974,7 +26007,7 @@
         <v>0.6</v>
       </c>
       <c r="AS129">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT129">
         <v>1</v>
@@ -26078,7 +26111,7 @@
         <v>131</v>
       </c>
       <c r="P130" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26168,7 +26201,7 @@
         <v>0.5</v>
       </c>
       <c r="AT130">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU130">
         <v>1.43</v>
@@ -26269,7 +26302,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26356,7 +26389,7 @@
         <v>0.71</v>
       </c>
       <c r="AS131">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT131">
         <v>0.73</v>
@@ -26547,10 +26580,10 @@
         <v>1.5</v>
       </c>
       <c r="AS132">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT132">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU132">
         <v>1.01</v>
@@ -26651,7 +26684,7 @@
         <v>95</v>
       </c>
       <c r="P133" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26738,7 +26771,7 @@
         <v>1.6</v>
       </c>
       <c r="AS133">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT133">
         <v>1.4</v>
@@ -26932,7 +26965,7 @@
         <v>1.27</v>
       </c>
       <c r="AT134">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU134">
         <v>1.45</v>
@@ -27033,7 +27066,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27123,7 +27156,7 @@
         <v>2</v>
       </c>
       <c r="AT135">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU135">
         <v>1.4</v>
@@ -27224,7 +27257,7 @@
         <v>95</v>
       </c>
       <c r="P136" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27502,7 +27535,7 @@
         <v>1.17</v>
       </c>
       <c r="AS137">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT137">
         <v>1.1</v>
@@ -27797,7 +27830,7 @@
         <v>95</v>
       </c>
       <c r="P139" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q139">
         <v>6</v>
@@ -27887,7 +27920,7 @@
         <v>1.18</v>
       </c>
       <c r="AT139">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU139">
         <v>1.87</v>
@@ -28179,7 +28212,7 @@
         <v>95</v>
       </c>
       <c r="P141" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28266,7 +28299,7 @@
         <v>1.4</v>
       </c>
       <c r="AS141">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT141">
         <v>1.63</v>
@@ -28370,7 +28403,7 @@
         <v>95</v>
       </c>
       <c r="P142" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28460,7 +28493,7 @@
         <v>1.9</v>
       </c>
       <c r="AT142">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU142">
         <v>1.55</v>
@@ -28943,7 +28976,7 @@
         <v>183</v>
       </c>
       <c r="P145" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -29033,7 +29066,7 @@
         <v>2</v>
       </c>
       <c r="AT145">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU145">
         <v>1.46</v>
@@ -29221,10 +29254,10 @@
         <v>0.5</v>
       </c>
       <c r="AS146">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT146">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU146">
         <v>1.81</v>
@@ -29325,7 +29358,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29412,7 +29445,7 @@
         <v>1.33</v>
       </c>
       <c r="AS147">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT147">
         <v>1.45</v>
@@ -29603,7 +29636,7 @@
         <v>2.6</v>
       </c>
       <c r="AS148">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT148">
         <v>2.25</v>
@@ -29797,7 +29830,7 @@
         <v>1.4</v>
       </c>
       <c r="AT149">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU149">
         <v>1.48</v>
@@ -29898,7 +29931,7 @@
         <v>187</v>
       </c>
       <c r="P150" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -30176,7 +30209,7 @@
         <v>0.67</v>
       </c>
       <c r="AS151">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT151">
         <v>0.75</v>
@@ -30280,7 +30313,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30561,7 +30594,7 @@
         <v>1.75</v>
       </c>
       <c r="AT153">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU153">
         <v>1.44</v>
@@ -30662,7 +30695,7 @@
         <v>109</v>
       </c>
       <c r="P154" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q154">
         <v>8</v>
@@ -30749,10 +30782,10 @@
         <v>0.67</v>
       </c>
       <c r="AS154">
+        <v>0.82</v>
+      </c>
+      <c r="AT154">
         <v>0.8</v>
-      </c>
-      <c r="AT154">
-        <v>0.5600000000000001</v>
       </c>
       <c r="AU154">
         <v>1.46</v>
@@ -31044,7 +31077,7 @@
         <v>191</v>
       </c>
       <c r="P156" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31235,7 +31268,7 @@
         <v>192</v>
       </c>
       <c r="P157" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31325,7 +31358,7 @@
         <v>1.1</v>
       </c>
       <c r="AT157">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU157">
         <v>1.8</v>
@@ -31426,7 +31459,7 @@
         <v>193</v>
       </c>
       <c r="P158" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31513,7 +31546,7 @@
         <v>2.5</v>
       </c>
       <c r="AS158">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT158">
         <v>1.88</v>
@@ -31617,7 +31650,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31704,7 +31737,7 @@
         <v>2.67</v>
       </c>
       <c r="AS159">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT159">
         <v>2.25</v>
@@ -31898,7 +31931,7 @@
         <v>1.9</v>
       </c>
       <c r="AT160">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU160">
         <v>1.51</v>
@@ -31999,7 +32032,7 @@
         <v>196</v>
       </c>
       <c r="P161" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -32086,10 +32119,10 @@
         <v>1.43</v>
       </c>
       <c r="AS161">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT161">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU161">
         <v>1.58</v>
@@ -32190,7 +32223,7 @@
         <v>197</v>
       </c>
       <c r="P162" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -32277,10 +32310,10 @@
         <v>1</v>
       </c>
       <c r="AS162">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT162">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU162">
         <v>2.17</v>
@@ -32381,7 +32414,7 @@
         <v>89</v>
       </c>
       <c r="P163" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32572,7 +32605,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -32659,7 +32692,7 @@
         <v>1</v>
       </c>
       <c r="AS164">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT164">
         <v>0.73</v>
@@ -32763,7 +32796,7 @@
         <v>199</v>
       </c>
       <c r="P165" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q165">
         <v>9</v>
@@ -32954,7 +32987,7 @@
         <v>200</v>
       </c>
       <c r="P166" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -33145,7 +33178,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33336,7 +33369,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33527,7 +33560,7 @@
         <v>95</v>
       </c>
       <c r="P169" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33614,10 +33647,10 @@
         <v>0.33</v>
       </c>
       <c r="AS169">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT169">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU169">
         <v>1.49</v>
@@ -33805,7 +33838,7 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT170">
         <v>0.75</v>
@@ -33909,7 +33942,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33996,10 +34029,10 @@
         <v>1.4</v>
       </c>
       <c r="AS171">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT171">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU171">
         <v>1.21</v>
@@ -34378,10 +34411,10 @@
         <v>1.4</v>
       </c>
       <c r="AS173">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT173">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU173">
         <v>1.57</v>
@@ -34572,7 +34605,7 @@
         <v>1.44</v>
       </c>
       <c r="AT174">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU174">
         <v>1.51</v>
@@ -34673,7 +34706,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="Q175">
         <v>8</v>
@@ -34760,7 +34793,7 @@
         <v>1.71</v>
       </c>
       <c r="AS175">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT175">
         <v>1.4</v>
@@ -34864,7 +34897,7 @@
         <v>95</v>
       </c>
       <c r="P176" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q176">
         <v>11</v>
@@ -34954,7 +34987,7 @@
         <v>2.18</v>
       </c>
       <c r="AT176">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU176">
         <v>1.5</v>
@@ -35333,7 +35366,7 @@
         <v>0.88</v>
       </c>
       <c r="AS178">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT178">
         <v>1</v>
@@ -35527,7 +35560,7 @@
         <v>1.1</v>
       </c>
       <c r="AT179">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU179">
         <v>1.91</v>
@@ -35628,7 +35661,7 @@
         <v>208</v>
       </c>
       <c r="P180" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q180">
         <v>7</v>
@@ -35715,7 +35748,7 @@
         <v>1.14</v>
       </c>
       <c r="AS180">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT180">
         <v>1.2</v>
@@ -36010,7 +36043,7 @@
         <v>95</v>
       </c>
       <c r="P182" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="Q182">
         <v>9</v>
@@ -36201,7 +36234,7 @@
         <v>210</v>
       </c>
       <c r="P183" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36291,7 +36324,7 @@
         <v>1.18</v>
       </c>
       <c r="AT183">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU183">
         <v>1.75</v>
@@ -36479,10 +36512,10 @@
         <v>0.71</v>
       </c>
       <c r="AS184">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT184">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU184">
         <v>1.08</v>
@@ -36670,7 +36703,7 @@
         <v>0.8</v>
       </c>
       <c r="AS185">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT185">
         <v>0.73</v>
@@ -36774,7 +36807,7 @@
         <v>212</v>
       </c>
       <c r="P186" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -36861,7 +36894,7 @@
         <v>2.29</v>
       </c>
       <c r="AS186">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT186">
         <v>1.8</v>
@@ -37052,10 +37085,10 @@
         <v>1</v>
       </c>
       <c r="AS187">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT187">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU187">
         <v>1.22</v>
@@ -37156,7 +37189,7 @@
         <v>214</v>
       </c>
       <c r="P188" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Q188">
         <v>1</v>
@@ -37437,7 +37470,7 @@
         <v>1.45</v>
       </c>
       <c r="AT189">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU189">
         <v>1.47</v>
@@ -37538,7 +37571,7 @@
         <v>215</v>
       </c>
       <c r="P190" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37729,7 +37762,7 @@
         <v>95</v>
       </c>
       <c r="P191" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -37819,7 +37852,7 @@
         <v>1.44</v>
       </c>
       <c r="AT191">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU191">
         <v>1.44</v>
@@ -38007,7 +38040,7 @@
         <v>0.75</v>
       </c>
       <c r="AS192">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT192">
         <v>0.64</v>
@@ -38111,7 +38144,7 @@
         <v>217</v>
       </c>
       <c r="P193" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="Q193">
         <v>1</v>
@@ -38198,7 +38231,7 @@
         <v>1</v>
       </c>
       <c r="AS193">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT193">
         <v>0.75</v>
@@ -38302,7 +38335,7 @@
         <v>218</v>
       </c>
       <c r="P194" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38389,7 +38422,7 @@
         <v>1.13</v>
       </c>
       <c r="AS194">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT194">
         <v>1.45</v>
@@ -38771,10 +38804,10 @@
         <v>1.29</v>
       </c>
       <c r="AS196">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT196">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU196">
         <v>1.64</v>
@@ -38965,7 +38998,7 @@
         <v>1.9</v>
       </c>
       <c r="AT197">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU197">
         <v>1.49</v>
@@ -39153,7 +39186,7 @@
         <v>0.88</v>
       </c>
       <c r="AS198">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT198">
         <v>1.1</v>
@@ -39347,7 +39380,7 @@
         <v>1.4</v>
       </c>
       <c r="AT199">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU199">
         <v>1.45</v>
@@ -39448,7 +39481,7 @@
         <v>222</v>
       </c>
       <c r="P200" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Q200">
         <v>10</v>
@@ -39535,10 +39568,10 @@
         <v>1.57</v>
       </c>
       <c r="AS200">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT200">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU200">
         <v>2.17</v>
@@ -39726,7 +39759,7 @@
         <v>2.6</v>
       </c>
       <c r="AS201">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT201">
         <v>1.88</v>
@@ -39920,7 +39953,7 @@
         <v>2.18</v>
       </c>
       <c r="AT202">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU202">
         <v>1.57</v>
@@ -40111,7 +40144,7 @@
         <v>1.18</v>
       </c>
       <c r="AT203">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU203">
         <v>1.65</v>
@@ -40212,7 +40245,7 @@
         <v>225</v>
       </c>
       <c r="P204" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q204">
         <v>7</v>
@@ -40299,7 +40332,7 @@
         <v>1.11</v>
       </c>
       <c r="AS204">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT204">
         <v>1.1</v>
@@ -40493,7 +40526,7 @@
         <v>1.9</v>
       </c>
       <c r="AT205">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU205">
         <v>1.5</v>
@@ -40594,7 +40627,7 @@
         <v>95</v>
       </c>
       <c r="P206" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -40681,7 +40714,7 @@
         <v>1.38</v>
       </c>
       <c r="AS206">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT206">
         <v>1.7</v>
@@ -40785,7 +40818,7 @@
         <v>95</v>
       </c>
       <c r="P207" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q207">
         <v>2</v>
@@ -41063,7 +41096,7 @@
         <v>0.78</v>
       </c>
       <c r="AS208">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT208">
         <v>1</v>
@@ -41257,7 +41290,7 @@
         <v>2.4</v>
       </c>
       <c r="AT209">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU209">
         <v>1.32</v>
@@ -41358,7 +41391,7 @@
         <v>227</v>
       </c>
       <c r="P210" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41639,7 +41672,7 @@
         <v>2</v>
       </c>
       <c r="AT211">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU211">
         <v>1.41</v>
@@ -41827,7 +41860,7 @@
         <v>0.67</v>
       </c>
       <c r="AS212">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT212">
         <v>0.64</v>
@@ -42018,7 +42051,7 @@
         <v>0.9</v>
       </c>
       <c r="AS213">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT213">
         <v>0.75</v>
@@ -42313,7 +42346,7 @@
         <v>230</v>
       </c>
       <c r="P215" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q215">
         <v>8</v>
@@ -42400,10 +42433,10 @@
         <v>1.13</v>
       </c>
       <c r="AS215">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT215">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU215">
         <v>2.07</v>
@@ -42594,7 +42627,7 @@
         <v>1.1</v>
       </c>
       <c r="AT216">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU216">
         <v>1.79</v>
@@ -42782,7 +42815,7 @@
         <v>2</v>
       </c>
       <c r="AS217">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT217">
         <v>1.8</v>
@@ -42886,7 +42919,7 @@
         <v>128</v>
       </c>
       <c r="P218" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q218">
         <v>4</v>
@@ -42973,7 +43006,7 @@
         <v>0.6</v>
       </c>
       <c r="AS218">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT218">
         <v>0.64</v>
@@ -43164,10 +43197,10 @@
         <v>1.22</v>
       </c>
       <c r="AS219">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT219">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU219">
         <v>1.77</v>
@@ -43268,7 +43301,7 @@
         <v>178</v>
       </c>
       <c r="P220" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q220">
         <v>7</v>
@@ -43355,7 +43388,7 @@
         <v>1.56</v>
       </c>
       <c r="AS220">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT220">
         <v>1.7</v>
@@ -43546,10 +43579,10 @@
         <v>0.38</v>
       </c>
       <c r="AS221">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT221">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="AU221">
         <v>1.5</v>
@@ -43841,7 +43874,7 @@
         <v>95</v>
       </c>
       <c r="P223" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="Q223">
         <v>4</v>
@@ -44223,7 +44256,7 @@
         <v>112</v>
       </c>
       <c r="P225" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -44414,7 +44447,7 @@
         <v>97</v>
       </c>
       <c r="P226" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="Q226">
         <v>9</v>
@@ -44504,7 +44537,7 @@
         <v>1.18</v>
       </c>
       <c r="AT226">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU226">
         <v>1.66</v>
@@ -44695,7 +44728,7 @@
         <v>1.78</v>
       </c>
       <c r="AT227">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU227">
         <v>1.44</v>
@@ -44796,7 +44829,7 @@
         <v>234</v>
       </c>
       <c r="P228" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q228">
         <v>2</v>
@@ -44883,10 +44916,10 @@
         <v>0.63</v>
       </c>
       <c r="AS228">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT228">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU228">
         <v>1.43</v>
@@ -44987,7 +45020,7 @@
         <v>103</v>
       </c>
       <c r="P229" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -45074,10 +45107,10 @@
         <v>1.5</v>
       </c>
       <c r="AS229">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT229">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU229">
         <v>1.47</v>
@@ -45178,7 +45211,7 @@
         <v>178</v>
       </c>
       <c r="P230" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="Q230">
         <v>6</v>
@@ -45268,7 +45301,7 @@
         <v>1.45</v>
       </c>
       <c r="AT230">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU230">
         <v>1.44</v>
@@ -45647,7 +45680,7 @@
         <v>1.56</v>
       </c>
       <c r="AS232">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT232">
         <v>1.4</v>
@@ -45701,6 +45734,2107 @@
         <v>10</v>
       </c>
       <c r="BK232">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:63">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>5094239</v>
+      </c>
+      <c r="C233" t="s">
+        <v>63</v>
+      </c>
+      <c r="D233" t="s">
+        <v>64</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45128.91666666666</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233" t="s">
+        <v>83</v>
+      </c>
+      <c r="H233" t="s">
+        <v>75</v>
+      </c>
+      <c r="I233">
+        <v>2</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>2</v>
+      </c>
+      <c r="L233">
+        <v>2</v>
+      </c>
+      <c r="M233">
+        <v>1</v>
+      </c>
+      <c r="N233">
+        <v>3</v>
+      </c>
+      <c r="O233" t="s">
+        <v>236</v>
+      </c>
+      <c r="P233" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q233">
+        <v>5</v>
+      </c>
+      <c r="R233">
+        <v>3</v>
+      </c>
+      <c r="S233">
+        <v>8</v>
+      </c>
+      <c r="T233">
+        <v>2.65</v>
+      </c>
+      <c r="U233">
+        <v>2.12</v>
+      </c>
+      <c r="V233">
+        <v>3.92</v>
+      </c>
+      <c r="W233">
+        <v>1.37</v>
+      </c>
+      <c r="X233">
+        <v>2.85</v>
+      </c>
+      <c r="Y233">
+        <v>2.73</v>
+      </c>
+      <c r="Z233">
+        <v>1.4</v>
+      </c>
+      <c r="AA233">
+        <v>6.7</v>
+      </c>
+      <c r="AB233">
+        <v>1.07</v>
+      </c>
+      <c r="AC233">
+        <v>2.25</v>
+      </c>
+      <c r="AD233">
+        <v>3.25</v>
+      </c>
+      <c r="AE233">
+        <v>2.7</v>
+      </c>
+      <c r="AF233">
+        <v>1.05</v>
+      </c>
+      <c r="AG233">
+        <v>9</v>
+      </c>
+      <c r="AH233">
+        <v>1.29</v>
+      </c>
+      <c r="AI233">
+        <v>3.5</v>
+      </c>
+      <c r="AJ233">
+        <v>1.89</v>
+      </c>
+      <c r="AK233">
+        <v>1.95</v>
+      </c>
+      <c r="AL233">
+        <v>1.69</v>
+      </c>
+      <c r="AM233">
+        <v>2.11</v>
+      </c>
+      <c r="AN233">
+        <v>1.3</v>
+      </c>
+      <c r="AO233">
+        <v>1.27</v>
+      </c>
+      <c r="AP233">
+        <v>1.66</v>
+      </c>
+      <c r="AQ233">
+        <v>1.5</v>
+      </c>
+      <c r="AR233">
+        <v>1.44</v>
+      </c>
+      <c r="AS233">
+        <v>1.64</v>
+      </c>
+      <c r="AT233">
+        <v>1.3</v>
+      </c>
+      <c r="AU233">
+        <v>1.44</v>
+      </c>
+      <c r="AV233">
+        <v>1.26</v>
+      </c>
+      <c r="AW233">
+        <v>2.7</v>
+      </c>
+      <c r="AX233">
+        <v>1.87</v>
+      </c>
+      <c r="AY233">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ233">
+        <v>2.17</v>
+      </c>
+      <c r="BA233">
+        <v>1.41</v>
+      </c>
+      <c r="BB233">
+        <v>2</v>
+      </c>
+      <c r="BC233">
+        <v>2.18</v>
+      </c>
+      <c r="BD233">
+        <v>3.08</v>
+      </c>
+      <c r="BE233">
+        <v>4.5</v>
+      </c>
+      <c r="BF233">
+        <v>8</v>
+      </c>
+      <c r="BG233">
+        <v>4</v>
+      </c>
+      <c r="BH233">
+        <v>3</v>
+      </c>
+      <c r="BI233">
+        <v>7</v>
+      </c>
+      <c r="BJ233">
+        <v>11</v>
+      </c>
+      <c r="BK233">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:63">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>5094243</v>
+      </c>
+      <c r="C234" t="s">
+        <v>63</v>
+      </c>
+      <c r="D234" t="s">
+        <v>64</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45129.83333333334</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234" t="s">
+        <v>84</v>
+      </c>
+      <c r="H234" t="s">
+        <v>67</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>0</v>
+      </c>
+      <c r="O234" t="s">
+        <v>95</v>
+      </c>
+      <c r="P234" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q234">
+        <v>3</v>
+      </c>
+      <c r="R234">
+        <v>5</v>
+      </c>
+      <c r="S234">
+        <v>8</v>
+      </c>
+      <c r="T234">
+        <v>3.96</v>
+      </c>
+      <c r="U234">
+        <v>2.11</v>
+      </c>
+      <c r="V234">
+        <v>2.64</v>
+      </c>
+      <c r="W234">
+        <v>1.37</v>
+      </c>
+      <c r="X234">
+        <v>2.85</v>
+      </c>
+      <c r="Y234">
+        <v>2.73</v>
+      </c>
+      <c r="Z234">
+        <v>1.4</v>
+      </c>
+      <c r="AA234">
+        <v>6.75</v>
+      </c>
+      <c r="AB234">
+        <v>1.07</v>
+      </c>
+      <c r="AC234">
+        <v>3.25</v>
+      </c>
+      <c r="AD234">
+        <v>3.3</v>
+      </c>
+      <c r="AE234">
+        <v>1.97</v>
+      </c>
+      <c r="AF234">
+        <v>1.04</v>
+      </c>
+      <c r="AG234">
+        <v>12</v>
+      </c>
+      <c r="AH234">
+        <v>1.26</v>
+      </c>
+      <c r="AI234">
+        <v>3.42</v>
+      </c>
+      <c r="AJ234">
+        <v>1.89</v>
+      </c>
+      <c r="AK234">
+        <v>1.89</v>
+      </c>
+      <c r="AL234">
+        <v>1.7</v>
+      </c>
+      <c r="AM234">
+        <v>2.1</v>
+      </c>
+      <c r="AN234">
+        <v>1.66</v>
+      </c>
+      <c r="AO234">
+        <v>1.27</v>
+      </c>
+      <c r="AP234">
+        <v>1.29</v>
+      </c>
+      <c r="AQ234">
+        <v>0.8</v>
+      </c>
+      <c r="AR234">
+        <v>1.56</v>
+      </c>
+      <c r="AS234">
+        <v>0.82</v>
+      </c>
+      <c r="AT234">
+        <v>1.5</v>
+      </c>
+      <c r="AU234">
+        <v>1.46</v>
+      </c>
+      <c r="AV234">
+        <v>1.24</v>
+      </c>
+      <c r="AW234">
+        <v>2.7</v>
+      </c>
+      <c r="AX234">
+        <v>2.08</v>
+      </c>
+      <c r="AY234">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ234">
+        <v>1.94</v>
+      </c>
+      <c r="BA234">
+        <v>1.4</v>
+      </c>
+      <c r="BB234">
+        <v>1.67</v>
+      </c>
+      <c r="BC234">
+        <v>2.07</v>
+      </c>
+      <c r="BD234">
+        <v>2.55</v>
+      </c>
+      <c r="BE234">
+        <v>3.4</v>
+      </c>
+      <c r="BF234">
+        <v>4</v>
+      </c>
+      <c r="BG234">
+        <v>5</v>
+      </c>
+      <c r="BH234">
+        <v>8</v>
+      </c>
+      <c r="BI234">
+        <v>8</v>
+      </c>
+      <c r="BJ234">
+        <v>12</v>
+      </c>
+      <c r="BK234">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:63">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>5094240</v>
+      </c>
+      <c r="C235" t="s">
+        <v>63</v>
+      </c>
+      <c r="D235" t="s">
+        <v>64</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45129.85416666666</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235" t="s">
+        <v>68</v>
+      </c>
+      <c r="H235" t="s">
+        <v>79</v>
+      </c>
+      <c r="I235">
+        <v>2</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>2</v>
+      </c>
+      <c r="L235">
+        <v>3</v>
+      </c>
+      <c r="M235">
+        <v>1</v>
+      </c>
+      <c r="N235">
+        <v>4</v>
+      </c>
+      <c r="O235" t="s">
+        <v>237</v>
+      </c>
+      <c r="P235" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q235">
+        <v>5</v>
+      </c>
+      <c r="R235">
+        <v>3</v>
+      </c>
+      <c r="S235">
+        <v>8</v>
+      </c>
+      <c r="T235">
+        <v>2.7</v>
+      </c>
+      <c r="U235">
+        <v>2.15</v>
+      </c>
+      <c r="V235">
+        <v>3.5</v>
+      </c>
+      <c r="W235">
+        <v>1.36</v>
+      </c>
+      <c r="X235">
+        <v>3</v>
+      </c>
+      <c r="Y235">
+        <v>2.62</v>
+      </c>
+      <c r="Z235">
+        <v>1.44</v>
+      </c>
+      <c r="AA235">
+        <v>6</v>
+      </c>
+      <c r="AB235">
+        <v>1.11</v>
+      </c>
+      <c r="AC235">
+        <v>2.18</v>
+      </c>
+      <c r="AD235">
+        <v>3.25</v>
+      </c>
+      <c r="AE235">
+        <v>2.83</v>
+      </c>
+      <c r="AF235">
+        <v>1.05</v>
+      </c>
+      <c r="AG235">
+        <v>9</v>
+      </c>
+      <c r="AH235">
+        <v>1.29</v>
+      </c>
+      <c r="AI235">
+        <v>3.5</v>
+      </c>
+      <c r="AJ235">
+        <v>1.89</v>
+      </c>
+      <c r="AK235">
+        <v>1.89</v>
+      </c>
+      <c r="AL235">
+        <v>1.7</v>
+      </c>
+      <c r="AM235">
+        <v>2.05</v>
+      </c>
+      <c r="AN235">
+        <v>1.33</v>
+      </c>
+      <c r="AO235">
+        <v>1.3</v>
+      </c>
+      <c r="AP235">
+        <v>1.6</v>
+      </c>
+      <c r="AQ235">
+        <v>1.5</v>
+      </c>
+      <c r="AR235">
+        <v>1.4</v>
+      </c>
+      <c r="AS235">
+        <v>1.64</v>
+      </c>
+      <c r="AT235">
+        <v>1.27</v>
+      </c>
+      <c r="AU235">
+        <v>1.25</v>
+      </c>
+      <c r="AV235">
+        <v>1.23</v>
+      </c>
+      <c r="AW235">
+        <v>2.48</v>
+      </c>
+      <c r="AX235">
+        <v>1.89</v>
+      </c>
+      <c r="AY235">
+        <v>7.8</v>
+      </c>
+      <c r="AZ235">
+        <v>2.17</v>
+      </c>
+      <c r="BA235">
+        <v>1.54</v>
+      </c>
+      <c r="BB235">
+        <v>1.9</v>
+      </c>
+      <c r="BC235">
+        <v>2.41</v>
+      </c>
+      <c r="BD235">
+        <v>3.1</v>
+      </c>
+      <c r="BE235">
+        <v>4.3</v>
+      </c>
+      <c r="BF235">
+        <v>8</v>
+      </c>
+      <c r="BG235">
+        <v>7</v>
+      </c>
+      <c r="BH235">
+        <v>4</v>
+      </c>
+      <c r="BI235">
+        <v>1</v>
+      </c>
+      <c r="BJ235">
+        <v>12</v>
+      </c>
+      <c r="BK235">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:63">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>5094245</v>
+      </c>
+      <c r="C236" t="s">
+        <v>63</v>
+      </c>
+      <c r="D236" t="s">
+        <v>64</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45129.875</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236" t="s">
+        <v>81</v>
+      </c>
+      <c r="H236" t="s">
+        <v>69</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="M236">
+        <v>2</v>
+      </c>
+      <c r="N236">
+        <v>3</v>
+      </c>
+      <c r="O236" t="s">
+        <v>238</v>
+      </c>
+      <c r="P236" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q236">
+        <v>7</v>
+      </c>
+      <c r="R236">
+        <v>5</v>
+      </c>
+      <c r="S236">
+        <v>12</v>
+      </c>
+      <c r="T236">
+        <v>2.44</v>
+      </c>
+      <c r="U236">
+        <v>2.12</v>
+      </c>
+      <c r="V236">
+        <v>4.25</v>
+      </c>
+      <c r="W236">
+        <v>1.37</v>
+      </c>
+      <c r="X236">
+        <v>2.85</v>
+      </c>
+      <c r="Y236">
+        <v>2.73</v>
+      </c>
+      <c r="Z236">
+        <v>1.4</v>
+      </c>
+      <c r="AA236">
+        <v>6.8</v>
+      </c>
+      <c r="AB236">
+        <v>1.07</v>
+      </c>
+      <c r="AC236">
+        <v>1.86</v>
+      </c>
+      <c r="AD236">
+        <v>3.35</v>
+      </c>
+      <c r="AE236">
+        <v>3.5</v>
+      </c>
+      <c r="AF236">
+        <v>1.02</v>
+      </c>
+      <c r="AG236">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH236">
+        <v>1.26</v>
+      </c>
+      <c r="AI236">
+        <v>3.34</v>
+      </c>
+      <c r="AJ236">
+        <v>1.89</v>
+      </c>
+      <c r="AK236">
+        <v>1.89</v>
+      </c>
+      <c r="AL236">
+        <v>1.74</v>
+      </c>
+      <c r="AM236">
+        <v>1.93</v>
+      </c>
+      <c r="AN236">
+        <v>1.24</v>
+      </c>
+      <c r="AO236">
+        <v>1.26</v>
+      </c>
+      <c r="AP236">
+        <v>1.79</v>
+      </c>
+      <c r="AQ236">
+        <v>1.67</v>
+      </c>
+      <c r="AR236">
+        <v>1.11</v>
+      </c>
+      <c r="AS236">
+        <v>1.5</v>
+      </c>
+      <c r="AT236">
+        <v>1.3</v>
+      </c>
+      <c r="AU236">
+        <v>1.67</v>
+      </c>
+      <c r="AV236">
+        <v>1.38</v>
+      </c>
+      <c r="AW236">
+        <v>3.05</v>
+      </c>
+      <c r="AX236">
+        <v>1.55</v>
+      </c>
+      <c r="AY236">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ236">
+        <v>2.78</v>
+      </c>
+      <c r="BA236">
+        <v>1.25</v>
+      </c>
+      <c r="BB236">
+        <v>1.52</v>
+      </c>
+      <c r="BC236">
+        <v>1.85</v>
+      </c>
+      <c r="BD236">
+        <v>2.31</v>
+      </c>
+      <c r="BE236">
+        <v>3.2</v>
+      </c>
+      <c r="BF236">
+        <v>6</v>
+      </c>
+      <c r="BG236">
+        <v>6</v>
+      </c>
+      <c r="BH236">
+        <v>5</v>
+      </c>
+      <c r="BI236">
+        <v>3</v>
+      </c>
+      <c r="BJ236">
+        <v>11</v>
+      </c>
+      <c r="BK236">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:63">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>5094246</v>
+      </c>
+      <c r="C237" t="s">
+        <v>63</v>
+      </c>
+      <c r="D237" t="s">
+        <v>64</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45129.89583333334</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237" t="s">
+        <v>65</v>
+      </c>
+      <c r="H237" t="s">
+        <v>74</v>
+      </c>
+      <c r="I237">
+        <v>3</v>
+      </c>
+      <c r="J237">
+        <v>3</v>
+      </c>
+      <c r="K237">
+        <v>6</v>
+      </c>
+      <c r="L237">
+        <v>3</v>
+      </c>
+      <c r="M237">
+        <v>4</v>
+      </c>
+      <c r="N237">
+        <v>7</v>
+      </c>
+      <c r="O237" t="s">
+        <v>239</v>
+      </c>
+      <c r="P237" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q237">
+        <v>4</v>
+      </c>
+      <c r="R237">
+        <v>0</v>
+      </c>
+      <c r="S237">
+        <v>4</v>
+      </c>
+      <c r="T237">
+        <v>2.2</v>
+      </c>
+      <c r="U237">
+        <v>2.38</v>
+      </c>
+      <c r="V237">
+        <v>4.33</v>
+      </c>
+      <c r="W237">
+        <v>1.33</v>
+      </c>
+      <c r="X237">
+        <v>3.25</v>
+      </c>
+      <c r="Y237">
+        <v>2.5</v>
+      </c>
+      <c r="Z237">
+        <v>1.5</v>
+      </c>
+      <c r="AA237">
+        <v>5.5</v>
+      </c>
+      <c r="AB237">
+        <v>1.13</v>
+      </c>
+      <c r="AC237">
+        <v>1.52</v>
+      </c>
+      <c r="AD237">
+        <v>4.45</v>
+      </c>
+      <c r="AE237">
+        <v>4.2</v>
+      </c>
+      <c r="AF237">
+        <v>1.03</v>
+      </c>
+      <c r="AG237">
+        <v>9</v>
+      </c>
+      <c r="AH237">
+        <v>1.17</v>
+      </c>
+      <c r="AI237">
+        <v>4.3</v>
+      </c>
+      <c r="AJ237">
+        <v>1.55</v>
+      </c>
+      <c r="AK237">
+        <v>2.05</v>
+      </c>
+      <c r="AL237">
+        <v>1.8</v>
+      </c>
+      <c r="AM237">
+        <v>1.91</v>
+      </c>
+      <c r="AN237">
+        <v>1.15</v>
+      </c>
+      <c r="AO237">
+        <v>1.17</v>
+      </c>
+      <c r="AP237">
+        <v>2.1</v>
+      </c>
+      <c r="AQ237">
+        <v>1.5</v>
+      </c>
+      <c r="AR237">
+        <v>1.1</v>
+      </c>
+      <c r="AS237">
+        <v>1.36</v>
+      </c>
+      <c r="AT237">
+        <v>1.27</v>
+      </c>
+      <c r="AU237">
+        <v>1.53</v>
+      </c>
+      <c r="AV237">
+        <v>1.2</v>
+      </c>
+      <c r="AW237">
+        <v>2.73</v>
+      </c>
+      <c r="AX237">
+        <v>1.5</v>
+      </c>
+      <c r="AY237">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ237">
+        <v>2.96</v>
+      </c>
+      <c r="BA237">
+        <v>1.31</v>
+      </c>
+      <c r="BB237">
+        <v>1.61</v>
+      </c>
+      <c r="BC237">
+        <v>1.98</v>
+      </c>
+      <c r="BD237">
+        <v>2.51</v>
+      </c>
+      <c r="BE237">
+        <v>3.65</v>
+      </c>
+      <c r="BF237">
+        <v>5</v>
+      </c>
+      <c r="BG237">
+        <v>4</v>
+      </c>
+      <c r="BH237">
+        <v>2</v>
+      </c>
+      <c r="BI237">
+        <v>4</v>
+      </c>
+      <c r="BJ237">
+        <v>7</v>
+      </c>
+      <c r="BK237">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:63">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>5094241</v>
+      </c>
+      <c r="C238" t="s">
+        <v>63</v>
+      </c>
+      <c r="D238" t="s">
+        <v>64</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45129.9</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238" t="s">
+        <v>82</v>
+      </c>
+      <c r="H238" t="s">
+        <v>72</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>1</v>
+      </c>
+      <c r="O238" t="s">
+        <v>240</v>
+      </c>
+      <c r="P238" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q238">
+        <v>5</v>
+      </c>
+      <c r="R238">
+        <v>3</v>
+      </c>
+      <c r="S238">
+        <v>8</v>
+      </c>
+      <c r="T238">
+        <v>3</v>
+      </c>
+      <c r="U238">
+        <v>2.15</v>
+      </c>
+      <c r="V238">
+        <v>3.1</v>
+      </c>
+      <c r="W238">
+        <v>1.36</v>
+      </c>
+      <c r="X238">
+        <v>3</v>
+      </c>
+      <c r="Y238">
+        <v>2.62</v>
+      </c>
+      <c r="Z238">
+        <v>1.44</v>
+      </c>
+      <c r="AA238">
+        <v>6.5</v>
+      </c>
+      <c r="AB238">
+        <v>1.1</v>
+      </c>
+      <c r="AC238">
+        <v>2.45</v>
+      </c>
+      <c r="AD238">
+        <v>3.2</v>
+      </c>
+      <c r="AE238">
+        <v>2.5</v>
+      </c>
+      <c r="AF238">
+        <v>1.05</v>
+      </c>
+      <c r="AG238">
+        <v>9</v>
+      </c>
+      <c r="AH238">
+        <v>1.29</v>
+      </c>
+      <c r="AI238">
+        <v>3.5</v>
+      </c>
+      <c r="AJ238">
+        <v>1.89</v>
+      </c>
+      <c r="AK238">
+        <v>1.89</v>
+      </c>
+      <c r="AL238">
+        <v>1.7</v>
+      </c>
+      <c r="AM238">
+        <v>2.05</v>
+      </c>
+      <c r="AN238">
+        <v>1.44</v>
+      </c>
+      <c r="AO238">
+        <v>1.3</v>
+      </c>
+      <c r="AP238">
+        <v>1.5</v>
+      </c>
+      <c r="AQ238">
+        <v>1.22</v>
+      </c>
+      <c r="AR238">
+        <v>1.22</v>
+      </c>
+      <c r="AS238">
+        <v>1.4</v>
+      </c>
+      <c r="AT238">
+        <v>1.1</v>
+      </c>
+      <c r="AU238">
+        <v>1.15</v>
+      </c>
+      <c r="AV238">
+        <v>1.09</v>
+      </c>
+      <c r="AW238">
+        <v>2.24</v>
+      </c>
+      <c r="AX238">
+        <v>1.74</v>
+      </c>
+      <c r="AY238">
+        <v>8</v>
+      </c>
+      <c r="AZ238">
+        <v>2.39</v>
+      </c>
+      <c r="BA238">
+        <v>1.51</v>
+      </c>
+      <c r="BB238">
+        <v>1.85</v>
+      </c>
+      <c r="BC238">
+        <v>2.34</v>
+      </c>
+      <c r="BD238">
+        <v>3</v>
+      </c>
+      <c r="BE238">
+        <v>4.2</v>
+      </c>
+      <c r="BF238">
+        <v>6</v>
+      </c>
+      <c r="BG238">
+        <v>0</v>
+      </c>
+      <c r="BH238">
+        <v>7</v>
+      </c>
+      <c r="BI238">
+        <v>5</v>
+      </c>
+      <c r="BJ238">
+        <v>13</v>
+      </c>
+      <c r="BK238">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:63">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>5094249</v>
+      </c>
+      <c r="C239" t="s">
+        <v>63</v>
+      </c>
+      <c r="D239" t="s">
+        <v>64</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45129.91666666666</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239" t="s">
+        <v>70</v>
+      </c>
+      <c r="H239" t="s">
+        <v>66</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239">
+        <v>1</v>
+      </c>
+      <c r="N239">
+        <v>1</v>
+      </c>
+      <c r="O239" t="s">
+        <v>95</v>
+      </c>
+      <c r="P239" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q239">
+        <v>6</v>
+      </c>
+      <c r="R239">
+        <v>1</v>
+      </c>
+      <c r="S239">
+        <v>7</v>
+      </c>
+      <c r="T239">
+        <v>0</v>
+      </c>
+      <c r="U239">
+        <v>0</v>
+      </c>
+      <c r="V239">
+        <v>0</v>
+      </c>
+      <c r="W239">
+        <v>0</v>
+      </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
+      <c r="Z239">
+        <v>0</v>
+      </c>
+      <c r="AA239">
+        <v>0</v>
+      </c>
+      <c r="AB239">
+        <v>0</v>
+      </c>
+      <c r="AC239">
+        <v>1.67</v>
+      </c>
+      <c r="AD239">
+        <v>3.5</v>
+      </c>
+      <c r="AE239">
+        <v>4.25</v>
+      </c>
+      <c r="AF239">
+        <v>0</v>
+      </c>
+      <c r="AG239">
+        <v>0</v>
+      </c>
+      <c r="AH239">
+        <v>0</v>
+      </c>
+      <c r="AI239">
+        <v>0</v>
+      </c>
+      <c r="AJ239">
+        <v>1.89</v>
+      </c>
+      <c r="AK239">
+        <v>1.89</v>
+      </c>
+      <c r="AL239">
+        <v>0</v>
+      </c>
+      <c r="AM239">
+        <v>0</v>
+      </c>
+      <c r="AN239">
+        <v>0</v>
+      </c>
+      <c r="AO239">
+        <v>0</v>
+      </c>
+      <c r="AP239">
+        <v>0</v>
+      </c>
+      <c r="AQ239">
+        <v>1.89</v>
+      </c>
+      <c r="AR239">
+        <v>0.33</v>
+      </c>
+      <c r="AS239">
+        <v>1.7</v>
+      </c>
+      <c r="AT239">
+        <v>0.6</v>
+      </c>
+      <c r="AU239">
+        <v>1.63</v>
+      </c>
+      <c r="AV239">
+        <v>1.09</v>
+      </c>
+      <c r="AW239">
+        <v>2.72</v>
+      </c>
+      <c r="AX239">
+        <v>0</v>
+      </c>
+      <c r="AY239">
+        <v>0</v>
+      </c>
+      <c r="AZ239">
+        <v>0</v>
+      </c>
+      <c r="BA239">
+        <v>0</v>
+      </c>
+      <c r="BB239">
+        <v>0</v>
+      </c>
+      <c r="BC239">
+        <v>0</v>
+      </c>
+      <c r="BD239">
+        <v>0</v>
+      </c>
+      <c r="BE239">
+        <v>0</v>
+      </c>
+      <c r="BF239">
+        <v>7</v>
+      </c>
+      <c r="BG239">
+        <v>4</v>
+      </c>
+      <c r="BH239">
+        <v>11</v>
+      </c>
+      <c r="BI239">
+        <v>4</v>
+      </c>
+      <c r="BJ239">
+        <v>18</v>
+      </c>
+      <c r="BK239">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:63">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>5094247</v>
+      </c>
+      <c r="C240" t="s">
+        <v>63</v>
+      </c>
+      <c r="D240" t="s">
+        <v>64</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45129.91666666666</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240" t="s">
+        <v>87</v>
+      </c>
+      <c r="H240" t="s">
+        <v>77</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+      <c r="L240">
+        <v>3</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>3</v>
+      </c>
+      <c r="O240" t="s">
+        <v>241</v>
+      </c>
+      <c r="P240" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q240">
+        <v>4</v>
+      </c>
+      <c r="R240">
+        <v>6</v>
+      </c>
+      <c r="S240">
+        <v>10</v>
+      </c>
+      <c r="T240">
+        <v>3.2</v>
+      </c>
+      <c r="U240">
+        <v>2.1</v>
+      </c>
+      <c r="V240">
+        <v>3</v>
+      </c>
+      <c r="W240">
+        <v>1.4</v>
+      </c>
+      <c r="X240">
+        <v>2.75</v>
+      </c>
+      <c r="Y240">
+        <v>2.75</v>
+      </c>
+      <c r="Z240">
+        <v>1.4</v>
+      </c>
+      <c r="AA240">
+        <v>7</v>
+      </c>
+      <c r="AB240">
+        <v>1.08</v>
+      </c>
+      <c r="AC240">
+        <v>2.45</v>
+      </c>
+      <c r="AD240">
+        <v>3.2</v>
+      </c>
+      <c r="AE240">
+        <v>2.5</v>
+      </c>
+      <c r="AF240">
+        <v>1.06</v>
+      </c>
+      <c r="AG240">
+        <v>7.5</v>
+      </c>
+      <c r="AH240">
+        <v>1.28</v>
+      </c>
+      <c r="AI240">
+        <v>3.3</v>
+      </c>
+      <c r="AJ240">
+        <v>1.89</v>
+      </c>
+      <c r="AK240">
+        <v>1.89</v>
+      </c>
+      <c r="AL240">
+        <v>1.83</v>
+      </c>
+      <c r="AM240">
+        <v>1.83</v>
+      </c>
+      <c r="AN240">
+        <v>1.52</v>
+      </c>
+      <c r="AO240">
+        <v>1.25</v>
+      </c>
+      <c r="AP240">
+        <v>1.35</v>
+      </c>
+      <c r="AQ240">
+        <v>1.75</v>
+      </c>
+      <c r="AR240">
+        <v>1.38</v>
+      </c>
+      <c r="AS240">
+        <v>1.89</v>
+      </c>
+      <c r="AT240">
+        <v>1.22</v>
+      </c>
+      <c r="AU240">
+        <v>1.26</v>
+      </c>
+      <c r="AV240">
+        <v>1.37</v>
+      </c>
+      <c r="AW240">
+        <v>2.63</v>
+      </c>
+      <c r="AX240">
+        <v>2.3</v>
+      </c>
+      <c r="AY240">
+        <v>8</v>
+      </c>
+      <c r="AZ240">
+        <v>1.79</v>
+      </c>
+      <c r="BA240">
+        <v>1.47</v>
+      </c>
+      <c r="BB240">
+        <v>1.79</v>
+      </c>
+      <c r="BC240">
+        <v>2.26</v>
+      </c>
+      <c r="BD240">
+        <v>3.2</v>
+      </c>
+      <c r="BE240">
+        <v>4.6</v>
+      </c>
+      <c r="BF240">
+        <v>7</v>
+      </c>
+      <c r="BG240">
+        <v>5</v>
+      </c>
+      <c r="BH240">
+        <v>8</v>
+      </c>
+      <c r="BI240">
+        <v>6</v>
+      </c>
+      <c r="BJ240">
+        <v>15</v>
+      </c>
+      <c r="BK240">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:63">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>5094242</v>
+      </c>
+      <c r="C241" t="s">
+        <v>63</v>
+      </c>
+      <c r="D241" t="s">
+        <v>64</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45129.9375</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241" t="s">
+        <v>71</v>
+      </c>
+      <c r="H241" t="s">
+        <v>85</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>1</v>
+      </c>
+      <c r="M241">
+        <v>3</v>
+      </c>
+      <c r="N241">
+        <v>4</v>
+      </c>
+      <c r="O241" t="s">
+        <v>100</v>
+      </c>
+      <c r="P241" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q241">
+        <v>2</v>
+      </c>
+      <c r="R241">
+        <v>4</v>
+      </c>
+      <c r="S241">
+        <v>6</v>
+      </c>
+      <c r="T241">
+        <v>2.3</v>
+      </c>
+      <c r="U241">
+        <v>2.2</v>
+      </c>
+      <c r="V241">
+        <v>4.33</v>
+      </c>
+      <c r="W241">
+        <v>1.38</v>
+      </c>
+      <c r="X241">
+        <v>2.81</v>
+      </c>
+      <c r="Y241">
+        <v>2.75</v>
+      </c>
+      <c r="Z241">
+        <v>1.4</v>
+      </c>
+      <c r="AA241">
+        <v>6.85</v>
+      </c>
+      <c r="AB241">
+        <v>1.07</v>
+      </c>
+      <c r="AC241">
+        <v>1.7</v>
+      </c>
+      <c r="AD241">
+        <v>3.55</v>
+      </c>
+      <c r="AE241">
+        <v>4</v>
+      </c>
+      <c r="AF241">
+        <v>1.04</v>
+      </c>
+      <c r="AG241">
+        <v>12</v>
+      </c>
+      <c r="AH241">
+        <v>1.28</v>
+      </c>
+      <c r="AI241">
+        <v>3.5</v>
+      </c>
+      <c r="AJ241">
+        <v>1.9</v>
+      </c>
+      <c r="AK241">
+        <v>1.88</v>
+      </c>
+      <c r="AL241">
+        <v>1.82</v>
+      </c>
+      <c r="AM241">
+        <v>1.88</v>
+      </c>
+      <c r="AN241">
+        <v>1.16</v>
+      </c>
+      <c r="AO241">
+        <v>1.2</v>
+      </c>
+      <c r="AP241">
+        <v>2.05</v>
+      </c>
+      <c r="AQ241">
+        <v>1.27</v>
+      </c>
+      <c r="AR241">
+        <v>1.4</v>
+      </c>
+      <c r="AS241">
+        <v>1.17</v>
+      </c>
+      <c r="AT241">
+        <v>1.55</v>
+      </c>
+      <c r="AU241">
+        <v>1.48</v>
+      </c>
+      <c r="AV241">
+        <v>1.52</v>
+      </c>
+      <c r="AW241">
+        <v>3</v>
+      </c>
+      <c r="AX241">
+        <v>1.64</v>
+      </c>
+      <c r="AY241">
+        <v>8.6</v>
+      </c>
+      <c r="AZ241">
+        <v>2.55</v>
+      </c>
+      <c r="BA241">
+        <v>1.26</v>
+      </c>
+      <c r="BB241">
+        <v>1.56</v>
+      </c>
+      <c r="BC241">
+        <v>1.92</v>
+      </c>
+      <c r="BD241">
+        <v>2.41</v>
+      </c>
+      <c r="BE241">
+        <v>3.28</v>
+      </c>
+      <c r="BF241">
+        <v>7</v>
+      </c>
+      <c r="BG241">
+        <v>8</v>
+      </c>
+      <c r="BH241">
+        <v>5</v>
+      </c>
+      <c r="BI241">
+        <v>1</v>
+      </c>
+      <c r="BJ241">
+        <v>12</v>
+      </c>
+      <c r="BK241">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:63">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>5094248</v>
+      </c>
+      <c r="C242" t="s">
+        <v>63</v>
+      </c>
+      <c r="D242" t="s">
+        <v>64</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45129.97916666666</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242" t="s">
+        <v>86</v>
+      </c>
+      <c r="H242" t="s">
+        <v>76</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="K242">
+        <v>1</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="M242">
+        <v>1</v>
+      </c>
+      <c r="N242">
+        <v>2</v>
+      </c>
+      <c r="O242" t="s">
+        <v>242</v>
+      </c>
+      <c r="P242" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q242">
+        <v>12</v>
+      </c>
+      <c r="R242">
+        <v>4</v>
+      </c>
+      <c r="S242">
+        <v>16</v>
+      </c>
+      <c r="T242">
+        <v>2.45</v>
+      </c>
+      <c r="U242">
+        <v>2.15</v>
+      </c>
+      <c r="V242">
+        <v>4</v>
+      </c>
+      <c r="W242">
+        <v>1.37</v>
+      </c>
+      <c r="X242">
+        <v>2.85</v>
+      </c>
+      <c r="Y242">
+        <v>2.73</v>
+      </c>
+      <c r="Z242">
+        <v>1.4</v>
+      </c>
+      <c r="AA242">
+        <v>6.75</v>
+      </c>
+      <c r="AB242">
+        <v>1.07</v>
+      </c>
+      <c r="AC242">
+        <v>1.73</v>
+      </c>
+      <c r="AD242">
+        <v>3.6</v>
+      </c>
+      <c r="AE242">
+        <v>3.8</v>
+      </c>
+      <c r="AF242">
+        <v>1.02</v>
+      </c>
+      <c r="AG242">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH242">
+        <v>1.28</v>
+      </c>
+      <c r="AI242">
+        <v>3.5</v>
+      </c>
+      <c r="AJ242">
+        <v>1.9</v>
+      </c>
+      <c r="AK242">
+        <v>1.88</v>
+      </c>
+      <c r="AL242">
+        <v>1.75</v>
+      </c>
+      <c r="AM242">
+        <v>2</v>
+      </c>
+      <c r="AN242">
+        <v>1.2</v>
+      </c>
+      <c r="AO242">
+        <v>1.22</v>
+      </c>
+      <c r="AP242">
+        <v>1.85</v>
+      </c>
+      <c r="AQ242">
+        <v>1.63</v>
+      </c>
+      <c r="AR242">
+        <v>0.9</v>
+      </c>
+      <c r="AS242">
+        <v>1.56</v>
+      </c>
+      <c r="AT242">
+        <v>0.91</v>
+      </c>
+      <c r="AU242">
+        <v>1.7</v>
+      </c>
+      <c r="AV242">
+        <v>1.37</v>
+      </c>
+      <c r="AW242">
+        <v>3.07</v>
+      </c>
+      <c r="AX242">
+        <v>1.53</v>
+      </c>
+      <c r="AY242">
+        <v>9.1</v>
+      </c>
+      <c r="AZ242">
+        <v>2.82</v>
+      </c>
+      <c r="BA242">
+        <v>1.18</v>
+      </c>
+      <c r="BB242">
+        <v>1.36</v>
+      </c>
+      <c r="BC242">
+        <v>1.64</v>
+      </c>
+      <c r="BD242">
+        <v>2.05</v>
+      </c>
+      <c r="BE242">
+        <v>2.71</v>
+      </c>
+      <c r="BF242">
+        <v>3</v>
+      </c>
+      <c r="BG242">
+        <v>5</v>
+      </c>
+      <c r="BH242">
+        <v>6</v>
+      </c>
+      <c r="BI242">
+        <v>7</v>
+      </c>
+      <c r="BJ242">
+        <v>9</v>
+      </c>
+      <c r="BK242">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="1:63">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>5094244</v>
+      </c>
+      <c r="C243" t="s">
+        <v>63</v>
+      </c>
+      <c r="D243" t="s">
+        <v>64</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45129.97916666666</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243" t="s">
+        <v>88</v>
+      </c>
+      <c r="H243" t="s">
+        <v>80</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>1</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+      <c r="L243">
+        <v>0</v>
+      </c>
+      <c r="M243">
+        <v>2</v>
+      </c>
+      <c r="N243">
+        <v>2</v>
+      </c>
+      <c r="O243" t="s">
+        <v>95</v>
+      </c>
+      <c r="P243" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q243">
+        <v>15</v>
+      </c>
+      <c r="R243">
+        <v>4</v>
+      </c>
+      <c r="S243">
+        <v>19</v>
+      </c>
+      <c r="T243">
+        <v>2.5</v>
+      </c>
+      <c r="U243">
+        <v>2.15</v>
+      </c>
+      <c r="V243">
+        <v>4</v>
+      </c>
+      <c r="W243">
+        <v>1.37</v>
+      </c>
+      <c r="X243">
+        <v>2.85</v>
+      </c>
+      <c r="Y243">
+        <v>2.75</v>
+      </c>
+      <c r="Z243">
+        <v>1.4</v>
+      </c>
+      <c r="AA243">
+        <v>6.75</v>
+      </c>
+      <c r="AB243">
+        <v>1.07</v>
+      </c>
+      <c r="AC243">
+        <v>1.86</v>
+      </c>
+      <c r="AD243">
+        <v>3.35</v>
+      </c>
+      <c r="AE243">
+        <v>3.5</v>
+      </c>
+      <c r="AF243">
+        <v>1.02</v>
+      </c>
+      <c r="AG243">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH243">
+        <v>1.28</v>
+      </c>
+      <c r="AI243">
+        <v>3.5</v>
+      </c>
+      <c r="AJ243">
+        <v>1.9</v>
+      </c>
+      <c r="AK243">
+        <v>1.88</v>
+      </c>
+      <c r="AL243">
+        <v>1.75</v>
+      </c>
+      <c r="AM243">
+        <v>2</v>
+      </c>
+      <c r="AN243">
+        <v>1.22</v>
+      </c>
+      <c r="AO243">
+        <v>1.22</v>
+      </c>
+      <c r="AP243">
+        <v>1.83</v>
+      </c>
+      <c r="AQ243">
+        <v>0.43</v>
+      </c>
+      <c r="AR243">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS243">
+        <v>0.38</v>
+      </c>
+      <c r="AT243">
+        <v>0.8</v>
+      </c>
+      <c r="AU243">
+        <v>2.04</v>
+      </c>
+      <c r="AV243">
+        <v>1.35</v>
+      </c>
+      <c r="AW243">
+        <v>3.39</v>
+      </c>
+      <c r="AX243">
+        <v>1.39</v>
+      </c>
+      <c r="AY243">
+        <v>9.9</v>
+      </c>
+      <c r="AZ243">
+        <v>3.36</v>
+      </c>
+      <c r="BA243">
+        <v>1.14</v>
+      </c>
+      <c r="BB243">
+        <v>1.28</v>
+      </c>
+      <c r="BC243">
+        <v>1.51</v>
+      </c>
+      <c r="BD243">
+        <v>1.85</v>
+      </c>
+      <c r="BE243">
+        <v>2.38</v>
+      </c>
+      <c r="BF243">
+        <v>9</v>
+      </c>
+      <c r="BG243">
+        <v>6</v>
+      </c>
+      <c r="BH243">
+        <v>9</v>
+      </c>
+      <c r="BI243">
+        <v>5</v>
+      </c>
+      <c r="BJ243">
+        <v>18</v>
+      </c>
+      <c r="BK243">
         <v>11</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA USL Championship_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="350">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -745,6 +745,9 @@
     <t>['90']</t>
   </si>
   <si>
+    <t>['20', '28', '38', '43']</t>
+  </si>
+  <si>
     <t>['8', '11', '90+4']</t>
   </si>
   <si>
@@ -1058,6 +1061,9 @@
   </si>
   <si>
     <t>['23', '81']</t>
+  </si>
+  <si>
+    <t>['13', '35', '73']</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK243"/>
+  <dimension ref="A1:BK246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1663,7 +1669,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -2135,7 +2141,7 @@
         <v>2</v>
       </c>
       <c r="AT4">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2236,7 +2242,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2326,7 +2332,7 @@
         <v>1.64</v>
       </c>
       <c r="AT5">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2427,7 +2433,7 @@
         <v>93</v>
       </c>
       <c r="P6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -3000,7 +3006,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3382,7 +3388,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3573,7 +3579,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3663,7 +3669,7 @@
         <v>1.1</v>
       </c>
       <c r="AT12">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3764,7 +3770,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3955,7 +3961,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -4146,7 +4152,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4528,7 +4534,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4719,7 +4725,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4997,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT19">
         <v>1.8</v>
@@ -5764,7 +5770,7 @@
         <v>1.75</v>
       </c>
       <c r="AT23">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU23">
         <v>1.2</v>
@@ -6143,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT25">
         <v>0.6</v>
@@ -6247,7 +6253,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6629,7 +6635,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6820,7 +6826,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6910,7 +6916,7 @@
         <v>1.4</v>
       </c>
       <c r="AT29">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -7584,7 +7590,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7674,7 +7680,7 @@
         <v>1.4</v>
       </c>
       <c r="AT33">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU33">
         <v>1.52</v>
@@ -7862,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT34">
         <v>1.45</v>
@@ -8157,7 +8163,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -9202,7 +9208,7 @@
         <v>0.82</v>
       </c>
       <c r="AT41">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -9303,7 +9309,7 @@
         <v>95</v>
       </c>
       <c r="P42" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9494,7 +9500,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9772,7 +9778,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT44">
         <v>1.1</v>
@@ -9963,7 +9969,7 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT45">
         <v>1.4</v>
@@ -10067,7 +10073,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10449,7 +10455,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10640,7 +10646,7 @@
         <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -11022,7 +11028,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11786,7 +11792,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11977,7 +11983,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -12067,7 +12073,7 @@
         <v>1.78</v>
       </c>
       <c r="AT56">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU56">
         <v>0</v>
@@ -12168,7 +12174,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -12359,7 +12365,7 @@
         <v>108</v>
       </c>
       <c r="P58" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -13019,7 +13025,7 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT61">
         <v>1.3</v>
@@ -13314,7 +13320,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13404,7 +13410,7 @@
         <v>1.36</v>
       </c>
       <c r="AT63">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU63">
         <v>0</v>
@@ -13505,7 +13511,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13696,7 +13702,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q65">
         <v>13</v>
@@ -13783,7 +13789,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT65">
         <v>0.8</v>
@@ -13977,7 +13983,7 @@
         <v>1.4</v>
       </c>
       <c r="AT66">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU66">
         <v>1.37</v>
@@ -14356,7 +14362,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT68">
         <v>0.91</v>
@@ -14460,7 +14466,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14842,7 +14848,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15123,7 +15129,7 @@
         <v>1.7</v>
       </c>
       <c r="AT72">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU72">
         <v>1.39</v>
@@ -15224,7 +15230,7 @@
         <v>95</v>
       </c>
       <c r="P73" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15606,7 +15612,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15884,7 +15890,7 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT76">
         <v>0.75</v>
@@ -16269,7 +16275,7 @@
         <v>1.27</v>
       </c>
       <c r="AT78">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU78">
         <v>1.3</v>
@@ -16561,7 +16567,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16943,7 +16949,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17134,7 +17140,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17516,7 +17522,7 @@
         <v>97</v>
       </c>
       <c r="P85" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17606,7 +17612,7 @@
         <v>1.7</v>
       </c>
       <c r="AT85">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU85">
         <v>1.61</v>
@@ -18176,7 +18182,7 @@
         <v>0.5</v>
       </c>
       <c r="AS88">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT88">
         <v>0.6</v>
@@ -18280,7 +18286,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18471,7 +18477,7 @@
         <v>149</v>
       </c>
       <c r="P90" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18662,7 +18668,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18853,7 +18859,7 @@
         <v>151</v>
       </c>
       <c r="P92" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -19044,7 +19050,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19235,7 +19241,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19426,7 +19432,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19808,7 +19814,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19898,7 +19904,7 @@
         <v>1.18</v>
       </c>
       <c r="AT97">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU97">
         <v>1.94</v>
@@ -19999,7 +20005,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q98">
         <v>9</v>
@@ -20190,7 +20196,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20381,7 +20387,7 @@
         <v>156</v>
       </c>
       <c r="P100" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20662,7 +20668,7 @@
         <v>2</v>
       </c>
       <c r="AT101">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU101">
         <v>1.2</v>
@@ -20763,7 +20769,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20954,7 +20960,7 @@
         <v>126</v>
       </c>
       <c r="P103" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -21145,7 +21151,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21423,7 +21429,7 @@
         <v>1.8</v>
       </c>
       <c r="AS105">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT105">
         <v>1.3</v>
@@ -21527,7 +21533,7 @@
         <v>95</v>
       </c>
       <c r="P106" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -22482,7 +22488,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22760,10 +22766,10 @@
         <v>1.75</v>
       </c>
       <c r="AS112">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT112">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU112">
         <v>1.3</v>
@@ -22864,7 +22870,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -23333,7 +23339,7 @@
         <v>0.33</v>
       </c>
       <c r="AS115">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT115">
         <v>1.27</v>
@@ -23437,7 +23443,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23819,7 +23825,7 @@
         <v>112</v>
       </c>
       <c r="P118" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q118">
         <v>10</v>
@@ -24201,7 +24207,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24392,7 +24398,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24479,10 +24485,10 @@
         <v>0.83</v>
       </c>
       <c r="AS121">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT121">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU121">
         <v>1.65</v>
@@ -25156,7 +25162,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25347,7 +25353,7 @@
         <v>95</v>
       </c>
       <c r="P126" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25628,7 +25634,7 @@
         <v>1.4</v>
       </c>
       <c r="AT127">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU127">
         <v>1.44</v>
@@ -25729,7 +25735,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25816,7 +25822,7 @@
         <v>1.4</v>
       </c>
       <c r="AS128">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT128">
         <v>1.55</v>
@@ -25920,7 +25926,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -26111,7 +26117,7 @@
         <v>131</v>
       </c>
       <c r="P130" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26302,7 +26308,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26392,7 +26398,7 @@
         <v>1.56</v>
       </c>
       <c r="AT131">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU131">
         <v>1.58</v>
@@ -26684,7 +26690,7 @@
         <v>95</v>
       </c>
       <c r="P133" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -27066,7 +27072,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27257,7 +27263,7 @@
         <v>95</v>
       </c>
       <c r="P136" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27726,7 +27732,7 @@
         <v>1.6</v>
       </c>
       <c r="AS138">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT138">
         <v>1.45</v>
@@ -27830,7 +27836,7 @@
         <v>95</v>
       </c>
       <c r="P139" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q139">
         <v>6</v>
@@ -28212,7 +28218,7 @@
         <v>95</v>
       </c>
       <c r="P141" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28302,7 +28308,7 @@
         <v>1.64</v>
       </c>
       <c r="AT141">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU141">
         <v>1.27</v>
@@ -28403,7 +28409,7 @@
         <v>95</v>
       </c>
       <c r="P142" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28872,10 +28878,10 @@
         <v>1.33</v>
       </c>
       <c r="AS144">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT144">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU144">
         <v>1.68</v>
@@ -28976,7 +28982,7 @@
         <v>183</v>
       </c>
       <c r="P145" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -29358,7 +29364,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29931,7 +29937,7 @@
         <v>187</v>
       </c>
       <c r="P150" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -30313,7 +30319,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30695,7 +30701,7 @@
         <v>109</v>
       </c>
       <c r="P154" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q154">
         <v>8</v>
@@ -30973,7 +30979,7 @@
         <v>2.6</v>
       </c>
       <c r="AS155">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT155">
         <v>1.8</v>
@@ -31077,7 +31083,7 @@
         <v>191</v>
       </c>
       <c r="P156" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31268,7 +31274,7 @@
         <v>192</v>
       </c>
       <c r="P157" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31459,7 +31465,7 @@
         <v>193</v>
       </c>
       <c r="P158" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31650,7 +31656,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -32032,7 +32038,7 @@
         <v>196</v>
       </c>
       <c r="P161" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -32223,7 +32229,7 @@
         <v>197</v>
       </c>
       <c r="P162" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -32414,7 +32420,7 @@
         <v>89</v>
       </c>
       <c r="P163" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32605,7 +32611,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -32695,7 +32701,7 @@
         <v>1.17</v>
       </c>
       <c r="AT164">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU164">
         <v>1.62</v>
@@ -32796,7 +32802,7 @@
         <v>199</v>
       </c>
       <c r="P165" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q165">
         <v>9</v>
@@ -32987,7 +32993,7 @@
         <v>200</v>
       </c>
       <c r="P166" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -33178,7 +33184,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33369,7 +33375,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33459,7 +33465,7 @@
         <v>1.78</v>
       </c>
       <c r="AT168">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU168">
         <v>1.38</v>
@@ -33560,7 +33566,7 @@
         <v>95</v>
       </c>
       <c r="P169" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33942,7 +33948,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34223,7 +34229,7 @@
         <v>1.9</v>
       </c>
       <c r="AT172">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU172">
         <v>1.56</v>
@@ -34602,7 +34608,7 @@
         <v>1.25</v>
       </c>
       <c r="AS174">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT174">
         <v>1.27</v>
@@ -34706,7 +34712,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q175">
         <v>8</v>
@@ -34897,7 +34903,7 @@
         <v>95</v>
       </c>
       <c r="P176" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q176">
         <v>11</v>
@@ -34984,7 +34990,7 @@
         <v>1.33</v>
       </c>
       <c r="AS176">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT176">
         <v>1.1</v>
@@ -35661,7 +35667,7 @@
         <v>208</v>
       </c>
       <c r="P180" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q180">
         <v>7</v>
@@ -35751,7 +35757,7 @@
         <v>1.89</v>
       </c>
       <c r="AT180">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU180">
         <v>1.17</v>
@@ -35939,7 +35945,7 @@
         <v>1.29</v>
       </c>
       <c r="AS181">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT181">
         <v>1.45</v>
@@ -36043,7 +36049,7 @@
         <v>95</v>
       </c>
       <c r="P182" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q182">
         <v>9</v>
@@ -36133,7 +36139,7 @@
         <v>0.5</v>
       </c>
       <c r="AT182">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU182">
         <v>1.37</v>
@@ -36234,7 +36240,7 @@
         <v>210</v>
       </c>
       <c r="P183" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36706,7 +36712,7 @@
         <v>1.5</v>
       </c>
       <c r="AT185">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU185">
         <v>1.83</v>
@@ -36807,7 +36813,7 @@
         <v>212</v>
       </c>
       <c r="P186" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -37189,7 +37195,7 @@
         <v>214</v>
       </c>
       <c r="P188" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q188">
         <v>1</v>
@@ -37276,10 +37282,10 @@
         <v>1.38</v>
       </c>
       <c r="AS188">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT188">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU188">
         <v>1.48</v>
@@ -37571,7 +37577,7 @@
         <v>215</v>
       </c>
       <c r="P190" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37658,7 +37664,7 @@
         <v>1.57</v>
       </c>
       <c r="AS190">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT190">
         <v>1.7</v>
@@ -37762,7 +37768,7 @@
         <v>95</v>
       </c>
       <c r="P191" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -37849,7 +37855,7 @@
         <v>1.33</v>
       </c>
       <c r="AS191">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT191">
         <v>1.3</v>
@@ -38144,7 +38150,7 @@
         <v>217</v>
       </c>
       <c r="P193" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q193">
         <v>1</v>
@@ -38335,7 +38341,7 @@
         <v>218</v>
       </c>
       <c r="P194" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38613,7 +38619,7 @@
         <v>1.63</v>
       </c>
       <c r="AS195">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT195">
         <v>1.4</v>
@@ -39481,7 +39487,7 @@
         <v>222</v>
       </c>
       <c r="P200" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q200">
         <v>10</v>
@@ -39950,7 +39956,7 @@
         <v>1.57</v>
       </c>
       <c r="AS202">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT202">
         <v>1.3</v>
@@ -40245,7 +40251,7 @@
         <v>225</v>
       </c>
       <c r="P204" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q204">
         <v>7</v>
@@ -40627,7 +40633,7 @@
         <v>95</v>
       </c>
       <c r="P206" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -40818,7 +40824,7 @@
         <v>95</v>
       </c>
       <c r="P207" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q207">
         <v>2</v>
@@ -41287,7 +41293,7 @@
         <v>1.43</v>
       </c>
       <c r="AS209">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT209">
         <v>1.22</v>
@@ -41391,7 +41397,7 @@
         <v>227</v>
       </c>
       <c r="P210" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41481,7 +41487,7 @@
         <v>1.27</v>
       </c>
       <c r="AT210">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU210">
         <v>1.34</v>
@@ -42346,7 +42352,7 @@
         <v>230</v>
       </c>
       <c r="P215" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q215">
         <v>8</v>
@@ -42919,7 +42925,7 @@
         <v>128</v>
       </c>
       <c r="P218" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q218">
         <v>4</v>
@@ -43301,7 +43307,7 @@
         <v>178</v>
       </c>
       <c r="P220" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q220">
         <v>7</v>
@@ -43770,7 +43776,7 @@
         <v>2.17</v>
       </c>
       <c r="AS222">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT222">
         <v>1.88</v>
@@ -43874,7 +43880,7 @@
         <v>95</v>
       </c>
       <c r="P223" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q223">
         <v>4</v>
@@ -44152,7 +44158,7 @@
         <v>0.82</v>
       </c>
       <c r="AS224">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT224">
         <v>0.75</v>
@@ -44256,7 +44262,7 @@
         <v>112</v>
       </c>
       <c r="P225" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -44447,7 +44453,7 @@
         <v>97</v>
       </c>
       <c r="P226" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q226">
         <v>9</v>
@@ -44829,7 +44835,7 @@
         <v>234</v>
       </c>
       <c r="P228" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q228">
         <v>2</v>
@@ -45020,7 +45026,7 @@
         <v>103</v>
       </c>
       <c r="P229" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -45211,7 +45217,7 @@
         <v>178</v>
       </c>
       <c r="P230" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q230">
         <v>6</v>
@@ -45489,7 +45495,7 @@
         <v>2</v>
       </c>
       <c r="AS231">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT231">
         <v>1.88</v>
@@ -45784,7 +45790,7 @@
         <v>236</v>
       </c>
       <c r="P233" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q233">
         <v>5</v>
@@ -46357,7 +46363,7 @@
         <v>238</v>
       </c>
       <c r="P236" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q236">
         <v>7</v>
@@ -46548,7 +46554,7 @@
         <v>239</v>
       </c>
       <c r="P237" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q237">
         <v>4</v>
@@ -47312,7 +47318,7 @@
         <v>100</v>
       </c>
       <c r="P241" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q241">
         <v>2</v>
@@ -47694,7 +47700,7 @@
         <v>95</v>
       </c>
       <c r="P243" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q243">
         <v>15</v>
@@ -47836,6 +47842,579 @@
       </c>
       <c r="BK243">
         <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="1:63">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>5094251</v>
+      </c>
+      <c r="C244" t="s">
+        <v>63</v>
+      </c>
+      <c r="D244" t="s">
+        <v>64</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45133.83333333334</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244" t="s">
+        <v>79</v>
+      </c>
+      <c r="H244" t="s">
+        <v>84</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>2</v>
+      </c>
+      <c r="K244">
+        <v>2</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+      <c r="M244">
+        <v>3</v>
+      </c>
+      <c r="N244">
+        <v>4</v>
+      </c>
+      <c r="O244" t="s">
+        <v>164</v>
+      </c>
+      <c r="P244" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q244">
+        <v>6</v>
+      </c>
+      <c r="R244">
+        <v>3</v>
+      </c>
+      <c r="S244">
+        <v>9</v>
+      </c>
+      <c r="T244">
+        <v>2.1</v>
+      </c>
+      <c r="U244">
+        <v>2.2</v>
+      </c>
+      <c r="V244">
+        <v>5.5</v>
+      </c>
+      <c r="W244">
+        <v>1.36</v>
+      </c>
+      <c r="X244">
+        <v>2.88</v>
+      </c>
+      <c r="Y244">
+        <v>2.73</v>
+      </c>
+      <c r="Z244">
+        <v>1.4</v>
+      </c>
+      <c r="AA244">
+        <v>6.7</v>
+      </c>
+      <c r="AB244">
+        <v>1.07</v>
+      </c>
+      <c r="AC244">
+        <v>1.52</v>
+      </c>
+      <c r="AD244">
+        <v>3.63</v>
+      </c>
+      <c r="AE244">
+        <v>5.6</v>
+      </c>
+      <c r="AF244">
+        <v>1.05</v>
+      </c>
+      <c r="AG244">
+        <v>9</v>
+      </c>
+      <c r="AH244">
+        <v>1.29</v>
+      </c>
+      <c r="AI244">
+        <v>3.5</v>
+      </c>
+      <c r="AJ244">
+        <v>1.86</v>
+      </c>
+      <c r="AK244">
+        <v>1.85</v>
+      </c>
+      <c r="AL244">
+        <v>1.9</v>
+      </c>
+      <c r="AM244">
+        <v>1.8</v>
+      </c>
+      <c r="AN244">
+        <v>1.12</v>
+      </c>
+      <c r="AO244">
+        <v>1.21</v>
+      </c>
+      <c r="AP244">
+        <v>2.23</v>
+      </c>
+      <c r="AQ244">
+        <v>2.4</v>
+      </c>
+      <c r="AR244">
+        <v>1.63</v>
+      </c>
+      <c r="AS244">
+        <v>2.18</v>
+      </c>
+      <c r="AT244">
+        <v>1.78</v>
+      </c>
+      <c r="AU244">
+        <v>1.32</v>
+      </c>
+      <c r="AV244">
+        <v>1.21</v>
+      </c>
+      <c r="AW244">
+        <v>2.53</v>
+      </c>
+      <c r="AX244">
+        <v>1.43</v>
+      </c>
+      <c r="AY244">
+        <v>7.5</v>
+      </c>
+      <c r="AZ244">
+        <v>3.8</v>
+      </c>
+      <c r="BA244">
+        <v>1.51</v>
+      </c>
+      <c r="BB244">
+        <v>1.88</v>
+      </c>
+      <c r="BC244">
+        <v>2.35</v>
+      </c>
+      <c r="BD244">
+        <v>3.28</v>
+      </c>
+      <c r="BE244">
+        <v>0</v>
+      </c>
+      <c r="BF244">
+        <v>3</v>
+      </c>
+      <c r="BG244">
+        <v>5</v>
+      </c>
+      <c r="BH244">
+        <v>5</v>
+      </c>
+      <c r="BI244">
+        <v>1</v>
+      </c>
+      <c r="BJ244">
+        <v>8</v>
+      </c>
+      <c r="BK244">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:63">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>5094250</v>
+      </c>
+      <c r="C245" t="s">
+        <v>63</v>
+      </c>
+      <c r="D245" t="s">
+        <v>64</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45133.95833333334</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245" t="s">
+        <v>85</v>
+      </c>
+      <c r="H245" t="s">
+        <v>88</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>1</v>
+      </c>
+      <c r="O245" t="s">
+        <v>143</v>
+      </c>
+      <c r="P245" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q245">
+        <v>3</v>
+      </c>
+      <c r="R245">
+        <v>7</v>
+      </c>
+      <c r="S245">
+        <v>10</v>
+      </c>
+      <c r="T245">
+        <v>2.25</v>
+      </c>
+      <c r="U245">
+        <v>2.2</v>
+      </c>
+      <c r="V245">
+        <v>4.5</v>
+      </c>
+      <c r="W245">
+        <v>1.36</v>
+      </c>
+      <c r="X245">
+        <v>3</v>
+      </c>
+      <c r="Y245">
+        <v>2.75</v>
+      </c>
+      <c r="Z245">
+        <v>1.4</v>
+      </c>
+      <c r="AA245">
+        <v>6</v>
+      </c>
+      <c r="AB245">
+        <v>1.11</v>
+      </c>
+      <c r="AC245">
+        <v>1.59</v>
+      </c>
+      <c r="AD245">
+        <v>3.75</v>
+      </c>
+      <c r="AE245">
+        <v>4.68</v>
+      </c>
+      <c r="AF245">
+        <v>1.04</v>
+      </c>
+      <c r="AG245">
+        <v>12</v>
+      </c>
+      <c r="AH245">
+        <v>1.28</v>
+      </c>
+      <c r="AI245">
+        <v>3.5</v>
+      </c>
+      <c r="AJ245">
+        <v>1.86</v>
+      </c>
+      <c r="AK245">
+        <v>1.85</v>
+      </c>
+      <c r="AL245">
+        <v>1.88</v>
+      </c>
+      <c r="AM245">
+        <v>1.85</v>
+      </c>
+      <c r="AN245">
+        <v>1.15</v>
+      </c>
+      <c r="AO245">
+        <v>1.2</v>
+      </c>
+      <c r="AP245">
+        <v>2.1</v>
+      </c>
+      <c r="AQ245">
+        <v>1.44</v>
+      </c>
+      <c r="AR245">
+        <v>0.73</v>
+      </c>
+      <c r="AS245">
+        <v>1.6</v>
+      </c>
+      <c r="AT245">
+        <v>0.67</v>
+      </c>
+      <c r="AU245">
+        <v>1.36</v>
+      </c>
+      <c r="AV245">
+        <v>1.45</v>
+      </c>
+      <c r="AW245">
+        <v>2.81</v>
+      </c>
+      <c r="AX245">
+        <v>1.55</v>
+      </c>
+      <c r="AY245">
+        <v>8.5</v>
+      </c>
+      <c r="AZ245">
+        <v>2.91</v>
+      </c>
+      <c r="BA245">
+        <v>0</v>
+      </c>
+      <c r="BB245">
+        <v>1.36</v>
+      </c>
+      <c r="BC245">
+        <v>1.68</v>
+      </c>
+      <c r="BD245">
+        <v>2.07</v>
+      </c>
+      <c r="BE245">
+        <v>2.64</v>
+      </c>
+      <c r="BF245">
+        <v>5</v>
+      </c>
+      <c r="BG245">
+        <v>4</v>
+      </c>
+      <c r="BH245">
+        <v>3</v>
+      </c>
+      <c r="BI245">
+        <v>6</v>
+      </c>
+      <c r="BJ245">
+        <v>8</v>
+      </c>
+      <c r="BK245">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:63">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>5094252</v>
+      </c>
+      <c r="C246" t="s">
+        <v>63</v>
+      </c>
+      <c r="D246" t="s">
+        <v>64</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45134</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246" t="s">
+        <v>77</v>
+      </c>
+      <c r="H246" t="s">
+        <v>86</v>
+      </c>
+      <c r="I246">
+        <v>4</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>4</v>
+      </c>
+      <c r="L246">
+        <v>4</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>4</v>
+      </c>
+      <c r="O246" t="s">
+        <v>243</v>
+      </c>
+      <c r="P246" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q246">
+        <v>0</v>
+      </c>
+      <c r="R246">
+        <v>3</v>
+      </c>
+      <c r="S246">
+        <v>3</v>
+      </c>
+      <c r="T246">
+        <v>2.3</v>
+      </c>
+      <c r="U246">
+        <v>2.2</v>
+      </c>
+      <c r="V246">
+        <v>4.33</v>
+      </c>
+      <c r="W246">
+        <v>1.36</v>
+      </c>
+      <c r="X246">
+        <v>3</v>
+      </c>
+      <c r="Y246">
+        <v>2.75</v>
+      </c>
+      <c r="Z246">
+        <v>1.4</v>
+      </c>
+      <c r="AA246">
+        <v>6</v>
+      </c>
+      <c r="AB246">
+        <v>1.11</v>
+      </c>
+      <c r="AC246">
+        <v>1.72</v>
+      </c>
+      <c r="AD246">
+        <v>3.5</v>
+      </c>
+      <c r="AE246">
+        <v>4.15</v>
+      </c>
+      <c r="AF246">
+        <v>1.04</v>
+      </c>
+      <c r="AG246">
+        <v>12</v>
+      </c>
+      <c r="AH246">
+        <v>1.27</v>
+      </c>
+      <c r="AI246">
+        <v>3.4</v>
+      </c>
+      <c r="AJ246">
+        <v>1.86</v>
+      </c>
+      <c r="AK246">
+        <v>1.85</v>
+      </c>
+      <c r="AL246">
+        <v>1.8</v>
+      </c>
+      <c r="AM246">
+        <v>1.95</v>
+      </c>
+      <c r="AN246">
+        <v>1.17</v>
+      </c>
+      <c r="AO246">
+        <v>1.2</v>
+      </c>
+      <c r="AP246">
+        <v>2</v>
+      </c>
+      <c r="AQ246">
+        <v>2.18</v>
+      </c>
+      <c r="AR246">
+        <v>1.2</v>
+      </c>
+      <c r="AS246">
+        <v>2.25</v>
+      </c>
+      <c r="AT246">
+        <v>1.09</v>
+      </c>
+      <c r="AU246">
+        <v>1.5</v>
+      </c>
+      <c r="AV246">
+        <v>1.33</v>
+      </c>
+      <c r="AW246">
+        <v>2.83</v>
+      </c>
+      <c r="AX246">
+        <v>1.52</v>
+      </c>
+      <c r="AY246">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ246">
+        <v>2.85</v>
+      </c>
+      <c r="BA246">
+        <v>1.21</v>
+      </c>
+      <c r="BB246">
+        <v>1.4</v>
+      </c>
+      <c r="BC246">
+        <v>1.77</v>
+      </c>
+      <c r="BD246">
+        <v>2.19</v>
+      </c>
+      <c r="BE246">
+        <v>2.84</v>
+      </c>
+      <c r="BF246">
+        <v>10</v>
+      </c>
+      <c r="BG246">
+        <v>3</v>
+      </c>
+      <c r="BH246">
+        <v>1</v>
+      </c>
+      <c r="BI246">
+        <v>6</v>
+      </c>
+      <c r="BJ246">
+        <v>11</v>
+      </c>
+      <c r="BK246">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/USA USL Championship_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/USA USL Championship_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="365">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -748,6 +748,36 @@
     <t>['20', '28', '38', '43']</t>
   </si>
   <si>
+    <t>['41', '49', '55', '61']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['52', '64', '82']</t>
+  </si>
+  <si>
+    <t>['28', '65']</t>
+  </si>
+  <si>
+    <t>['7', '20', '34', '59', '73']</t>
+  </si>
+  <si>
+    <t>['15', '30', '74', '79', '90+1']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['41', '90+2']</t>
+  </si>
+  <si>
     <t>['8', '11', '90+4']</t>
   </si>
   <si>
@@ -824,9 +854,6 @@
   </si>
   <si>
     <t>['15', '78']</t>
-  </si>
-  <si>
-    <t>['45+1']</t>
   </si>
   <si>
     <t>['31', '35']</t>
@@ -929,9 +956,6 @@
   </si>
   <si>
     <t>['78']</t>
-  </si>
-  <si>
-    <t>['20']</t>
   </si>
   <si>
     <t>['90+2']</t>
@@ -1064,6 +1088,27 @@
   </si>
   <si>
     <t>['13', '35', '73']</t>
+  </si>
+  <si>
+    <t>['11', '35']</t>
+  </si>
+  <si>
+    <t>['82', '90+1']</t>
+  </si>
+  <si>
+    <t>['11', '39']</t>
+  </si>
+  <si>
+    <t>['3', '16']</t>
+  </si>
+  <si>
+    <t>['10', '34']</t>
+  </si>
+  <si>
+    <t>['23', '45+2']</t>
+  </si>
+  <si>
+    <t>['31', '55']</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK246"/>
+  <dimension ref="A1:BK258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1669,7 +1714,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1950,7 +1995,7 @@
         <v>1.27</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2138,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT4">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2242,7 +2287,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2332,7 +2377,7 @@
         <v>1.64</v>
       </c>
       <c r="AT5">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2433,7 +2478,7 @@
         <v>93</v>
       </c>
       <c r="P6" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2520,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT6">
         <v>1.27</v>
@@ -2711,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT7">
         <v>1.55</v>
@@ -2905,7 +2950,7 @@
         <v>1.17</v>
       </c>
       <c r="AT8">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3006,7 +3051,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3093,10 +3138,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT9">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3284,10 +3329,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT10">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3388,7 +3433,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3475,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT11">
         <v>1.4</v>
@@ -3579,7 +3624,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3666,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT12">
         <v>0.67</v>
@@ -3770,7 +3815,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3860,7 +3905,7 @@
         <v>1.17</v>
       </c>
       <c r="AT13">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3961,7 +4006,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -4048,10 +4093,10 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4152,7 +4197,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4433,7 +4478,7 @@
         <v>1.27</v>
       </c>
       <c r="AT16">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU16">
         <v>1.83</v>
@@ -4534,7 +4579,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4624,7 +4669,7 @@
         <v>1.9</v>
       </c>
       <c r="AT17">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4725,7 +4770,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Q18">
         <v>6</v>
@@ -4815,7 +4860,7 @@
         <v>1.17</v>
       </c>
       <c r="AT18">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5006,7 +5051,7 @@
         <v>2.25</v>
       </c>
       <c r="AT19">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5194,7 +5239,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT20">
         <v>1.4</v>
@@ -5385,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT21">
         <v>1.5</v>
@@ -5576,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT22">
         <v>1.7</v>
@@ -5767,10 +5812,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT23">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU23">
         <v>1.2</v>
@@ -5958,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT24">
         <v>1.55</v>
@@ -6149,10 +6194,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT25">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6253,7 +6298,7 @@
         <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6340,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT26">
         <v>1.1</v>
@@ -6635,7 +6680,7 @@
         <v>95</v>
       </c>
       <c r="P28" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6722,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT28">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6826,7 +6871,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6916,7 +6961,7 @@
         <v>1.4</v>
       </c>
       <c r="AT29">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -7295,10 +7340,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT31">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU31">
         <v>1.4</v>
@@ -7590,7 +7635,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7677,7 +7722,7 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT33">
         <v>0.67</v>
@@ -8163,7 +8208,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -8253,7 +8298,7 @@
         <v>1.64</v>
       </c>
       <c r="AT36">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AU36">
         <v>1.29</v>
@@ -8632,10 +8677,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT38">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU38">
         <v>1.45</v>
@@ -9017,7 +9062,7 @@
         <v>1.27</v>
       </c>
       <c r="AT40">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU40">
         <v>1.56</v>
@@ -9309,7 +9354,7 @@
         <v>95</v>
       </c>
       <c r="P42" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9396,7 +9441,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT42">
         <v>1.3</v>
@@ -9500,7 +9545,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9587,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT43">
         <v>1.7</v>
@@ -9778,10 +9823,10 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT44">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU44">
         <v>0</v>
@@ -10073,7 +10118,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10351,10 +10396,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT47">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU47">
         <v>1.21</v>
@@ -10455,7 +10500,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10542,10 +10587,10 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT48">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU48">
         <v>1.37</v>
@@ -10646,7 +10691,7 @@
         <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10924,10 +10969,10 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT50">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU50">
         <v>1.01</v>
@@ -11028,7 +11073,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11118,7 +11163,7 @@
         <v>1.64</v>
       </c>
       <c r="AT51">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU51">
         <v>0</v>
@@ -11497,10 +11542,10 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT53">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU53">
         <v>1.28</v>
@@ -11792,7 +11837,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11879,10 +11924,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT55">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -11983,7 +12028,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -12070,10 +12115,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT56">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU56">
         <v>0</v>
@@ -12174,7 +12219,7 @@
         <v>90</v>
       </c>
       <c r="P57" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -12261,10 +12306,10 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT57">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU57">
         <v>1.2</v>
@@ -12365,7 +12410,7 @@
         <v>108</v>
       </c>
       <c r="P58" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12455,7 +12500,7 @@
         <v>1.64</v>
       </c>
       <c r="AT58">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU58">
         <v>1.26</v>
@@ -12643,7 +12688,7 @@
         <v>3</v>
       </c>
       <c r="AS59">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT59">
         <v>1.3</v>
@@ -12837,7 +12882,7 @@
         <v>1.27</v>
       </c>
       <c r="AT60">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU60">
         <v>1.3</v>
@@ -13025,7 +13070,7 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT61">
         <v>1.3</v>
@@ -13216,7 +13261,7 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT62">
         <v>1.7</v>
@@ -13320,7 +13365,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="Q63">
         <v>11</v>
@@ -13511,7 +13556,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13702,7 +13747,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="Q65">
         <v>13</v>
@@ -13789,10 +13834,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT65">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU65">
         <v>0</v>
@@ -13980,10 +14025,10 @@
         <v>2</v>
       </c>
       <c r="AS66">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT66">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU66">
         <v>1.37</v>
@@ -14365,7 +14410,7 @@
         <v>2.25</v>
       </c>
       <c r="AT68">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU68">
         <v>1.21</v>
@@ -14466,7 +14511,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14848,7 +14893,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14938,7 +14983,7 @@
         <v>1.9</v>
       </c>
       <c r="AT71">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU71">
         <v>1.07</v>
@@ -15126,10 +15171,10 @@
         <v>1.33</v>
       </c>
       <c r="AS72">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT72">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU72">
         <v>1.39</v>
@@ -15230,7 +15275,7 @@
         <v>95</v>
       </c>
       <c r="P73" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15317,10 +15362,10 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT73">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU73">
         <v>0</v>
@@ -15612,7 +15657,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15699,7 +15744,7 @@
         <v>2</v>
       </c>
       <c r="AS75">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT75">
         <v>1.3</v>
@@ -15893,7 +15938,7 @@
         <v>2.25</v>
       </c>
       <c r="AT76">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU76">
         <v>1.3</v>
@@ -16081,7 +16126,7 @@
         <v>1.33</v>
       </c>
       <c r="AS77">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT77">
         <v>1.55</v>
@@ -16463,7 +16508,7 @@
         <v>0.5</v>
       </c>
       <c r="AS79">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT79">
         <v>1.5</v>
@@ -16567,7 +16612,7 @@
         <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16848,7 +16893,7 @@
         <v>1.64</v>
       </c>
       <c r="AT81">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU81">
         <v>1.44</v>
@@ -16949,7 +16994,7 @@
         <v>144</v>
       </c>
       <c r="P82" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -17140,7 +17185,7 @@
         <v>145</v>
       </c>
       <c r="P83" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17230,7 +17275,7 @@
         <v>1.64</v>
       </c>
       <c r="AT83">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU83">
         <v>1.38</v>
@@ -17522,7 +17567,7 @@
         <v>97</v>
       </c>
       <c r="P85" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17609,7 +17654,7 @@
         <v>0.8</v>
       </c>
       <c r="AS85">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT85">
         <v>0.67</v>
@@ -17991,7 +18036,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT87">
         <v>1.3</v>
@@ -18182,10 +18227,10 @@
         <v>0.5</v>
       </c>
       <c r="AS88">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT88">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU88">
         <v>1.58</v>
@@ -18286,7 +18331,7 @@
         <v>148</v>
       </c>
       <c r="P89" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18373,10 +18418,10 @@
         <v>2</v>
       </c>
       <c r="AS89">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT89">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AU89">
         <v>1.41</v>
@@ -18477,7 +18522,7 @@
         <v>149</v>
       </c>
       <c r="P90" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18668,7 +18713,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18755,10 +18800,10 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT91">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU91">
         <v>1.27</v>
@@ -18859,7 +18904,7 @@
         <v>151</v>
       </c>
       <c r="P92" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -19050,7 +19095,7 @@
         <v>152</v>
       </c>
       <c r="P93" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19137,10 +19182,10 @@
         <v>0.75</v>
       </c>
       <c r="AS93">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT93">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU93">
         <v>0.75</v>
@@ -19241,7 +19286,7 @@
         <v>153</v>
       </c>
       <c r="P94" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19331,7 +19376,7 @@
         <v>1.9</v>
       </c>
       <c r="AT94">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AU94">
         <v>1.29</v>
@@ -19432,7 +19477,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19519,7 +19564,7 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT95">
         <v>1.27</v>
@@ -19710,10 +19755,10 @@
         <v>2.33</v>
       </c>
       <c r="AS96">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT96">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU96">
         <v>0</v>
@@ -19814,7 +19859,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19901,10 +19946,10 @@
         <v>1.33</v>
       </c>
       <c r="AS97">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT97">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU97">
         <v>1.94</v>
@@ -20005,7 +20050,7 @@
         <v>95</v>
       </c>
       <c r="P98" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="Q98">
         <v>9</v>
@@ -20095,7 +20140,7 @@
         <v>0.5</v>
       </c>
       <c r="AT98">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU98">
         <v>1.47</v>
@@ -20196,7 +20241,7 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="Q99">
         <v>6</v>
@@ -20283,7 +20328,7 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT99">
         <v>1.55</v>
@@ -20387,7 +20432,7 @@
         <v>156</v>
       </c>
       <c r="P100" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20477,7 +20522,7 @@
         <v>1.4</v>
       </c>
       <c r="AT100">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU100">
         <v>1.03</v>
@@ -20665,10 +20710,10 @@
         <v>1.25</v>
       </c>
       <c r="AS101">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT101">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU101">
         <v>1.2</v>
@@ -20769,7 +20814,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20856,7 +20901,7 @@
         <v>0.67</v>
       </c>
       <c r="AS102">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT102">
         <v>1.45</v>
@@ -20960,7 +21005,7 @@
         <v>126</v>
       </c>
       <c r="P103" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -21047,7 +21092,7 @@
         <v>1.33</v>
       </c>
       <c r="AS103">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT103">
         <v>1.7</v>
@@ -21151,7 +21196,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21238,10 +21283,10 @@
         <v>0.67</v>
       </c>
       <c r="AS104">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT104">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU104">
         <v>1.53</v>
@@ -21429,7 +21474,7 @@
         <v>1.8</v>
       </c>
       <c r="AS105">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT105">
         <v>1.3</v>
@@ -21533,7 +21578,7 @@
         <v>95</v>
       </c>
       <c r="P106" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21811,10 +21856,10 @@
         <v>0.8</v>
       </c>
       <c r="AS107">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT107">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU107">
         <v>1.36</v>
@@ -22005,7 +22050,7 @@
         <v>1.36</v>
       </c>
       <c r="AT108">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU108">
         <v>1.6</v>
@@ -22488,7 +22533,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22575,7 +22620,7 @@
         <v>1.33</v>
       </c>
       <c r="AS111">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT111">
         <v>1.3</v>
@@ -22769,7 +22814,7 @@
         <v>2.25</v>
       </c>
       <c r="AT112">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU112">
         <v>1.3</v>
@@ -22870,7 +22915,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -22960,7 +23005,7 @@
         <v>1.56</v>
       </c>
       <c r="AT113">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU113">
         <v>1.18</v>
@@ -23148,10 +23193,10 @@
         <v>0.5</v>
       </c>
       <c r="AS114">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT114">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU114">
         <v>2.18</v>
@@ -23339,7 +23384,7 @@
         <v>0.33</v>
       </c>
       <c r="AS115">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT115">
         <v>1.27</v>
@@ -23443,7 +23488,7 @@
         <v>170</v>
       </c>
       <c r="P116" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23530,10 +23575,10 @@
         <v>0.8</v>
       </c>
       <c r="AS116">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT116">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU116">
         <v>1.96</v>
@@ -23721,10 +23766,10 @@
         <v>1.67</v>
       </c>
       <c r="AS117">
+        <v>1.55</v>
+      </c>
+      <c r="AT117">
         <v>1.4</v>
-      </c>
-      <c r="AT117">
-        <v>1.22</v>
       </c>
       <c r="AU117">
         <v>1.4</v>
@@ -23825,7 +23870,7 @@
         <v>112</v>
       </c>
       <c r="P118" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="Q118">
         <v>10</v>
@@ -23915,7 +23960,7 @@
         <v>1.64</v>
       </c>
       <c r="AT118">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU118">
         <v>1.36</v>
@@ -24207,7 +24252,7 @@
         <v>173</v>
       </c>
       <c r="P120" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="Q120">
         <v>2</v>
@@ -24398,7 +24443,7 @@
         <v>174</v>
       </c>
       <c r="P121" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24485,7 +24530,7 @@
         <v>0.83</v>
       </c>
       <c r="AS121">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT121">
         <v>0.67</v>
@@ -24679,7 +24724,7 @@
         <v>0.82</v>
       </c>
       <c r="AT122">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU122">
         <v>1.45</v>
@@ -25162,7 +25207,7 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25249,10 +25294,10 @@
         <v>2.5</v>
       </c>
       <c r="AS125">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT125">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AU125">
         <v>1.48</v>
@@ -25353,7 +25398,7 @@
         <v>95</v>
       </c>
       <c r="P126" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25440,7 +25485,7 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT126">
         <v>1.5</v>
@@ -25631,10 +25676,10 @@
         <v>1</v>
       </c>
       <c r="AS127">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT127">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU127">
         <v>1.44</v>
@@ -25735,7 +25780,7 @@
         <v>177</v>
       </c>
       <c r="P128" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25926,7 +25971,7 @@
         <v>178</v>
       </c>
       <c r="P129" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -26013,10 +26058,10 @@
         <v>0.6</v>
       </c>
       <c r="AS129">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT129">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU129">
         <v>1.66</v>
@@ -26117,7 +26162,7 @@
         <v>131</v>
       </c>
       <c r="P130" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26207,7 +26252,7 @@
         <v>0.5</v>
       </c>
       <c r="AT130">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU130">
         <v>1.43</v>
@@ -26308,7 +26353,7 @@
         <v>95</v>
       </c>
       <c r="P131" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26690,7 +26735,7 @@
         <v>95</v>
       </c>
       <c r="P133" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -27072,7 +27117,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q135">
         <v>7</v>
@@ -27159,10 +27204,10 @@
         <v>1.29</v>
       </c>
       <c r="AS135">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT135">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU135">
         <v>1.4</v>
@@ -27263,7 +27308,7 @@
         <v>95</v>
       </c>
       <c r="P136" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27350,10 +27395,10 @@
         <v>2.5</v>
       </c>
       <c r="AS136">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT136">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU136">
         <v>1.5</v>
@@ -27541,10 +27586,10 @@
         <v>1.17</v>
       </c>
       <c r="AS137">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT137">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU137">
         <v>1.61</v>
@@ -27732,7 +27777,7 @@
         <v>1.6</v>
       </c>
       <c r="AS138">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT138">
         <v>1.45</v>
@@ -27836,7 +27881,7 @@
         <v>95</v>
       </c>
       <c r="P139" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="Q139">
         <v>6</v>
@@ -27923,7 +27968,7 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT139">
         <v>1.27</v>
@@ -28114,10 +28159,10 @@
         <v>1</v>
       </c>
       <c r="AS140">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT140">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU140">
         <v>0.97</v>
@@ -28218,7 +28263,7 @@
         <v>95</v>
       </c>
       <c r="P141" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28308,7 +28353,7 @@
         <v>1.64</v>
       </c>
       <c r="AT141">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU141">
         <v>1.27</v>
@@ -28409,7 +28454,7 @@
         <v>95</v>
       </c>
       <c r="P142" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28878,10 +28923,10 @@
         <v>1.33</v>
       </c>
       <c r="AS144">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT144">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU144">
         <v>1.68</v>
@@ -28982,7 +29027,7 @@
         <v>183</v>
       </c>
       <c r="P145" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -29069,10 +29114,10 @@
         <v>1.6</v>
       </c>
       <c r="AS145">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT145">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU145">
         <v>1.46</v>
@@ -29263,7 +29308,7 @@
         <v>1.36</v>
       </c>
       <c r="AT146">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU146">
         <v>1.81</v>
@@ -29364,7 +29409,7 @@
         <v>185</v>
       </c>
       <c r="P147" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29451,7 +29496,7 @@
         <v>1.33</v>
       </c>
       <c r="AS147">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT147">
         <v>1.45</v>
@@ -29645,7 +29690,7 @@
         <v>1.89</v>
       </c>
       <c r="AT148">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AU148">
         <v>1.31</v>
@@ -29833,7 +29878,7 @@
         <v>1.75</v>
       </c>
       <c r="AS149">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT149">
         <v>1.3</v>
@@ -29937,7 +29982,7 @@
         <v>187</v>
       </c>
       <c r="P150" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -30024,7 +30069,7 @@
         <v>0.6</v>
       </c>
       <c r="AS150">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT150">
         <v>0.64</v>
@@ -30218,7 +30263,7 @@
         <v>1.64</v>
       </c>
       <c r="AT151">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU151">
         <v>1.21</v>
@@ -30319,7 +30364,7 @@
         <v>188</v>
       </c>
       <c r="P152" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30406,10 +30451,10 @@
         <v>1</v>
       </c>
       <c r="AS152">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT152">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU152">
         <v>1.75</v>
@@ -30597,10 +30642,10 @@
         <v>1.5</v>
       </c>
       <c r="AS153">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT153">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU153">
         <v>1.44</v>
@@ -30701,7 +30746,7 @@
         <v>109</v>
       </c>
       <c r="P154" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="Q154">
         <v>8</v>
@@ -30791,7 +30836,7 @@
         <v>0.82</v>
       </c>
       <c r="AT154">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU154">
         <v>1.46</v>
@@ -30979,10 +31024,10 @@
         <v>2.6</v>
       </c>
       <c r="AS155">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT155">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU155">
         <v>1.52</v>
@@ -31083,7 +31128,7 @@
         <v>191</v>
       </c>
       <c r="P156" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q156">
         <v>6</v>
@@ -31170,10 +31215,10 @@
         <v>1</v>
       </c>
       <c r="AS156">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT156">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU156">
         <v>1.43</v>
@@ -31274,7 +31319,7 @@
         <v>192</v>
       </c>
       <c r="P157" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31361,10 +31406,10 @@
         <v>0.4</v>
       </c>
       <c r="AS157">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT157">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU157">
         <v>1.8</v>
@@ -31465,7 +31510,7 @@
         <v>193</v>
       </c>
       <c r="P158" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31552,10 +31597,10 @@
         <v>2.5</v>
       </c>
       <c r="AS158">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT158">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU158">
         <v>1.82</v>
@@ -31656,7 +31701,7 @@
         <v>194</v>
       </c>
       <c r="P159" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31743,10 +31788,10 @@
         <v>2.67</v>
       </c>
       <c r="AS159">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT159">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AU159">
         <v>1.64</v>
@@ -32038,7 +32083,7 @@
         <v>196</v>
       </c>
       <c r="P161" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q161">
         <v>5</v>
@@ -32229,7 +32274,7 @@
         <v>197</v>
       </c>
       <c r="P162" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -32316,7 +32361,7 @@
         <v>1</v>
       </c>
       <c r="AS162">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT162">
         <v>1.1</v>
@@ -32420,7 +32465,7 @@
         <v>89</v>
       </c>
       <c r="P163" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32510,7 +32555,7 @@
         <v>0.5</v>
       </c>
       <c r="AT163">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU163">
         <v>1.42</v>
@@ -32611,7 +32656,7 @@
         <v>198</v>
       </c>
       <c r="P164" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -32802,7 +32847,7 @@
         <v>199</v>
       </c>
       <c r="P165" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q165">
         <v>9</v>
@@ -32889,7 +32934,7 @@
         <v>1.67</v>
       </c>
       <c r="AS165">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT165">
         <v>1.7</v>
@@ -32993,7 +33038,7 @@
         <v>200</v>
       </c>
       <c r="P166" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -33083,7 +33128,7 @@
         <v>0.5</v>
       </c>
       <c r="AT166">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU166">
         <v>1.44</v>
@@ -33184,7 +33229,7 @@
         <v>197</v>
       </c>
       <c r="P167" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33375,7 +33420,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33462,10 +33507,10 @@
         <v>1.67</v>
       </c>
       <c r="AS168">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT168">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU168">
         <v>1.38</v>
@@ -33566,7 +33611,7 @@
         <v>95</v>
       </c>
       <c r="P169" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q169">
         <v>4</v>
@@ -33847,7 +33892,7 @@
         <v>1.36</v>
       </c>
       <c r="AT170">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU170">
         <v>1.75</v>
@@ -33948,7 +33993,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34608,7 +34653,7 @@
         <v>1.25</v>
       </c>
       <c r="AS174">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT174">
         <v>1.27</v>
@@ -34712,7 +34757,7 @@
         <v>204</v>
       </c>
       <c r="P175" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q175">
         <v>8</v>
@@ -34903,7 +34948,7 @@
         <v>95</v>
       </c>
       <c r="P176" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="Q176">
         <v>11</v>
@@ -35181,7 +35226,7 @@
         <v>0.86</v>
       </c>
       <c r="AS177">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT177">
         <v>0.64</v>
@@ -35375,7 +35420,7 @@
         <v>1.36</v>
       </c>
       <c r="AT178">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU178">
         <v>1.64</v>
@@ -35563,10 +35608,10 @@
         <v>1.13</v>
       </c>
       <c r="AS179">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT179">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU179">
         <v>1.91</v>
@@ -35667,7 +35712,7 @@
         <v>208</v>
       </c>
       <c r="P180" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q180">
         <v>7</v>
@@ -35757,7 +35802,7 @@
         <v>1.89</v>
       </c>
       <c r="AT180">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU180">
         <v>1.17</v>
@@ -35945,7 +35990,7 @@
         <v>1.29</v>
       </c>
       <c r="AS181">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT181">
         <v>1.45</v>
@@ -36049,7 +36094,7 @@
         <v>95</v>
       </c>
       <c r="P182" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q182">
         <v>9</v>
@@ -36139,7 +36184,7 @@
         <v>0.5</v>
       </c>
       <c r="AT182">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU182">
         <v>1.37</v>
@@ -36240,7 +36285,7 @@
         <v>210</v>
       </c>
       <c r="P183" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36327,7 +36372,7 @@
         <v>1.33</v>
       </c>
       <c r="AS183">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT183">
         <v>1.5</v>
@@ -36709,7 +36754,7 @@
         <v>0.8</v>
       </c>
       <c r="AS185">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT185">
         <v>0.67</v>
@@ -36813,7 +36858,7 @@
         <v>212</v>
       </c>
       <c r="P186" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q186">
         <v>5</v>
@@ -36903,7 +36948,7 @@
         <v>1.36</v>
       </c>
       <c r="AT186">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU186">
         <v>1.58</v>
@@ -37094,7 +37139,7 @@
         <v>1.89</v>
       </c>
       <c r="AT187">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU187">
         <v>1.22</v>
@@ -37195,7 +37240,7 @@
         <v>214</v>
       </c>
       <c r="P188" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q188">
         <v>1</v>
@@ -37282,10 +37327,10 @@
         <v>1.38</v>
       </c>
       <c r="AS188">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT188">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU188">
         <v>1.48</v>
@@ -37473,10 +37518,10 @@
         <v>0.5</v>
       </c>
       <c r="AS189">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT189">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU189">
         <v>1.47</v>
@@ -37577,7 +37622,7 @@
         <v>215</v>
       </c>
       <c r="P190" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37768,7 +37813,7 @@
         <v>95</v>
       </c>
       <c r="P191" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -37855,7 +37900,7 @@
         <v>1.33</v>
       </c>
       <c r="AS191">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT191">
         <v>1.3</v>
@@ -38150,7 +38195,7 @@
         <v>217</v>
       </c>
       <c r="P193" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q193">
         <v>1</v>
@@ -38240,7 +38285,7 @@
         <v>1.64</v>
       </c>
       <c r="AT193">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU193">
         <v>1.48</v>
@@ -38341,7 +38386,7 @@
         <v>218</v>
       </c>
       <c r="P194" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -38619,7 +38664,7 @@
         <v>1.63</v>
       </c>
       <c r="AS195">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT195">
         <v>1.4</v>
@@ -38810,7 +38855,7 @@
         <v>1.29</v>
       </c>
       <c r="AS196">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT196">
         <v>1.3</v>
@@ -39004,7 +39049,7 @@
         <v>1.9</v>
       </c>
       <c r="AT197">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU197">
         <v>1.49</v>
@@ -39195,7 +39240,7 @@
         <v>1.17</v>
       </c>
       <c r="AT198">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU198">
         <v>1.59</v>
@@ -39383,7 +39428,7 @@
         <v>1.57</v>
       </c>
       <c r="AS199">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT199">
         <v>1.1</v>
@@ -39487,7 +39532,7 @@
         <v>222</v>
       </c>
       <c r="P200" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q200">
         <v>10</v>
@@ -39574,7 +39619,7 @@
         <v>1.57</v>
       </c>
       <c r="AS200">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT200">
         <v>1.5</v>
@@ -39768,7 +39813,7 @@
         <v>1.56</v>
       </c>
       <c r="AT201">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU201">
         <v>1.66</v>
@@ -40147,10 +40192,10 @@
         <v>0.71</v>
       </c>
       <c r="AS203">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT203">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU203">
         <v>1.65</v>
@@ -40251,7 +40296,7 @@
         <v>225</v>
       </c>
       <c r="P204" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q204">
         <v>7</v>
@@ -40338,10 +40383,10 @@
         <v>1.11</v>
       </c>
       <c r="AS204">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT204">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU204">
         <v>2.07</v>
@@ -40633,7 +40678,7 @@
         <v>95</v>
       </c>
       <c r="P206" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -40824,7 +40869,7 @@
         <v>95</v>
       </c>
       <c r="P207" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q207">
         <v>2</v>
@@ -41105,7 +41150,7 @@
         <v>0.82</v>
       </c>
       <c r="AT208">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU208">
         <v>1.42</v>
@@ -41293,10 +41338,10 @@
         <v>1.43</v>
       </c>
       <c r="AS209">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT209">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU209">
         <v>1.32</v>
@@ -41397,7 +41442,7 @@
         <v>227</v>
       </c>
       <c r="P210" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41487,7 +41532,7 @@
         <v>1.27</v>
       </c>
       <c r="AT210">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU210">
         <v>1.34</v>
@@ -41675,7 +41720,7 @@
         <v>1.38</v>
       </c>
       <c r="AS211">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT211">
         <v>1.55</v>
@@ -41866,7 +41911,7 @@
         <v>0.67</v>
       </c>
       <c r="AS212">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT212">
         <v>0.64</v>
@@ -42060,7 +42105,7 @@
         <v>1.89</v>
       </c>
       <c r="AT213">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU213">
         <v>1.22</v>
@@ -42248,10 +42293,10 @@
         <v>2.43</v>
       </c>
       <c r="AS214">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT214">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AU214">
         <v>1.46</v>
@@ -42352,7 +42397,7 @@
         <v>230</v>
       </c>
       <c r="P215" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q215">
         <v>8</v>
@@ -42439,7 +42484,7 @@
         <v>1.13</v>
       </c>
       <c r="AS215">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT215">
         <v>1.3</v>
@@ -42630,7 +42675,7 @@
         <v>1</v>
       </c>
       <c r="AS216">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT216">
         <v>1.27</v>
@@ -42824,7 +42869,7 @@
         <v>0.82</v>
       </c>
       <c r="AT217">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU217">
         <v>1.52</v>
@@ -42925,7 +42970,7 @@
         <v>128</v>
       </c>
       <c r="P218" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q218">
         <v>4</v>
@@ -43203,7 +43248,7 @@
         <v>1.22</v>
       </c>
       <c r="AS219">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT219">
         <v>1.27</v>
@@ -43307,7 +43352,7 @@
         <v>178</v>
       </c>
       <c r="P220" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q220">
         <v>7</v>
@@ -43588,7 +43633,7 @@
         <v>1.64</v>
       </c>
       <c r="AT221">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU221">
         <v>1.5</v>
@@ -43776,10 +43821,10 @@
         <v>2.17</v>
       </c>
       <c r="AS222">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT222">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU222">
         <v>1.38</v>
@@ -43880,7 +43925,7 @@
         <v>95</v>
       </c>
       <c r="P223" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q223">
         <v>4</v>
@@ -44158,10 +44203,10 @@
         <v>0.82</v>
       </c>
       <c r="AS224">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT224">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU224">
         <v>1.33</v>
@@ -44262,7 +44307,7 @@
         <v>112</v>
       </c>
       <c r="P225" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q225">
         <v>5</v>
@@ -44352,7 +44397,7 @@
         <v>1.27</v>
       </c>
       <c r="AT225">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU225">
         <v>1.36</v>
@@ -44453,7 +44498,7 @@
         <v>97</v>
       </c>
       <c r="P226" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q226">
         <v>9</v>
@@ -44540,7 +44585,7 @@
         <v>0.89</v>
       </c>
       <c r="AS226">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT226">
         <v>1.27</v>
@@ -44731,7 +44776,7 @@
         <v>1.75</v>
       </c>
       <c r="AS227">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT227">
         <v>1.5</v>
@@ -44835,7 +44880,7 @@
         <v>234</v>
       </c>
       <c r="P228" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q228">
         <v>2</v>
@@ -44925,7 +44970,7 @@
         <v>1.64</v>
       </c>
       <c r="AT228">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU228">
         <v>1.43</v>
@@ -45026,7 +45071,7 @@
         <v>103</v>
       </c>
       <c r="P229" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q229">
         <v>4</v>
@@ -45217,7 +45262,7 @@
         <v>178</v>
       </c>
       <c r="P230" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="Q230">
         <v>6</v>
@@ -45304,7 +45349,7 @@
         <v>1.22</v>
       </c>
       <c r="AS230">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT230">
         <v>1.55</v>
@@ -45498,7 +45543,7 @@
         <v>2.25</v>
       </c>
       <c r="AT231">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AU231">
         <v>1.52</v>
@@ -45790,7 +45835,7 @@
         <v>236</v>
       </c>
       <c r="P233" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="Q233">
         <v>5</v>
@@ -46363,7 +46408,7 @@
         <v>238</v>
       </c>
       <c r="P236" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="Q236">
         <v>7</v>
@@ -46450,7 +46495,7 @@
         <v>1.11</v>
       </c>
       <c r="AS236">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT236">
         <v>1.3</v>
@@ -46554,7 +46599,7 @@
         <v>239</v>
       </c>
       <c r="P237" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="Q237">
         <v>4</v>
@@ -47023,10 +47068,10 @@
         <v>0.33</v>
       </c>
       <c r="AS239">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT239">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU239">
         <v>1.63</v>
@@ -47217,7 +47262,7 @@
         <v>1.89</v>
       </c>
       <c r="AT240">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU240">
         <v>1.26</v>
@@ -47318,7 +47363,7 @@
         <v>100</v>
       </c>
       <c r="P241" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q241">
         <v>2</v>
@@ -47599,7 +47644,7 @@
         <v>1.56</v>
       </c>
       <c r="AT242">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU242">
         <v>1.7</v>
@@ -47700,7 +47745,7 @@
         <v>95</v>
       </c>
       <c r="P243" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Q243">
         <v>15</v>
@@ -47787,10 +47832,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS243">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AT243">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU243">
         <v>2.04</v>
@@ -47891,7 +47936,7 @@
         <v>164</v>
       </c>
       <c r="P244" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q244">
         <v>6</v>
@@ -47978,10 +48023,10 @@
         <v>1.63</v>
       </c>
       <c r="AS244">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT244">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU244">
         <v>1.32</v>
@@ -48169,7 +48214,7 @@
         <v>0.73</v>
       </c>
       <c r="AS245">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT245">
         <v>0.67</v>
@@ -48363,7 +48408,7 @@
         <v>2.25</v>
       </c>
       <c r="AT246">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU246">
         <v>1.5</v>
@@ -48415,6 +48460,2298 @@
       </c>
       <c r="BK246">
         <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:63">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>5094260</v>
+      </c>
+      <c r="C247" t="s">
+        <v>63</v>
+      </c>
+      <c r="D247" t="s">
+        <v>64</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45136.83333333334</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247" t="s">
+        <v>79</v>
+      </c>
+      <c r="H247" t="s">
+        <v>65</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>2</v>
+      </c>
+      <c r="K247">
+        <v>3</v>
+      </c>
+      <c r="L247">
+        <v>4</v>
+      </c>
+      <c r="M247">
+        <v>2</v>
+      </c>
+      <c r="N247">
+        <v>6</v>
+      </c>
+      <c r="O247" t="s">
+        <v>244</v>
+      </c>
+      <c r="P247" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q247">
+        <v>5</v>
+      </c>
+      <c r="R247">
+        <v>3</v>
+      </c>
+      <c r="S247">
+        <v>8</v>
+      </c>
+      <c r="T247">
+        <v>2.45</v>
+      </c>
+      <c r="U247">
+        <v>2.15</v>
+      </c>
+      <c r="V247">
+        <v>4.3</v>
+      </c>
+      <c r="W247">
+        <v>1.39</v>
+      </c>
+      <c r="X247">
+        <v>2.8</v>
+      </c>
+      <c r="Y247">
+        <v>2.8</v>
+      </c>
+      <c r="Z247">
+        <v>1.39</v>
+      </c>
+      <c r="AA247">
+        <v>6.25</v>
+      </c>
+      <c r="AB247">
+        <v>1.08</v>
+      </c>
+      <c r="AC247">
+        <v>1.85</v>
+      </c>
+      <c r="AD247">
+        <v>3.45</v>
+      </c>
+      <c r="AE247">
+        <v>3.85</v>
+      </c>
+      <c r="AF247">
+        <v>1.04</v>
+      </c>
+      <c r="AG247">
+        <v>11.75</v>
+      </c>
+      <c r="AH247">
+        <v>1.3</v>
+      </c>
+      <c r="AI247">
+        <v>3.3</v>
+      </c>
+      <c r="AJ247">
+        <v>1.95</v>
+      </c>
+      <c r="AK247">
+        <v>1.87</v>
+      </c>
+      <c r="AL247">
+        <v>1.8</v>
+      </c>
+      <c r="AM247">
+        <v>1.9</v>
+      </c>
+      <c r="AN247">
+        <v>1.23</v>
+      </c>
+      <c r="AO247">
+        <v>1.24</v>
+      </c>
+      <c r="AP247">
+        <v>1.88</v>
+      </c>
+      <c r="AQ247">
+        <v>2.18</v>
+      </c>
+      <c r="AR247">
+        <v>1.88</v>
+      </c>
+      <c r="AS247">
+        <v>2.25</v>
+      </c>
+      <c r="AT247">
+        <v>1.67</v>
+      </c>
+      <c r="AU247">
+        <v>1.3</v>
+      </c>
+      <c r="AV247">
+        <v>1.69</v>
+      </c>
+      <c r="AW247">
+        <v>2.99</v>
+      </c>
+      <c r="AX247">
+        <v>1.6</v>
+      </c>
+      <c r="AY247">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ247">
+        <v>2.72</v>
+      </c>
+      <c r="BA247">
+        <v>1.41</v>
+      </c>
+      <c r="BB247">
+        <v>1.77</v>
+      </c>
+      <c r="BC247">
+        <v>2.21</v>
+      </c>
+      <c r="BD247">
+        <v>3.08</v>
+      </c>
+      <c r="BE247">
+        <v>0</v>
+      </c>
+      <c r="BF247">
+        <v>10</v>
+      </c>
+      <c r="BG247">
+        <v>4</v>
+      </c>
+      <c r="BH247">
+        <v>3</v>
+      </c>
+      <c r="BI247">
+        <v>2</v>
+      </c>
+      <c r="BJ247">
+        <v>13</v>
+      </c>
+      <c r="BK247">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:63">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>5094253</v>
+      </c>
+      <c r="C248" t="s">
+        <v>63</v>
+      </c>
+      <c r="D248" t="s">
+        <v>64</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45136.85416666666</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248" t="s">
+        <v>69</v>
+      </c>
+      <c r="H248" t="s">
+        <v>68</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>1</v>
+      </c>
+      <c r="L248">
+        <v>1</v>
+      </c>
+      <c r="M248">
+        <v>2</v>
+      </c>
+      <c r="N248">
+        <v>3</v>
+      </c>
+      <c r="O248" t="s">
+        <v>245</v>
+      </c>
+      <c r="P248" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q248">
+        <v>4</v>
+      </c>
+      <c r="R248">
+        <v>2</v>
+      </c>
+      <c r="S248">
+        <v>6</v>
+      </c>
+      <c r="T248">
+        <v>2.85</v>
+      </c>
+      <c r="U248">
+        <v>2.1</v>
+      </c>
+      <c r="V248">
+        <v>3.5</v>
+      </c>
+      <c r="W248">
+        <v>1.4</v>
+      </c>
+      <c r="X248">
+        <v>2.75</v>
+      </c>
+      <c r="Y248">
+        <v>2.75</v>
+      </c>
+      <c r="Z248">
+        <v>1.4</v>
+      </c>
+      <c r="AA248">
+        <v>6.25</v>
+      </c>
+      <c r="AB248">
+        <v>1.09</v>
+      </c>
+      <c r="AC248">
+        <v>2</v>
+      </c>
+      <c r="AD248">
+        <v>3.55</v>
+      </c>
+      <c r="AE248">
+        <v>3.2</v>
+      </c>
+      <c r="AF248">
+        <v>1.04</v>
+      </c>
+      <c r="AG248">
+        <v>12</v>
+      </c>
+      <c r="AH248">
+        <v>1.27</v>
+      </c>
+      <c r="AI248">
+        <v>3.4</v>
+      </c>
+      <c r="AJ248">
+        <v>1.8</v>
+      </c>
+      <c r="AK248">
+        <v>1.83</v>
+      </c>
+      <c r="AL248">
+        <v>1.7</v>
+      </c>
+      <c r="AM248">
+        <v>2</v>
+      </c>
+      <c r="AN248">
+        <v>1.35</v>
+      </c>
+      <c r="AO248">
+        <v>1.27</v>
+      </c>
+      <c r="AP248">
+        <v>1.6</v>
+      </c>
+      <c r="AQ248">
+        <v>1.78</v>
+      </c>
+      <c r="AR248">
+        <v>1.8</v>
+      </c>
+      <c r="AS248">
+        <v>1.6</v>
+      </c>
+      <c r="AT248">
+        <v>1.91</v>
+      </c>
+      <c r="AU248">
+        <v>1.4</v>
+      </c>
+      <c r="AV248">
+        <v>1.49</v>
+      </c>
+      <c r="AW248">
+        <v>2.89</v>
+      </c>
+      <c r="AX248">
+        <v>1.68</v>
+      </c>
+      <c r="AY248">
+        <v>8.6</v>
+      </c>
+      <c r="AZ248">
+        <v>2.46</v>
+      </c>
+      <c r="BA248">
+        <v>1.25</v>
+      </c>
+      <c r="BB248">
+        <v>1.53</v>
+      </c>
+      <c r="BC248">
+        <v>1.87</v>
+      </c>
+      <c r="BD248">
+        <v>2.34</v>
+      </c>
+      <c r="BE248">
+        <v>3.2</v>
+      </c>
+      <c r="BF248">
+        <v>3</v>
+      </c>
+      <c r="BG248">
+        <v>4</v>
+      </c>
+      <c r="BH248">
+        <v>6</v>
+      </c>
+      <c r="BI248">
+        <v>4</v>
+      </c>
+      <c r="BJ248">
+        <v>9</v>
+      </c>
+      <c r="BK248">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:63">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>5094255</v>
+      </c>
+      <c r="C249" t="s">
+        <v>63</v>
+      </c>
+      <c r="D249" t="s">
+        <v>64</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45136.85416666666</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249" t="s">
+        <v>78</v>
+      </c>
+      <c r="H249" t="s">
+        <v>66</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249">
+        <v>2</v>
+      </c>
+      <c r="K249">
+        <v>3</v>
+      </c>
+      <c r="L249">
+        <v>1</v>
+      </c>
+      <c r="M249">
+        <v>2</v>
+      </c>
+      <c r="N249">
+        <v>3</v>
+      </c>
+      <c r="O249" t="s">
+        <v>246</v>
+      </c>
+      <c r="P249" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q249">
+        <v>7</v>
+      </c>
+      <c r="R249">
+        <v>4</v>
+      </c>
+      <c r="S249">
+        <v>11</v>
+      </c>
+      <c r="T249">
+        <v>0</v>
+      </c>
+      <c r="U249">
+        <v>0</v>
+      </c>
+      <c r="V249">
+        <v>0</v>
+      </c>
+      <c r="W249">
+        <v>0</v>
+      </c>
+      <c r="X249">
+        <v>0</v>
+      </c>
+      <c r="Y249">
+        <v>0</v>
+      </c>
+      <c r="Z249">
+        <v>0</v>
+      </c>
+      <c r="AA249">
+        <v>0</v>
+      </c>
+      <c r="AB249">
+        <v>0</v>
+      </c>
+      <c r="AC249">
+        <v>2.6</v>
+      </c>
+      <c r="AD249">
+        <v>3.3</v>
+      </c>
+      <c r="AE249">
+        <v>2.45</v>
+      </c>
+      <c r="AF249">
+        <v>0</v>
+      </c>
+      <c r="AG249">
+        <v>0</v>
+      </c>
+      <c r="AH249">
+        <v>0</v>
+      </c>
+      <c r="AI249">
+        <v>0</v>
+      </c>
+      <c r="AJ249">
+        <v>1.9</v>
+      </c>
+      <c r="AK249">
+        <v>1.92</v>
+      </c>
+      <c r="AL249">
+        <v>0</v>
+      </c>
+      <c r="AM249">
+        <v>0</v>
+      </c>
+      <c r="AN249">
+        <v>0</v>
+      </c>
+      <c r="AO249">
+        <v>0</v>
+      </c>
+      <c r="AP249">
+        <v>0</v>
+      </c>
+      <c r="AQ249">
+        <v>1.18</v>
+      </c>
+      <c r="AR249">
+        <v>0.6</v>
+      </c>
+      <c r="AS249">
+        <v>1.08</v>
+      </c>
+      <c r="AT249">
+        <v>0.82</v>
+      </c>
+      <c r="AU249">
+        <v>1.65</v>
+      </c>
+      <c r="AV249">
+        <v>1.09</v>
+      </c>
+      <c r="AW249">
+        <v>2.74</v>
+      </c>
+      <c r="AX249">
+        <v>0</v>
+      </c>
+      <c r="AY249">
+        <v>0</v>
+      </c>
+      <c r="AZ249">
+        <v>0</v>
+      </c>
+      <c r="BA249">
+        <v>0</v>
+      </c>
+      <c r="BB249">
+        <v>0</v>
+      </c>
+      <c r="BC249">
+        <v>0</v>
+      </c>
+      <c r="BD249">
+        <v>0</v>
+      </c>
+      <c r="BE249">
+        <v>0</v>
+      </c>
+      <c r="BF249">
+        <v>4</v>
+      </c>
+      <c r="BG249">
+        <v>6</v>
+      </c>
+      <c r="BH249">
+        <v>9</v>
+      </c>
+      <c r="BI249">
+        <v>2</v>
+      </c>
+      <c r="BJ249">
+        <v>13</v>
+      </c>
+      <c r="BK249">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:63">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>5094264</v>
+      </c>
+      <c r="C250" t="s">
+        <v>63</v>
+      </c>
+      <c r="D250" t="s">
+        <v>64</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45136.85416666666</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250" t="s">
+        <v>67</v>
+      </c>
+      <c r="H250" t="s">
+        <v>83</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>3</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>3</v>
+      </c>
+      <c r="O250" t="s">
+        <v>247</v>
+      </c>
+      <c r="P250" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q250">
+        <v>7</v>
+      </c>
+      <c r="R250">
+        <v>2</v>
+      </c>
+      <c r="S250">
+        <v>9</v>
+      </c>
+      <c r="T250">
+        <v>2</v>
+      </c>
+      <c r="U250">
+        <v>2.38</v>
+      </c>
+      <c r="V250">
+        <v>5</v>
+      </c>
+      <c r="W250">
+        <v>1.33</v>
+      </c>
+      <c r="X250">
+        <v>3.25</v>
+      </c>
+      <c r="Y250">
+        <v>2.55</v>
+      </c>
+      <c r="Z250">
+        <v>1.46</v>
+      </c>
+      <c r="AA250">
+        <v>5.5</v>
+      </c>
+      <c r="AB250">
+        <v>1.12</v>
+      </c>
+      <c r="AC250">
+        <v>1.57</v>
+      </c>
+      <c r="AD250">
+        <v>3.85</v>
+      </c>
+      <c r="AE250">
+        <v>5.25</v>
+      </c>
+      <c r="AF250">
+        <v>1.05</v>
+      </c>
+      <c r="AG250">
+        <v>9</v>
+      </c>
+      <c r="AH250">
+        <v>1.22</v>
+      </c>
+      <c r="AI250">
+        <v>4</v>
+      </c>
+      <c r="AJ250">
+        <v>1.7</v>
+      </c>
+      <c r="AK250">
+        <v>1.95</v>
+      </c>
+      <c r="AL250">
+        <v>1.8</v>
+      </c>
+      <c r="AM250">
+        <v>1.91</v>
+      </c>
+      <c r="AN250">
+        <v>1.12</v>
+      </c>
+      <c r="AO250">
+        <v>1.25</v>
+      </c>
+      <c r="AP250">
+        <v>2.3</v>
+      </c>
+      <c r="AQ250">
+        <v>2</v>
+      </c>
+      <c r="AR250">
+        <v>1</v>
+      </c>
+      <c r="AS250">
+        <v>2.09</v>
+      </c>
+      <c r="AT250">
+        <v>0.91</v>
+      </c>
+      <c r="AU250">
+        <v>1.45</v>
+      </c>
+      <c r="AV250">
+        <v>1.18</v>
+      </c>
+      <c r="AW250">
+        <v>2.63</v>
+      </c>
+      <c r="AX250">
+        <v>1.33</v>
+      </c>
+      <c r="AY250">
+        <v>9.5</v>
+      </c>
+      <c r="AZ250">
+        <v>3.84</v>
+      </c>
+      <c r="BA250">
+        <v>1.32</v>
+      </c>
+      <c r="BB250">
+        <v>1.65</v>
+      </c>
+      <c r="BC250">
+        <v>2.04</v>
+      </c>
+      <c r="BD250">
+        <v>2.67</v>
+      </c>
+      <c r="BE250">
+        <v>3.65</v>
+      </c>
+      <c r="BF250">
+        <v>8</v>
+      </c>
+      <c r="BG250">
+        <v>3</v>
+      </c>
+      <c r="BH250">
+        <v>4</v>
+      </c>
+      <c r="BI250">
+        <v>6</v>
+      </c>
+      <c r="BJ250">
+        <v>12</v>
+      </c>
+      <c r="BK250">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:63">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>5094256</v>
+      </c>
+      <c r="C251" t="s">
+        <v>63</v>
+      </c>
+      <c r="D251" t="s">
+        <v>64</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45136.875</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251" t="s">
+        <v>81</v>
+      </c>
+      <c r="H251" t="s">
+        <v>84</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>1</v>
+      </c>
+      <c r="L251">
+        <v>2</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>2</v>
+      </c>
+      <c r="O251" t="s">
+        <v>248</v>
+      </c>
+      <c r="P251" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q251">
+        <v>8</v>
+      </c>
+      <c r="R251">
+        <v>7</v>
+      </c>
+      <c r="S251">
+        <v>15</v>
+      </c>
+      <c r="T251">
+        <v>2.45</v>
+      </c>
+      <c r="U251">
+        <v>2.15</v>
+      </c>
+      <c r="V251">
+        <v>4</v>
+      </c>
+      <c r="W251">
+        <v>1.36</v>
+      </c>
+      <c r="X251">
+        <v>3</v>
+      </c>
+      <c r="Y251">
+        <v>2.75</v>
+      </c>
+      <c r="Z251">
+        <v>1.4</v>
+      </c>
+      <c r="AA251">
+        <v>6</v>
+      </c>
+      <c r="AB251">
+        <v>1.11</v>
+      </c>
+      <c r="AC251">
+        <v>1.95</v>
+      </c>
+      <c r="AD251">
+        <v>3.4</v>
+      </c>
+      <c r="AE251">
+        <v>3.6</v>
+      </c>
+      <c r="AF251">
+        <v>1.06</v>
+      </c>
+      <c r="AG251">
+        <v>8</v>
+      </c>
+      <c r="AH251">
+        <v>1.28</v>
+      </c>
+      <c r="AI251">
+        <v>3.5</v>
+      </c>
+      <c r="AJ251">
+        <v>1.83</v>
+      </c>
+      <c r="AK251">
+        <v>1.83</v>
+      </c>
+      <c r="AL251">
+        <v>1.73</v>
+      </c>
+      <c r="AM251">
+        <v>2</v>
+      </c>
+      <c r="AN251">
+        <v>1.22</v>
+      </c>
+      <c r="AO251">
+        <v>1.29</v>
+      </c>
+      <c r="AP251">
+        <v>1.83</v>
+      </c>
+      <c r="AQ251">
+        <v>1.5</v>
+      </c>
+      <c r="AR251">
+        <v>1.78</v>
+      </c>
+      <c r="AS251">
+        <v>1.64</v>
+      </c>
+      <c r="AT251">
+        <v>1.6</v>
+      </c>
+      <c r="AU251">
+        <v>1.69</v>
+      </c>
+      <c r="AV251">
+        <v>1.2</v>
+      </c>
+      <c r="AW251">
+        <v>2.89</v>
+      </c>
+      <c r="AX251">
+        <v>1.36</v>
+      </c>
+      <c r="AY251">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ251">
+        <v>3.65</v>
+      </c>
+      <c r="BA251">
+        <v>1.33</v>
+      </c>
+      <c r="BB251">
+        <v>1.66</v>
+      </c>
+      <c r="BC251">
+        <v>2.06</v>
+      </c>
+      <c r="BD251">
+        <v>2.71</v>
+      </c>
+      <c r="BE251">
+        <v>3.74</v>
+      </c>
+      <c r="BF251">
+        <v>6</v>
+      </c>
+      <c r="BG251">
+        <v>0</v>
+      </c>
+      <c r="BH251">
+        <v>8</v>
+      </c>
+      <c r="BI251">
+        <v>3</v>
+      </c>
+      <c r="BJ251">
+        <v>14</v>
+      </c>
+      <c r="BK251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:63">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>5094261</v>
+      </c>
+      <c r="C252" t="s">
+        <v>63</v>
+      </c>
+      <c r="D252" t="s">
+        <v>64</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45136.875</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252" t="s">
+        <v>75</v>
+      </c>
+      <c r="H252" t="s">
+        <v>71</v>
+      </c>
+      <c r="I252">
+        <v>3</v>
+      </c>
+      <c r="J252">
+        <v>2</v>
+      </c>
+      <c r="K252">
+        <v>5</v>
+      </c>
+      <c r="L252">
+        <v>5</v>
+      </c>
+      <c r="M252">
+        <v>2</v>
+      </c>
+      <c r="N252">
+        <v>7</v>
+      </c>
+      <c r="O252" t="s">
+        <v>249</v>
+      </c>
+      <c r="P252" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q252">
+        <v>6</v>
+      </c>
+      <c r="R252">
+        <v>2</v>
+      </c>
+      <c r="S252">
+        <v>8</v>
+      </c>
+      <c r="T252">
+        <v>2.9</v>
+      </c>
+      <c r="U252">
+        <v>2.1</v>
+      </c>
+      <c r="V252">
+        <v>3.4</v>
+      </c>
+      <c r="W252">
+        <v>1.38</v>
+      </c>
+      <c r="X252">
+        <v>2.75</v>
+      </c>
+      <c r="Y252">
+        <v>2.75</v>
+      </c>
+      <c r="Z252">
+        <v>1.4</v>
+      </c>
+      <c r="AA252">
+        <v>6.25</v>
+      </c>
+      <c r="AB252">
+        <v>1.09</v>
+      </c>
+      <c r="AC252">
+        <v>2.05</v>
+      </c>
+      <c r="AD252">
+        <v>3.3</v>
+      </c>
+      <c r="AE252">
+        <v>3.3</v>
+      </c>
+      <c r="AF252">
+        <v>1.04</v>
+      </c>
+      <c r="AG252">
+        <v>12</v>
+      </c>
+      <c r="AH252">
+        <v>1.28</v>
+      </c>
+      <c r="AI252">
+        <v>3.5</v>
+      </c>
+      <c r="AJ252">
+        <v>1.89</v>
+      </c>
+      <c r="AK252">
+        <v>1.93</v>
+      </c>
+      <c r="AL252">
+        <v>1.7</v>
+      </c>
+      <c r="AM252">
+        <v>2.05</v>
+      </c>
+      <c r="AN252">
+        <v>1.38</v>
+      </c>
+      <c r="AO252">
+        <v>1.27</v>
+      </c>
+      <c r="AP252">
+        <v>1.55</v>
+      </c>
+      <c r="AQ252">
+        <v>1.1</v>
+      </c>
+      <c r="AR252">
+        <v>2.25</v>
+      </c>
+      <c r="AS252">
+        <v>1.27</v>
+      </c>
+      <c r="AT252">
+        <v>2</v>
+      </c>
+      <c r="AU252">
+        <v>1.75</v>
+      </c>
+      <c r="AV252">
+        <v>1.44</v>
+      </c>
+      <c r="AW252">
+        <v>3.19</v>
+      </c>
+      <c r="AX252">
+        <v>1.78</v>
+      </c>
+      <c r="AY252">
+        <v>8.4</v>
+      </c>
+      <c r="AZ252">
+        <v>2.29</v>
+      </c>
+      <c r="BA252">
+        <v>1.29</v>
+      </c>
+      <c r="BB252">
+        <v>1.59</v>
+      </c>
+      <c r="BC252">
+        <v>1.95</v>
+      </c>
+      <c r="BD252">
+        <v>2.46</v>
+      </c>
+      <c r="BE252">
+        <v>3.48</v>
+      </c>
+      <c r="BF252">
+        <v>10</v>
+      </c>
+      <c r="BG252">
+        <v>5</v>
+      </c>
+      <c r="BH252">
+        <v>4</v>
+      </c>
+      <c r="BI252">
+        <v>2</v>
+      </c>
+      <c r="BJ252">
+        <v>14</v>
+      </c>
+      <c r="BK252">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:63">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>5094262</v>
+      </c>
+      <c r="C253" t="s">
+        <v>63</v>
+      </c>
+      <c r="D253" t="s">
+        <v>64</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45136.91666666666</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253" t="s">
+        <v>70</v>
+      </c>
+      <c r="H253" t="s">
+        <v>80</v>
+      </c>
+      <c r="I253">
+        <v>2</v>
+      </c>
+      <c r="J253">
+        <v>2</v>
+      </c>
+      <c r="K253">
+        <v>4</v>
+      </c>
+      <c r="L253">
+        <v>5</v>
+      </c>
+      <c r="M253">
+        <v>2</v>
+      </c>
+      <c r="N253">
+        <v>7</v>
+      </c>
+      <c r="O253" t="s">
+        <v>250</v>
+      </c>
+      <c r="P253" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q253">
+        <v>8</v>
+      </c>
+      <c r="R253">
+        <v>5</v>
+      </c>
+      <c r="S253">
+        <v>13</v>
+      </c>
+      <c r="T253">
+        <v>2</v>
+      </c>
+      <c r="U253">
+        <v>2.3</v>
+      </c>
+      <c r="V253">
+        <v>5.5</v>
+      </c>
+      <c r="W253">
+        <v>1.35</v>
+      </c>
+      <c r="X253">
+        <v>3</v>
+      </c>
+      <c r="Y253">
+        <v>2.55</v>
+      </c>
+      <c r="Z253">
+        <v>1.46</v>
+      </c>
+      <c r="AA253">
+        <v>5.75</v>
+      </c>
+      <c r="AB253">
+        <v>1.1</v>
+      </c>
+      <c r="AC253">
+        <v>1.53</v>
+      </c>
+      <c r="AD253">
+        <v>4</v>
+      </c>
+      <c r="AE253">
+        <v>5.75</v>
+      </c>
+      <c r="AF253">
+        <v>1.03</v>
+      </c>
+      <c r="AG253">
+        <v>14.25</v>
+      </c>
+      <c r="AH253">
+        <v>1.22</v>
+      </c>
+      <c r="AI253">
+        <v>4</v>
+      </c>
+      <c r="AJ253">
+        <v>1.7</v>
+      </c>
+      <c r="AK253">
+        <v>1.95</v>
+      </c>
+      <c r="AL253">
+        <v>1.85</v>
+      </c>
+      <c r="AM253">
+        <v>1.85</v>
+      </c>
+      <c r="AN253">
+        <v>1.13</v>
+      </c>
+      <c r="AO253">
+        <v>1.18</v>
+      </c>
+      <c r="AP253">
+        <v>2.45</v>
+      </c>
+      <c r="AQ253">
+        <v>1.7</v>
+      </c>
+      <c r="AR253">
+        <v>0.8</v>
+      </c>
+      <c r="AS253">
+        <v>1.82</v>
+      </c>
+      <c r="AT253">
+        <v>0.73</v>
+      </c>
+      <c r="AU253">
+        <v>1.68</v>
+      </c>
+      <c r="AV253">
+        <v>1.36</v>
+      </c>
+      <c r="AW253">
+        <v>3.04</v>
+      </c>
+      <c r="AX253">
+        <v>1.23</v>
+      </c>
+      <c r="AY253">
+        <v>11.25</v>
+      </c>
+      <c r="AZ253">
+        <v>4.65</v>
+      </c>
+      <c r="BA253">
+        <v>0</v>
+      </c>
+      <c r="BB253">
+        <v>1.26</v>
+      </c>
+      <c r="BC253">
+        <v>1.53</v>
+      </c>
+      <c r="BD253">
+        <v>1.85</v>
+      </c>
+      <c r="BE253">
+        <v>2.29</v>
+      </c>
+      <c r="BF253">
+        <v>13</v>
+      </c>
+      <c r="BG253">
+        <v>6</v>
+      </c>
+      <c r="BH253">
+        <v>15</v>
+      </c>
+      <c r="BI253">
+        <v>3</v>
+      </c>
+      <c r="BJ253">
+        <v>28</v>
+      </c>
+      <c r="BK253">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:63">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>5094259</v>
+      </c>
+      <c r="C254" t="s">
+        <v>63</v>
+      </c>
+      <c r="D254" t="s">
+        <v>64</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45136.95833333334</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254" t="s">
+        <v>74</v>
+      </c>
+      <c r="H254" t="s">
+        <v>87</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>1</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <v>1</v>
+      </c>
+      <c r="O254" t="s">
+        <v>122</v>
+      </c>
+      <c r="P254" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q254">
+        <v>3</v>
+      </c>
+      <c r="R254">
+        <v>4</v>
+      </c>
+      <c r="S254">
+        <v>7</v>
+      </c>
+      <c r="T254">
+        <v>2.6</v>
+      </c>
+      <c r="U254">
+        <v>2.15</v>
+      </c>
+      <c r="V254">
+        <v>3.75</v>
+      </c>
+      <c r="W254">
+        <v>1.36</v>
+      </c>
+      <c r="X254">
+        <v>3</v>
+      </c>
+      <c r="Y254">
+        <v>2.75</v>
+      </c>
+      <c r="Z254">
+        <v>1.4</v>
+      </c>
+      <c r="AA254">
+        <v>6</v>
+      </c>
+      <c r="AB254">
+        <v>1.11</v>
+      </c>
+      <c r="AC254">
+        <v>1.93</v>
+      </c>
+      <c r="AD254">
+        <v>3.18</v>
+      </c>
+      <c r="AE254">
+        <v>3.13</v>
+      </c>
+      <c r="AF254">
+        <v>1.05</v>
+      </c>
+      <c r="AG254">
+        <v>9</v>
+      </c>
+      <c r="AH254">
+        <v>1.28</v>
+      </c>
+      <c r="AI254">
+        <v>3.5</v>
+      </c>
+      <c r="AJ254">
+        <v>1.77</v>
+      </c>
+      <c r="AK254">
+        <v>1.83</v>
+      </c>
+      <c r="AL254">
+        <v>1.72</v>
+      </c>
+      <c r="AM254">
+        <v>2.05</v>
+      </c>
+      <c r="AN254">
+        <v>1.25</v>
+      </c>
+      <c r="AO254">
+        <v>1.22</v>
+      </c>
+      <c r="AP254">
+        <v>1.72</v>
+      </c>
+      <c r="AQ254">
+        <v>1.4</v>
+      </c>
+      <c r="AR254">
+        <v>1.1</v>
+      </c>
+      <c r="AS254">
+        <v>1.55</v>
+      </c>
+      <c r="AT254">
+        <v>1</v>
+      </c>
+      <c r="AU254">
+        <v>1.57</v>
+      </c>
+      <c r="AV254">
+        <v>1.3</v>
+      </c>
+      <c r="AW254">
+        <v>2.87</v>
+      </c>
+      <c r="AX254">
+        <v>1.68</v>
+      </c>
+      <c r="AY254">
+        <v>8</v>
+      </c>
+      <c r="AZ254">
+        <v>2.55</v>
+      </c>
+      <c r="BA254">
+        <v>1.52</v>
+      </c>
+      <c r="BB254">
+        <v>1.87</v>
+      </c>
+      <c r="BC254">
+        <v>2.36</v>
+      </c>
+      <c r="BD254">
+        <v>3.65</v>
+      </c>
+      <c r="BE254">
+        <v>0</v>
+      </c>
+      <c r="BF254">
+        <v>5</v>
+      </c>
+      <c r="BG254">
+        <v>3</v>
+      </c>
+      <c r="BH254">
+        <v>4</v>
+      </c>
+      <c r="BI254">
+        <v>5</v>
+      </c>
+      <c r="BJ254">
+        <v>9</v>
+      </c>
+      <c r="BK254">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:63">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>5094257</v>
+      </c>
+      <c r="C255" t="s">
+        <v>63</v>
+      </c>
+      <c r="D255" t="s">
+        <v>64</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45136.95833333334</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255" t="s">
+        <v>72</v>
+      </c>
+      <c r="H255" t="s">
+        <v>86</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>2</v>
+      </c>
+      <c r="K255">
+        <v>2</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+      <c r="M255">
+        <v>2</v>
+      </c>
+      <c r="N255">
+        <v>2</v>
+      </c>
+      <c r="O255" t="s">
+        <v>95</v>
+      </c>
+      <c r="P255" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q255">
+        <v>4</v>
+      </c>
+      <c r="R255">
+        <v>1</v>
+      </c>
+      <c r="S255">
+        <v>5</v>
+      </c>
+      <c r="T255">
+        <v>2.5</v>
+      </c>
+      <c r="U255">
+        <v>2.15</v>
+      </c>
+      <c r="V255">
+        <v>4</v>
+      </c>
+      <c r="W255">
+        <v>1.36</v>
+      </c>
+      <c r="X255">
+        <v>3</v>
+      </c>
+      <c r="Y255">
+        <v>2.75</v>
+      </c>
+      <c r="Z255">
+        <v>1.4</v>
+      </c>
+      <c r="AA255">
+        <v>6</v>
+      </c>
+      <c r="AB255">
+        <v>1.11</v>
+      </c>
+      <c r="AC255">
+        <v>1.95</v>
+      </c>
+      <c r="AD255">
+        <v>3.45</v>
+      </c>
+      <c r="AE255">
+        <v>3.6</v>
+      </c>
+      <c r="AF255">
+        <v>1.05</v>
+      </c>
+      <c r="AG255">
+        <v>9</v>
+      </c>
+      <c r="AH255">
+        <v>1.28</v>
+      </c>
+      <c r="AI255">
+        <v>3.5</v>
+      </c>
+      <c r="AJ255">
+        <v>1.75</v>
+      </c>
+      <c r="AK255">
+        <v>1.87</v>
+      </c>
+      <c r="AL255">
+        <v>1.75</v>
+      </c>
+      <c r="AM255">
+        <v>2</v>
+      </c>
+      <c r="AN255">
+        <v>1.22</v>
+      </c>
+      <c r="AO255">
+        <v>1.22</v>
+      </c>
+      <c r="AP255">
+        <v>1.72</v>
+      </c>
+      <c r="AQ255">
+        <v>1.45</v>
+      </c>
+      <c r="AR255">
+        <v>1.09</v>
+      </c>
+      <c r="AS255">
+        <v>1.33</v>
+      </c>
+      <c r="AT255">
+        <v>1.25</v>
+      </c>
+      <c r="AU255">
+        <v>1.39</v>
+      </c>
+      <c r="AV255">
+        <v>1.3</v>
+      </c>
+      <c r="AW255">
+        <v>2.69</v>
+      </c>
+      <c r="AX255">
+        <v>2.09</v>
+      </c>
+      <c r="AY255">
+        <v>8.4</v>
+      </c>
+      <c r="AZ255">
+        <v>1.92</v>
+      </c>
+      <c r="BA255">
+        <v>1.24</v>
+      </c>
+      <c r="BB255">
+        <v>1.51</v>
+      </c>
+      <c r="BC255">
+        <v>1.84</v>
+      </c>
+      <c r="BD255">
+        <v>2.3</v>
+      </c>
+      <c r="BE255">
+        <v>3.08</v>
+      </c>
+      <c r="BF255">
+        <v>8</v>
+      </c>
+      <c r="BG255">
+        <v>4</v>
+      </c>
+      <c r="BH255">
+        <v>6</v>
+      </c>
+      <c r="BI255">
+        <v>4</v>
+      </c>
+      <c r="BJ255">
+        <v>14</v>
+      </c>
+      <c r="BK255">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:63">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>5094258</v>
+      </c>
+      <c r="C256" t="s">
+        <v>63</v>
+      </c>
+      <c r="D256" t="s">
+        <v>64</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45136.95833333334</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256" t="s">
+        <v>85</v>
+      </c>
+      <c r="H256" t="s">
+        <v>82</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256">
+        <v>1</v>
+      </c>
+      <c r="K256">
+        <v>2</v>
+      </c>
+      <c r="L256">
+        <v>1</v>
+      </c>
+      <c r="M256">
+        <v>1</v>
+      </c>
+      <c r="N256">
+        <v>2</v>
+      </c>
+      <c r="O256" t="s">
+        <v>251</v>
+      </c>
+      <c r="P256" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q256">
+        <v>3</v>
+      </c>
+      <c r="R256">
+        <v>4</v>
+      </c>
+      <c r="S256">
+        <v>7</v>
+      </c>
+      <c r="T256">
+        <v>2.25</v>
+      </c>
+      <c r="U256">
+        <v>2.2</v>
+      </c>
+      <c r="V256">
+        <v>4.5</v>
+      </c>
+      <c r="W256">
+        <v>1.36</v>
+      </c>
+      <c r="X256">
+        <v>3</v>
+      </c>
+      <c r="Y256">
+        <v>2.7</v>
+      </c>
+      <c r="Z256">
+        <v>1.41</v>
+      </c>
+      <c r="AA256">
+        <v>6</v>
+      </c>
+      <c r="AB256">
+        <v>1.11</v>
+      </c>
+      <c r="AC256">
+        <v>1.65</v>
+      </c>
+      <c r="AD256">
+        <v>3.65</v>
+      </c>
+      <c r="AE256">
+        <v>4.7</v>
+      </c>
+      <c r="AF256">
+        <v>1.05</v>
+      </c>
+      <c r="AG256">
+        <v>9</v>
+      </c>
+      <c r="AH256">
+        <v>1.28</v>
+      </c>
+      <c r="AI256">
+        <v>3.5</v>
+      </c>
+      <c r="AJ256">
+        <v>1.83</v>
+      </c>
+      <c r="AK256">
+        <v>1.83</v>
+      </c>
+      <c r="AL256">
+        <v>1.83</v>
+      </c>
+      <c r="AM256">
+        <v>1.9</v>
+      </c>
+      <c r="AN256">
+        <v>1.15</v>
+      </c>
+      <c r="AO256">
+        <v>1.2</v>
+      </c>
+      <c r="AP256">
+        <v>2.1</v>
+      </c>
+      <c r="AQ256">
+        <v>1.6</v>
+      </c>
+      <c r="AR256">
+        <v>0.75</v>
+      </c>
+      <c r="AS256">
+        <v>1.55</v>
+      </c>
+      <c r="AT256">
+        <v>0.77</v>
+      </c>
+      <c r="AU256">
+        <v>1.36</v>
+      </c>
+      <c r="AV256">
+        <v>1.24</v>
+      </c>
+      <c r="AW256">
+        <v>2.6</v>
+      </c>
+      <c r="AX256">
+        <v>1.57</v>
+      </c>
+      <c r="AY256">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ256">
+        <v>2.78</v>
+      </c>
+      <c r="BA256">
+        <v>1.42</v>
+      </c>
+      <c r="BB256">
+        <v>1.78</v>
+      </c>
+      <c r="BC256">
+        <v>2.23</v>
+      </c>
+      <c r="BD256">
+        <v>3.08</v>
+      </c>
+      <c r="BE256">
+        <v>0</v>
+      </c>
+      <c r="BF256">
+        <v>6</v>
+      </c>
+      <c r="BG256">
+        <v>10</v>
+      </c>
+      <c r="BH256">
+        <v>7</v>
+      </c>
+      <c r="BI256">
+        <v>1</v>
+      </c>
+      <c r="BJ256">
+        <v>13</v>
+      </c>
+      <c r="BK256">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:63">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>5094254</v>
+      </c>
+      <c r="C257" t="s">
+        <v>63</v>
+      </c>
+      <c r="D257" t="s">
+        <v>64</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45136.97916666666</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257" t="s">
+        <v>88</v>
+      </c>
+      <c r="H257" t="s">
+        <v>77</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257">
+        <v>1</v>
+      </c>
+      <c r="K257">
+        <v>2</v>
+      </c>
+      <c r="L257">
+        <v>1</v>
+      </c>
+      <c r="M257">
+        <v>2</v>
+      </c>
+      <c r="N257">
+        <v>3</v>
+      </c>
+      <c r="O257" t="s">
+        <v>252</v>
+      </c>
+      <c r="P257" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q257">
+        <v>3</v>
+      </c>
+      <c r="R257">
+        <v>2</v>
+      </c>
+      <c r="S257">
+        <v>5</v>
+      </c>
+      <c r="T257">
+        <v>4</v>
+      </c>
+      <c r="U257">
+        <v>2.15</v>
+      </c>
+      <c r="V257">
+        <v>2.5</v>
+      </c>
+      <c r="W257">
+        <v>1.39</v>
+      </c>
+      <c r="X257">
+        <v>2.8</v>
+      </c>
+      <c r="Y257">
+        <v>2.62</v>
+      </c>
+      <c r="Z257">
+        <v>1.44</v>
+      </c>
+      <c r="AA257">
+        <v>6.5</v>
+      </c>
+      <c r="AB257">
+        <v>1.1</v>
+      </c>
+      <c r="AC257">
+        <v>3.4</v>
+      </c>
+      <c r="AD257">
+        <v>3.25</v>
+      </c>
+      <c r="AE257">
+        <v>1.82</v>
+      </c>
+      <c r="AF257">
+        <v>1.06</v>
+      </c>
+      <c r="AG257">
+        <v>8</v>
+      </c>
+      <c r="AH257">
+        <v>1.3</v>
+      </c>
+      <c r="AI257">
+        <v>3.3</v>
+      </c>
+      <c r="AJ257">
+        <v>1.84</v>
+      </c>
+      <c r="AK257">
+        <v>1.76</v>
+      </c>
+      <c r="AL257">
+        <v>1.78</v>
+      </c>
+      <c r="AM257">
+        <v>1.95</v>
+      </c>
+      <c r="AN257">
+        <v>1.72</v>
+      </c>
+      <c r="AO257">
+        <v>1.22</v>
+      </c>
+      <c r="AP257">
+        <v>1.22</v>
+      </c>
+      <c r="AQ257">
+        <v>0.38</v>
+      </c>
+      <c r="AR257">
+        <v>1.22</v>
+      </c>
+      <c r="AS257">
+        <v>0.33</v>
+      </c>
+      <c r="AT257">
+        <v>1.4</v>
+      </c>
+      <c r="AU257">
+        <v>2.1</v>
+      </c>
+      <c r="AV257">
+        <v>1.38</v>
+      </c>
+      <c r="AW257">
+        <v>3.48</v>
+      </c>
+      <c r="AX257">
+        <v>2.16</v>
+      </c>
+      <c r="AY257">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ257">
+        <v>1.85</v>
+      </c>
+      <c r="BA257">
+        <v>1.19</v>
+      </c>
+      <c r="BB257">
+        <v>1.38</v>
+      </c>
+      <c r="BC257">
+        <v>1.71</v>
+      </c>
+      <c r="BD257">
+        <v>2.12</v>
+      </c>
+      <c r="BE257">
+        <v>2.78</v>
+      </c>
+      <c r="BF257">
+        <v>3</v>
+      </c>
+      <c r="BG257">
+        <v>4</v>
+      </c>
+      <c r="BH257">
+        <v>10</v>
+      </c>
+      <c r="BI257">
+        <v>5</v>
+      </c>
+      <c r="BJ257">
+        <v>13</v>
+      </c>
+      <c r="BK257">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:63">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>5094263</v>
+      </c>
+      <c r="C258" t="s">
+        <v>63</v>
+      </c>
+      <c r="D258" t="s">
+        <v>64</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45137.79166666666</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258" t="s">
+        <v>73</v>
+      </c>
+      <c r="H258" t="s">
+        <v>76</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>1</v>
+      </c>
+      <c r="L258">
+        <v>2</v>
+      </c>
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258">
+        <v>2</v>
+      </c>
+      <c r="O258" t="s">
+        <v>253</v>
+      </c>
+      <c r="P258" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q258">
+        <v>8</v>
+      </c>
+      <c r="R258">
+        <v>3</v>
+      </c>
+      <c r="S258">
+        <v>11</v>
+      </c>
+      <c r="T258">
+        <v>2.5</v>
+      </c>
+      <c r="U258">
+        <v>2.15</v>
+      </c>
+      <c r="V258">
+        <v>4</v>
+      </c>
+      <c r="W258">
+        <v>1.35</v>
+      </c>
+      <c r="X258">
+        <v>2.9</v>
+      </c>
+      <c r="Y258">
+        <v>2.65</v>
+      </c>
+      <c r="Z258">
+        <v>1.42</v>
+      </c>
+      <c r="AA258">
+        <v>6</v>
+      </c>
+      <c r="AB258">
+        <v>1.1</v>
+      </c>
+      <c r="AC258">
+        <v>1.86</v>
+      </c>
+      <c r="AD258">
+        <v>3.65</v>
+      </c>
+      <c r="AE258">
+        <v>3.45</v>
+      </c>
+      <c r="AF258">
+        <v>1.04</v>
+      </c>
+      <c r="AG258">
+        <v>13.25</v>
+      </c>
+      <c r="AH258">
+        <v>1.25</v>
+      </c>
+      <c r="AI258">
+        <v>3.6</v>
+      </c>
+      <c r="AJ258">
+        <v>1.64</v>
+      </c>
+      <c r="AK258">
+        <v>2.14</v>
+      </c>
+      <c r="AL258">
+        <v>1.7</v>
+      </c>
+      <c r="AM258">
+        <v>2.05</v>
+      </c>
+      <c r="AN258">
+        <v>1.22</v>
+      </c>
+      <c r="AO258">
+        <v>1.22</v>
+      </c>
+      <c r="AP258">
+        <v>1.8</v>
+      </c>
+      <c r="AQ258">
+        <v>1.75</v>
+      </c>
+      <c r="AR258">
+        <v>0.91</v>
+      </c>
+      <c r="AS258">
+        <v>1.89</v>
+      </c>
+      <c r="AT258">
+        <v>0.83</v>
+      </c>
+      <c r="AU258">
+        <v>1.51</v>
+      </c>
+      <c r="AV258">
+        <v>1.37</v>
+      </c>
+      <c r="AW258">
+        <v>2.88</v>
+      </c>
+      <c r="AX258">
+        <v>1.47</v>
+      </c>
+      <c r="AY258">
+        <v>7.1</v>
+      </c>
+      <c r="AZ258">
+        <v>3.58</v>
+      </c>
+      <c r="BA258">
+        <v>1.27</v>
+      </c>
+      <c r="BB258">
+        <v>1.53</v>
+      </c>
+      <c r="BC258">
+        <v>1.88</v>
+      </c>
+      <c r="BD258">
+        <v>2.34</v>
+      </c>
+      <c r="BE258">
+        <v>3.3</v>
+      </c>
+      <c r="BF258">
+        <v>5</v>
+      </c>
+      <c r="BG258">
+        <v>6</v>
+      </c>
+      <c r="BH258">
+        <v>8</v>
+      </c>
+      <c r="BI258">
+        <v>4</v>
+      </c>
+      <c r="BJ258">
+        <v>13</v>
+      </c>
+      <c r="BK258">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
